--- a/data/data_set_xx.xlsx
+++ b/data/data_set_xx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lab\Documents\GitHub\DSAI_HW1_ElectricityForecasting\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC09CA4A-AFFC-4E7B-BA25-DB6D434019B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68724F93-FBCF-4920-B871-47AE31BE9439}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1142,8 +1142,8 @@
   <dimension ref="A1:M821"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD3"/>
+      <pane ySplit="1" topLeftCell="A759" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A806" sqref="A793:XFD806"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B3" s="15"/>
       <c r="C3" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="9">
         <v>19</v>
@@ -1281,7 +1281,7 @@
       </c>
       <c r="B4" s="15"/>
       <c r="C4" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" s="9">
         <v>19</v>
@@ -1322,7 +1322,7 @@
       </c>
       <c r="B5" s="15"/>
       <c r="C5" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" s="9">
         <v>19</v>
@@ -1363,7 +1363,7 @@
       </c>
       <c r="B6" s="15"/>
       <c r="C6" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" s="9">
         <v>19</v>
@@ -1404,7 +1404,7 @@
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" s="9">
         <v>19</v>
@@ -1445,7 +1445,7 @@
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" s="9">
         <v>19</v>
@@ -1486,7 +1486,7 @@
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" s="9">
         <v>19</v>
@@ -1527,7 +1527,7 @@
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10" s="9">
         <v>19</v>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="B11" s="15"/>
       <c r="C11" s="11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" s="9">
         <v>19</v>
@@ -1609,7 +1609,7 @@
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12" s="9">
         <v>19</v>
@@ -1650,7 +1650,7 @@
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D13" s="9">
         <v>19</v>
@@ -1691,7 +1691,7 @@
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="11">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D14" s="9">
         <v>19</v>
@@ -1732,7 +1732,7 @@
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="11">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D15" s="9">
         <v>19</v>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="11">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D16" s="9">
         <v>19</v>
@@ -1814,7 +1814,7 @@
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="11">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D17" s="9">
         <v>19</v>
@@ -1855,7 +1855,7 @@
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="11">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D18" s="9">
         <v>19</v>
@@ -1896,7 +1896,7 @@
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="11">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D19" s="9">
         <v>19</v>
@@ -1937,7 +1937,7 @@
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="11">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D20" s="9">
         <v>19</v>
@@ -1978,7 +1978,7 @@
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="11">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D21" s="9">
         <v>19</v>
@@ -2019,7 +2019,7 @@
       </c>
       <c r="B22" s="15"/>
       <c r="C22" s="11">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D22" s="9">
         <v>19</v>
@@ -2060,7 +2060,7 @@
       </c>
       <c r="B23" s="15"/>
       <c r="C23" s="11">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D23" s="9">
         <v>19</v>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="B24" s="15"/>
       <c r="C24" s="11">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D24" s="9">
         <v>19</v>
@@ -2142,7 +2142,7 @@
       </c>
       <c r="B25" s="15"/>
       <c r="C25" s="11">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D25" s="9">
         <v>19</v>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="B26" s="15"/>
       <c r="C26" s="11">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D26" s="9">
         <v>19</v>
@@ -2224,7 +2224,7 @@
       </c>
       <c r="B27" s="15"/>
       <c r="C27" s="11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D27" s="9">
         <v>19</v>
@@ -2265,7 +2265,7 @@
       </c>
       <c r="B28" s="15"/>
       <c r="C28" s="11">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D28" s="9">
         <v>19</v>
@@ -2306,7 +2306,7 @@
       </c>
       <c r="B29" s="15"/>
       <c r="C29" s="11">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" s="9">
         <v>19</v>
@@ -2347,7 +2347,7 @@
       </c>
       <c r="B30" s="15"/>
       <c r="C30" s="11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D30" s="9">
         <v>19</v>
@@ -2388,7 +2388,7 @@
       </c>
       <c r="B31" s="15"/>
       <c r="C31" s="11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D31" s="9">
         <v>19</v>
@@ -2429,7 +2429,7 @@
       </c>
       <c r="B32" s="15"/>
       <c r="C32" s="11">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D32" s="9">
         <v>19</v>
@@ -2470,7 +2470,7 @@
       </c>
       <c r="B33" s="15"/>
       <c r="C33" s="11">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D33" s="9">
         <v>19</v>
@@ -2511,7 +2511,7 @@
       </c>
       <c r="B34" s="15"/>
       <c r="C34" s="11">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D34" s="9">
         <v>19</v>
@@ -2552,7 +2552,7 @@
       </c>
       <c r="B35" s="15"/>
       <c r="C35" s="11">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D35" s="9">
         <v>19</v>
@@ -2593,7 +2593,7 @@
       </c>
       <c r="B36" s="15"/>
       <c r="C36" s="11">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D36" s="9">
         <v>19</v>
@@ -2634,7 +2634,7 @@
       </c>
       <c r="B37" s="15"/>
       <c r="C37" s="11">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D37" s="9">
         <v>19</v>
@@ -2675,7 +2675,7 @@
       </c>
       <c r="B38" s="15"/>
       <c r="C38" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D38" s="9">
         <v>19</v>
@@ -2716,7 +2716,7 @@
       </c>
       <c r="B39" s="15"/>
       <c r="C39" s="11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D39" s="9">
         <v>19</v>
@@ -2757,7 +2757,7 @@
       </c>
       <c r="B40" s="15"/>
       <c r="C40" s="11">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D40" s="9">
         <v>19</v>
@@ -2798,7 +2798,7 @@
       </c>
       <c r="B41" s="15"/>
       <c r="C41" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D41" s="9">
         <v>19</v>
@@ -2839,7 +2839,7 @@
       </c>
       <c r="B42" s="15"/>
       <c r="C42" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D42" s="9">
         <v>19</v>
@@ -2880,7 +2880,7 @@
       </c>
       <c r="B43" s="15"/>
       <c r="C43" s="11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D43" s="9">
         <v>19</v>
@@ -2921,7 +2921,7 @@
       </c>
       <c r="B44" s="15"/>
       <c r="C44" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D44" s="9">
         <v>19</v>
@@ -2962,7 +2962,7 @@
       </c>
       <c r="B45" s="15"/>
       <c r="C45" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D45" s="9">
         <v>19</v>
@@ -3003,7 +3003,7 @@
       </c>
       <c r="B46" s="15"/>
       <c r="C46" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D46" s="9">
         <v>19</v>
@@ -3044,7 +3044,7 @@
       </c>
       <c r="B47" s="15"/>
       <c r="C47" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D47" s="9">
         <v>19</v>
@@ -3085,7 +3085,7 @@
       </c>
       <c r="B48" s="15"/>
       <c r="C48" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D48" s="9">
         <v>19</v>
@@ -3126,7 +3126,7 @@
       </c>
       <c r="B49" s="15"/>
       <c r="C49" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D49" s="9">
         <v>19</v>
@@ -3167,7 +3167,7 @@
       </c>
       <c r="B50" s="15"/>
       <c r="C50" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D50" s="9">
         <v>19</v>
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B51" s="15"/>
       <c r="C51" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D51" s="9">
         <v>19</v>
@@ -3249,7 +3249,7 @@
       </c>
       <c r="B52" s="15"/>
       <c r="C52" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D52" s="9">
         <v>19</v>
@@ -3290,7 +3290,7 @@
       </c>
       <c r="B53" s="15"/>
       <c r="C53" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D53" s="9">
         <v>19</v>
@@ -3331,7 +3331,7 @@
       </c>
       <c r="B54" s="15"/>
       <c r="C54" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D54" s="9">
         <v>19</v>
@@ -3372,7 +3372,7 @@
       </c>
       <c r="B55" s="15"/>
       <c r="C55" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D55" s="9">
         <v>19</v>
@@ -3413,7 +3413,7 @@
       </c>
       <c r="B56" s="15"/>
       <c r="C56" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D56" s="9">
         <v>19</v>
@@ -3454,7 +3454,7 @@
       </c>
       <c r="B57" s="15"/>
       <c r="C57" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D57" s="9">
         <v>19</v>
@@ -3495,7 +3495,7 @@
       </c>
       <c r="B58" s="15"/>
       <c r="C58" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D58" s="9">
         <v>19</v>
@@ -3536,7 +3536,7 @@
       </c>
       <c r="B59" s="15"/>
       <c r="C59" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D59" s="9">
         <v>19</v>
@@ -3577,7 +3577,7 @@
       </c>
       <c r="B60" s="15"/>
       <c r="C60" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D60" s="9">
         <v>19</v>
@@ -3618,7 +3618,7 @@
       </c>
       <c r="B61" s="15"/>
       <c r="C61" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D61" s="9">
         <v>19</v>
@@ -3659,7 +3659,7 @@
       </c>
       <c r="B62" s="15"/>
       <c r="C62" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D62" s="9">
         <v>19</v>
@@ -3700,7 +3700,7 @@
       </c>
       <c r="B63" s="15"/>
       <c r="C63" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D63" s="9">
         <v>19</v>
@@ -3741,7 +3741,7 @@
       </c>
       <c r="B64" s="15"/>
       <c r="C64" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D64" s="9">
         <v>19</v>
@@ -3782,7 +3782,7 @@
       </c>
       <c r="B65" s="15"/>
       <c r="C65" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D65" s="9">
         <v>19</v>
@@ -3823,7 +3823,7 @@
       </c>
       <c r="B66" s="15"/>
       <c r="C66" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D66" s="9">
         <v>19</v>
@@ -3864,7 +3864,7 @@
       </c>
       <c r="B67" s="15"/>
       <c r="C67" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D67" s="9">
         <v>19</v>
@@ -3905,7 +3905,7 @@
       </c>
       <c r="B68" s="15"/>
       <c r="C68" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D68" s="9">
         <v>19</v>
@@ -3946,7 +3946,7 @@
       </c>
       <c r="B69" s="15"/>
       <c r="C69" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D69" s="9">
         <v>19</v>
@@ -3987,7 +3987,7 @@
       </c>
       <c r="B70" s="15"/>
       <c r="C70" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D70" s="9">
         <v>19</v>
@@ -4028,7 +4028,7 @@
       </c>
       <c r="B71" s="15"/>
       <c r="C71" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D71" s="9">
         <v>19</v>
@@ -4069,7 +4069,7 @@
       </c>
       <c r="B72" s="15"/>
       <c r="C72" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D72" s="9">
         <v>19</v>
@@ -4110,7 +4110,7 @@
       </c>
       <c r="B73" s="15"/>
       <c r="C73" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D73" s="9">
         <v>19</v>
@@ -4151,7 +4151,7 @@
       </c>
       <c r="B74" s="15"/>
       <c r="C74" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D74" s="9">
         <v>19</v>
@@ -4192,7 +4192,7 @@
       </c>
       <c r="B75" s="15"/>
       <c r="C75" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D75" s="9">
         <v>19</v>
@@ -4233,7 +4233,7 @@
       </c>
       <c r="B76" s="15"/>
       <c r="C76" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D76" s="9">
         <v>19</v>
@@ -4274,7 +4274,7 @@
       </c>
       <c r="B77" s="15"/>
       <c r="C77" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D77" s="9">
         <v>19</v>
@@ -4315,7 +4315,7 @@
       </c>
       <c r="B78" s="15"/>
       <c r="C78" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D78" s="9">
         <v>19</v>
@@ -4356,7 +4356,7 @@
       </c>
       <c r="B79" s="15"/>
       <c r="C79" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D79" s="9">
         <v>19</v>
@@ -4397,7 +4397,7 @@
       </c>
       <c r="B80" s="15"/>
       <c r="C80" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D80" s="9">
         <v>19</v>
@@ -4438,7 +4438,7 @@
       </c>
       <c r="B81" s="15"/>
       <c r="C81" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D81" s="9">
         <v>19</v>
@@ -4479,7 +4479,7 @@
       </c>
       <c r="B82" s="15"/>
       <c r="C82" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D82" s="9">
         <v>19</v>
@@ -4520,7 +4520,7 @@
       </c>
       <c r="B83" s="15"/>
       <c r="C83" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D83" s="9">
         <v>19</v>
@@ -4561,7 +4561,7 @@
       </c>
       <c r="B84" s="15"/>
       <c r="C84" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D84" s="9">
         <v>19</v>
@@ -4602,7 +4602,7 @@
       </c>
       <c r="B85" s="15"/>
       <c r="C85" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D85" s="9">
         <v>19</v>
@@ -4643,7 +4643,7 @@
       </c>
       <c r="B86" s="15"/>
       <c r="C86" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D86" s="9">
         <v>19</v>
@@ -4684,7 +4684,7 @@
       </c>
       <c r="B87" s="15"/>
       <c r="C87" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D87" s="9">
         <v>19</v>
@@ -4725,7 +4725,7 @@
       </c>
       <c r="B88" s="15"/>
       <c r="C88" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D88" s="9">
         <v>19</v>
@@ -4766,7 +4766,7 @@
       </c>
       <c r="B89" s="15"/>
       <c r="C89" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D89" s="9">
         <v>19</v>
@@ -4807,7 +4807,7 @@
       </c>
       <c r="B90" s="15"/>
       <c r="C90" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D90" s="9">
         <v>19</v>
@@ -4848,7 +4848,7 @@
       </c>
       <c r="B91" s="15"/>
       <c r="C91" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D91" s="9">
         <v>19</v>
@@ -4889,7 +4889,7 @@
       </c>
       <c r="B92" s="15"/>
       <c r="C92" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D92" s="9">
         <v>19</v>
@@ -4930,7 +4930,7 @@
       </c>
       <c r="B93" s="15"/>
       <c r="C93" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D93" s="9">
         <v>19</v>
@@ -4971,7 +4971,7 @@
       </c>
       <c r="B94" s="15"/>
       <c r="C94" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D94" s="9">
         <v>19</v>
@@ -5012,7 +5012,7 @@
       </c>
       <c r="B95" s="15"/>
       <c r="C95" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D95" s="9">
         <v>19</v>
@@ -5053,7 +5053,7 @@
       </c>
       <c r="B96" s="15"/>
       <c r="C96" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D96" s="9">
         <v>19</v>
@@ -5094,7 +5094,7 @@
       </c>
       <c r="B97" s="15"/>
       <c r="C97" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D97" s="9">
         <v>19</v>
@@ -5135,7 +5135,7 @@
       </c>
       <c r="B98" s="15"/>
       <c r="C98" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D98" s="9">
         <v>19</v>
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B99" s="15"/>
       <c r="C99" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D99" s="9">
         <v>19</v>
@@ -5217,7 +5217,7 @@
       </c>
       <c r="B100" s="15"/>
       <c r="C100" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D100" s="9">
         <v>19</v>
@@ -5258,7 +5258,7 @@
       </c>
       <c r="B101" s="15"/>
       <c r="C101" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D101" s="9">
         <v>19</v>
@@ -5299,7 +5299,7 @@
       </c>
       <c r="B102" s="15"/>
       <c r="C102" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D102" s="9">
         <v>19</v>
@@ -5340,7 +5340,7 @@
       </c>
       <c r="B103" s="15"/>
       <c r="C103" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D103" s="9">
         <v>19</v>
@@ -5381,7 +5381,7 @@
       </c>
       <c r="B104" s="15"/>
       <c r="C104" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D104" s="9">
         <v>19</v>
@@ -5422,7 +5422,7 @@
       </c>
       <c r="B105" s="15"/>
       <c r="C105" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D105" s="9">
         <v>19</v>
@@ -5463,7 +5463,7 @@
       </c>
       <c r="B106" s="15"/>
       <c r="C106" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D106" s="9">
         <v>19</v>
@@ -5504,7 +5504,7 @@
       </c>
       <c r="B107" s="15"/>
       <c r="C107" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D107" s="9">
         <v>19</v>
@@ -5545,7 +5545,7 @@
       </c>
       <c r="B108" s="15"/>
       <c r="C108" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D108" s="9">
         <v>19</v>
@@ -5586,7 +5586,7 @@
       </c>
       <c r="B109" s="15"/>
       <c r="C109" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D109" s="9">
         <v>19</v>
@@ -5627,7 +5627,7 @@
       </c>
       <c r="B110" s="15"/>
       <c r="C110" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D110" s="9">
         <v>19</v>
@@ -5668,7 +5668,7 @@
       </c>
       <c r="B111" s="15"/>
       <c r="C111" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D111" s="9">
         <v>19</v>
@@ -5709,7 +5709,7 @@
       </c>
       <c r="B112" s="15"/>
       <c r="C112" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D112" s="9">
         <v>19</v>
@@ -5750,7 +5750,7 @@
       </c>
       <c r="B113" s="15"/>
       <c r="C113" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D113" s="9">
         <v>19</v>
@@ -5791,7 +5791,7 @@
       </c>
       <c r="B114" s="15"/>
       <c r="C114" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D114" s="9">
         <v>19</v>
@@ -5832,7 +5832,7 @@
       </c>
       <c r="B115" s="15"/>
       <c r="C115" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D115" s="9">
         <v>19</v>
@@ -5873,7 +5873,7 @@
       </c>
       <c r="B116" s="15"/>
       <c r="C116" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D116" s="9">
         <v>19</v>
@@ -5914,7 +5914,7 @@
       </c>
       <c r="B117" s="15"/>
       <c r="C117" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D117" s="9">
         <v>19</v>
@@ -5955,7 +5955,7 @@
       </c>
       <c r="B118" s="15"/>
       <c r="C118" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D118" s="9">
         <v>19</v>
@@ -5996,7 +5996,7 @@
       </c>
       <c r="B119" s="15"/>
       <c r="C119" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D119" s="9">
         <v>19</v>
@@ -6037,7 +6037,7 @@
       </c>
       <c r="B120" s="15"/>
       <c r="C120" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D120" s="9">
         <v>19</v>
@@ -6078,7 +6078,7 @@
       </c>
       <c r="B121" s="15"/>
       <c r="C121" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D121" s="9">
         <v>19</v>
@@ -6119,7 +6119,7 @@
       </c>
       <c r="B122" s="15"/>
       <c r="C122" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D122" s="9">
         <v>19</v>
@@ -6160,7 +6160,7 @@
       </c>
       <c r="B123" s="15"/>
       <c r="C123" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D123" s="9">
         <v>19</v>
@@ -6201,7 +6201,7 @@
       </c>
       <c r="B124" s="15"/>
       <c r="C124" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D124" s="9">
         <v>19</v>
@@ -6242,7 +6242,7 @@
       </c>
       <c r="B125" s="15"/>
       <c r="C125" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D125" s="9">
         <v>19</v>
@@ -6283,7 +6283,7 @@
       </c>
       <c r="B126" s="15"/>
       <c r="C126" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D126" s="9">
         <v>19</v>
@@ -6324,7 +6324,7 @@
       </c>
       <c r="B127" s="15"/>
       <c r="C127" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D127" s="9">
         <v>19</v>
@@ -6365,7 +6365,7 @@
       </c>
       <c r="B128" s="15"/>
       <c r="C128" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D128" s="9">
         <v>19</v>
@@ -6406,7 +6406,7 @@
       </c>
       <c r="B129" s="15"/>
       <c r="C129" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D129" s="9">
         <v>19</v>
@@ -6447,7 +6447,7 @@
       </c>
       <c r="B130" s="15"/>
       <c r="C130" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D130" s="9">
         <v>19</v>
@@ -6488,7 +6488,7 @@
       </c>
       <c r="B131" s="15"/>
       <c r="C131" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D131" s="9">
         <v>19</v>
@@ -6529,7 +6529,7 @@
       </c>
       <c r="B132" s="15"/>
       <c r="C132" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D132" s="9">
         <v>19</v>
@@ -6570,7 +6570,7 @@
       </c>
       <c r="B133" s="15"/>
       <c r="C133" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D133" s="9">
         <v>19</v>
@@ -6611,7 +6611,7 @@
       </c>
       <c r="B134" s="15"/>
       <c r="C134" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D134" s="9">
         <v>19</v>
@@ -6652,7 +6652,7 @@
       </c>
       <c r="B135" s="15"/>
       <c r="C135" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D135" s="9">
         <v>19</v>
@@ -6693,7 +6693,7 @@
       </c>
       <c r="B136" s="15"/>
       <c r="C136" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D136" s="9">
         <v>19</v>
@@ -6734,7 +6734,7 @@
       </c>
       <c r="B137" s="15"/>
       <c r="C137" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D137" s="9">
         <v>19</v>
@@ -6775,7 +6775,7 @@
       </c>
       <c r="B138" s="15"/>
       <c r="C138" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D138" s="9">
         <v>19</v>
@@ -6816,7 +6816,7 @@
       </c>
       <c r="B139" s="15"/>
       <c r="C139" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D139" s="9">
         <v>19</v>
@@ -6857,7 +6857,7 @@
       </c>
       <c r="B140" s="15"/>
       <c r="C140" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D140" s="9">
         <v>19</v>
@@ -6898,7 +6898,7 @@
       </c>
       <c r="B141" s="15"/>
       <c r="C141" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D141" s="9">
         <v>19</v>
@@ -6939,7 +6939,7 @@
       </c>
       <c r="B142" s="15"/>
       <c r="C142" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D142" s="9">
         <v>19</v>
@@ -6980,7 +6980,7 @@
       </c>
       <c r="B143" s="15"/>
       <c r="C143" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D143" s="9">
         <v>19</v>
@@ -7021,7 +7021,7 @@
       </c>
       <c r="B144" s="15"/>
       <c r="C144" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D144" s="9">
         <v>19</v>
@@ -7062,7 +7062,7 @@
       </c>
       <c r="B145" s="15"/>
       <c r="C145" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D145" s="9">
         <v>19</v>
@@ -7103,7 +7103,7 @@
       </c>
       <c r="B146" s="15"/>
       <c r="C146" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D146" s="9">
         <v>19</v>
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B147" s="15"/>
       <c r="C147" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D147" s="9">
         <v>19</v>
@@ -7185,7 +7185,7 @@
       </c>
       <c r="B148" s="15"/>
       <c r="C148" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D148" s="9">
         <v>19</v>
@@ -7226,7 +7226,7 @@
       </c>
       <c r="B149" s="15"/>
       <c r="C149" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D149" s="9">
         <v>19</v>
@@ -7267,7 +7267,7 @@
       </c>
       <c r="B150" s="15"/>
       <c r="C150" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D150" s="9">
         <v>19</v>
@@ -7308,7 +7308,7 @@
       </c>
       <c r="B151" s="15"/>
       <c r="C151" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D151" s="9">
         <v>19</v>
@@ -7349,7 +7349,7 @@
       </c>
       <c r="B152" s="15"/>
       <c r="C152" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D152" s="9">
         <v>19</v>
@@ -7390,7 +7390,7 @@
       </c>
       <c r="B153" s="15"/>
       <c r="C153" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D153" s="9">
         <v>19</v>
@@ -7431,7 +7431,7 @@
       </c>
       <c r="B154" s="15"/>
       <c r="C154" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D154" s="9">
         <v>19</v>
@@ -7472,7 +7472,7 @@
       </c>
       <c r="B155" s="15"/>
       <c r="C155" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D155" s="9">
         <v>19</v>
@@ -7513,7 +7513,7 @@
       </c>
       <c r="B156" s="15"/>
       <c r="C156" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D156" s="9">
         <v>19</v>
@@ -7554,7 +7554,7 @@
       </c>
       <c r="B157" s="15"/>
       <c r="C157" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D157" s="9">
         <v>19</v>
@@ -7595,7 +7595,7 @@
       </c>
       <c r="B158" s="15"/>
       <c r="C158" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D158" s="9">
         <v>19</v>
@@ -7636,7 +7636,7 @@
       </c>
       <c r="B159" s="15"/>
       <c r="C159" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D159" s="9">
         <v>19</v>
@@ -7677,7 +7677,7 @@
       </c>
       <c r="B160" s="15"/>
       <c r="C160" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D160" s="9">
         <v>19</v>
@@ -7718,7 +7718,7 @@
       </c>
       <c r="B161" s="15"/>
       <c r="C161" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D161" s="9">
         <v>19</v>
@@ -7759,7 +7759,7 @@
       </c>
       <c r="B162" s="15"/>
       <c r="C162" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D162" s="9">
         <v>19</v>
@@ -7800,7 +7800,7 @@
       </c>
       <c r="B163" s="15"/>
       <c r="C163" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D163" s="9">
         <v>19</v>
@@ -7841,7 +7841,7 @@
       </c>
       <c r="B164" s="15"/>
       <c r="C164" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D164" s="9">
         <v>19</v>
@@ -7882,7 +7882,7 @@
       </c>
       <c r="B165" s="15"/>
       <c r="C165" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D165" s="9">
         <v>19</v>
@@ -7923,7 +7923,7 @@
       </c>
       <c r="B166" s="15"/>
       <c r="C166" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D166" s="9">
         <v>19</v>
@@ -7964,7 +7964,7 @@
       </c>
       <c r="B167" s="15"/>
       <c r="C167" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D167" s="9">
         <v>19</v>
@@ -8005,7 +8005,7 @@
       </c>
       <c r="B168" s="15"/>
       <c r="C168" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D168" s="9">
         <v>19</v>
@@ -8046,7 +8046,7 @@
       </c>
       <c r="B169" s="15"/>
       <c r="C169" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D169" s="9">
         <v>19</v>
@@ -8087,7 +8087,7 @@
       </c>
       <c r="B170" s="15"/>
       <c r="C170" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D170" s="9">
         <v>19</v>
@@ -8128,7 +8128,7 @@
       </c>
       <c r="B171" s="15"/>
       <c r="C171" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D171" s="9">
         <v>19</v>
@@ -8169,7 +8169,7 @@
       </c>
       <c r="B172" s="15"/>
       <c r="C172" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D172" s="9">
         <v>19</v>
@@ -8210,7 +8210,7 @@
       </c>
       <c r="B173" s="15"/>
       <c r="C173" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D173" s="9">
         <v>19</v>
@@ -8251,7 +8251,7 @@
       </c>
       <c r="B174" s="15"/>
       <c r="C174" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D174" s="9">
         <v>19</v>
@@ -8292,7 +8292,7 @@
       </c>
       <c r="B175" s="15"/>
       <c r="C175" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D175" s="9">
         <v>19</v>
@@ -8333,7 +8333,7 @@
       </c>
       <c r="B176" s="15"/>
       <c r="C176" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D176" s="9">
         <v>19</v>
@@ -8374,7 +8374,7 @@
       </c>
       <c r="B177" s="15"/>
       <c r="C177" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D177" s="9">
         <v>19</v>
@@ -8415,7 +8415,7 @@
       </c>
       <c r="B178" s="15"/>
       <c r="C178" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D178" s="9">
         <v>19</v>
@@ -8456,7 +8456,7 @@
       </c>
       <c r="B179" s="15"/>
       <c r="C179" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D179" s="9">
         <v>19</v>
@@ -8497,7 +8497,7 @@
       </c>
       <c r="B180" s="15"/>
       <c r="C180" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D180" s="9">
         <v>19</v>
@@ -8538,7 +8538,7 @@
       </c>
       <c r="B181" s="15"/>
       <c r="C181" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D181" s="9">
         <v>19</v>
@@ -8579,7 +8579,7 @@
       </c>
       <c r="B182" s="15"/>
       <c r="C182" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D182" s="9">
         <v>19</v>
@@ -8620,7 +8620,7 @@
       </c>
       <c r="B183" s="15"/>
       <c r="C183" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D183" s="9">
         <v>19</v>
@@ -8661,7 +8661,7 @@
       </c>
       <c r="B184" s="15"/>
       <c r="C184" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D184" s="9">
         <v>19</v>
@@ -8702,7 +8702,7 @@
       </c>
       <c r="B185" s="15"/>
       <c r="C185" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D185" s="9">
         <v>19</v>
@@ -8743,7 +8743,7 @@
       </c>
       <c r="B186" s="15"/>
       <c r="C186" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D186" s="9">
         <v>19</v>
@@ -8784,7 +8784,7 @@
       </c>
       <c r="B187" s="15"/>
       <c r="C187" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D187" s="9">
         <v>19</v>
@@ -8825,7 +8825,7 @@
       </c>
       <c r="B188" s="15"/>
       <c r="C188" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D188" s="9">
         <v>19</v>
@@ -8866,7 +8866,7 @@
       </c>
       <c r="B189" s="15"/>
       <c r="C189" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D189" s="9">
         <v>19</v>
@@ -8907,7 +8907,7 @@
       </c>
       <c r="B190" s="15"/>
       <c r="C190" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D190" s="9">
         <v>19</v>
@@ -8948,7 +8948,7 @@
       </c>
       <c r="B191" s="15"/>
       <c r="C191" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D191" s="9">
         <v>19</v>
@@ -8989,7 +8989,7 @@
       </c>
       <c r="B192" s="15"/>
       <c r="C192" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D192" s="9">
         <v>19</v>
@@ -9030,7 +9030,7 @@
       </c>
       <c r="B193" s="15"/>
       <c r="C193" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D193" s="9">
         <v>19</v>
@@ -9071,7 +9071,7 @@
       </c>
       <c r="B194" s="15"/>
       <c r="C194" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D194" s="9">
         <v>19</v>
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B195" s="15"/>
       <c r="C195" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D195" s="9">
         <v>19</v>
@@ -9153,7 +9153,7 @@
       </c>
       <c r="B196" s="15"/>
       <c r="C196" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D196" s="9">
         <v>19</v>
@@ -9194,7 +9194,7 @@
       </c>
       <c r="B197" s="15"/>
       <c r="C197" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D197" s="9">
         <v>19</v>
@@ -9235,7 +9235,7 @@
       </c>
       <c r="B198" s="15"/>
       <c r="C198" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D198" s="9">
         <v>19</v>
@@ -9276,7 +9276,7 @@
       </c>
       <c r="B199" s="15"/>
       <c r="C199" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D199" s="9">
         <v>19</v>
@@ -9317,7 +9317,7 @@
       </c>
       <c r="B200" s="15"/>
       <c r="C200" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D200" s="9">
         <v>19</v>
@@ -9358,7 +9358,7 @@
       </c>
       <c r="B201" s="15"/>
       <c r="C201" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D201" s="9">
         <v>19</v>
@@ -9399,7 +9399,7 @@
       </c>
       <c r="B202" s="15"/>
       <c r="C202" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D202" s="9">
         <v>19</v>
@@ -9440,7 +9440,7 @@
       </c>
       <c r="B203" s="15"/>
       <c r="C203" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D203" s="9">
         <v>19</v>
@@ -9481,7 +9481,7 @@
       </c>
       <c r="B204" s="15"/>
       <c r="C204" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D204" s="9">
         <v>19</v>
@@ -9522,7 +9522,7 @@
       </c>
       <c r="B205" s="15"/>
       <c r="C205" s="11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D205" s="9">
         <v>19</v>
@@ -9563,7 +9563,7 @@
       </c>
       <c r="B206" s="15"/>
       <c r="C206" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D206" s="9">
         <v>19</v>
@@ -9604,7 +9604,7 @@
       </c>
       <c r="B207" s="15"/>
       <c r="C207" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D207" s="9">
         <v>19</v>
@@ -9645,7 +9645,7 @@
       </c>
       <c r="B208" s="15"/>
       <c r="C208" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D208" s="9">
         <v>19</v>
@@ -9686,7 +9686,7 @@
       </c>
       <c r="B209" s="15"/>
       <c r="C209" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D209" s="9">
         <v>19</v>
@@ -9727,7 +9727,7 @@
       </c>
       <c r="B210" s="15"/>
       <c r="C210" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D210" s="9">
         <v>19</v>
@@ -9768,7 +9768,7 @@
       </c>
       <c r="B211" s="15"/>
       <c r="C211" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D211" s="9">
         <v>19</v>
@@ -9809,7 +9809,7 @@
       </c>
       <c r="B212" s="15"/>
       <c r="C212" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D212" s="9">
         <v>19</v>
@@ -9850,7 +9850,7 @@
       </c>
       <c r="B213" s="15"/>
       <c r="C213" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D213" s="9">
         <v>19</v>
@@ -9891,7 +9891,7 @@
       </c>
       <c r="B214" s="15"/>
       <c r="C214" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D214" s="9">
         <v>19</v>
@@ -9932,7 +9932,7 @@
       </c>
       <c r="B215" s="15"/>
       <c r="C215" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D215" s="9">
         <v>19</v>
@@ -9973,7 +9973,7 @@
       </c>
       <c r="B216" s="15"/>
       <c r="C216" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D216" s="9">
         <v>19</v>
@@ -10014,7 +10014,7 @@
       </c>
       <c r="B217" s="15"/>
       <c r="C217" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D217" s="9">
         <v>19</v>
@@ -10055,7 +10055,7 @@
       </c>
       <c r="B218" s="15"/>
       <c r="C218" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D218" s="9">
         <v>19</v>
@@ -10096,7 +10096,7 @@
       </c>
       <c r="B219" s="15"/>
       <c r="C219" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D219" s="9">
         <v>19</v>
@@ -10137,7 +10137,7 @@
       </c>
       <c r="B220" s="15"/>
       <c r="C220" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D220" s="9">
         <v>19</v>
@@ -10178,7 +10178,7 @@
       </c>
       <c r="B221" s="15"/>
       <c r="C221" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D221" s="9">
         <v>19</v>
@@ -10219,7 +10219,7 @@
       </c>
       <c r="B222" s="15"/>
       <c r="C222" s="11">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D222" s="9">
         <v>19</v>
@@ -10260,7 +10260,7 @@
       </c>
       <c r="B223" s="15"/>
       <c r="C223" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D223" s="9">
         <v>19</v>
@@ -10301,7 +10301,7 @@
       </c>
       <c r="B224" s="15"/>
       <c r="C224" s="11">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D224" s="9">
         <v>19</v>
@@ -10342,7 +10342,7 @@
       </c>
       <c r="B225" s="15"/>
       <c r="C225" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D225" s="9">
         <v>19</v>
@@ -10383,7 +10383,7 @@
       </c>
       <c r="B226" s="15"/>
       <c r="C226" s="11">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D226" s="9">
         <v>19</v>
@@ -10424,7 +10424,7 @@
       </c>
       <c r="B227" s="15"/>
       <c r="C227" s="11">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D227" s="9">
         <v>19</v>
@@ -10465,7 +10465,7 @@
       </c>
       <c r="B228" s="15"/>
       <c r="C228" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D228" s="9">
         <v>19</v>
@@ -10506,7 +10506,7 @@
       </c>
       <c r="B229" s="15"/>
       <c r="C229" s="11">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D229" s="9">
         <v>19</v>
@@ -10547,7 +10547,7 @@
       </c>
       <c r="B230" s="15"/>
       <c r="C230" s="11">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D230" s="9">
         <v>19</v>
@@ -10588,7 +10588,7 @@
       </c>
       <c r="B231" s="15"/>
       <c r="C231" s="11">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D231" s="9">
         <v>19</v>
@@ -10629,7 +10629,7 @@
       </c>
       <c r="B232" s="15"/>
       <c r="C232" s="11">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D232" s="9">
         <v>19</v>
@@ -10670,7 +10670,7 @@
       </c>
       <c r="B233" s="15"/>
       <c r="C233" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D233" s="9">
         <v>19</v>
@@ -10711,7 +10711,7 @@
       </c>
       <c r="B234" s="15"/>
       <c r="C234" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D234" s="9">
         <v>19</v>
@@ -10752,7 +10752,7 @@
       </c>
       <c r="B235" s="15"/>
       <c r="C235" s="11">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D235" s="9">
         <v>19</v>
@@ -10793,7 +10793,7 @@
       </c>
       <c r="B236" s="15"/>
       <c r="C236" s="11">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D236" s="9">
         <v>19</v>
@@ -10834,7 +10834,7 @@
       </c>
       <c r="B237" s="15"/>
       <c r="C237" s="11">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D237" s="9">
         <v>19</v>
@@ -10875,7 +10875,7 @@
       </c>
       <c r="B238" s="15"/>
       <c r="C238" s="11">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D238" s="9">
         <v>19</v>
@@ -10916,7 +10916,7 @@
       </c>
       <c r="B239" s="15"/>
       <c r="C239" s="11">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D239" s="9">
         <v>19</v>
@@ -10957,7 +10957,7 @@
       </c>
       <c r="B240" s="15"/>
       <c r="C240" s="11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D240" s="9">
         <v>19</v>
@@ -10998,7 +10998,7 @@
       </c>
       <c r="B241" s="15"/>
       <c r="C241" s="11">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D241" s="9">
         <v>19</v>
@@ -11039,7 +11039,7 @@
       </c>
       <c r="B242" s="15"/>
       <c r="C242" s="11">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D242" s="9">
         <v>19</v>
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B243" s="15"/>
       <c r="C243" s="11">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D243" s="9">
         <v>19</v>
@@ -11121,7 +11121,7 @@
       </c>
       <c r="B244" s="15"/>
       <c r="C244" s="11">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D244" s="9">
         <v>19</v>
@@ -11162,7 +11162,7 @@
       </c>
       <c r="B245" s="15"/>
       <c r="C245" s="11">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D245" s="9">
         <v>19</v>
@@ -11203,7 +11203,7 @@
       </c>
       <c r="B246" s="15"/>
       <c r="C246" s="11">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D246" s="9">
         <v>19</v>
@@ -11244,7 +11244,7 @@
       </c>
       <c r="B247" s="15"/>
       <c r="C247" s="11">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D247" s="9">
         <v>19</v>
@@ -11285,7 +11285,7 @@
       </c>
       <c r="B248" s="15"/>
       <c r="C248" s="11">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D248" s="9">
         <v>19</v>
@@ -11326,7 +11326,7 @@
       </c>
       <c r="B249" s="15"/>
       <c r="C249" s="11">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D249" s="9">
         <v>19</v>
@@ -11367,7 +11367,7 @@
       </c>
       <c r="B250" s="15"/>
       <c r="C250" s="11">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D250" s="9">
         <v>19</v>
@@ -11408,7 +11408,7 @@
       </c>
       <c r="B251" s="15"/>
       <c r="C251" s="11">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D251" s="9">
         <v>19</v>
@@ -11449,7 +11449,7 @@
       </c>
       <c r="B252" s="15"/>
       <c r="C252" s="11">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D252" s="9">
         <v>19</v>
@@ -11490,7 +11490,7 @@
       </c>
       <c r="B253" s="15"/>
       <c r="C253" s="11">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D253" s="9">
         <v>19</v>
@@ -11531,7 +11531,7 @@
       </c>
       <c r="B254" s="15"/>
       <c r="C254" s="11">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D254" s="9">
         <v>19</v>
@@ -11572,7 +11572,7 @@
       </c>
       <c r="B255" s="15"/>
       <c r="C255" s="11">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D255" s="9">
         <v>19</v>
@@ -11613,7 +11613,7 @@
       </c>
       <c r="B256" s="15"/>
       <c r="C256" s="11">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D256" s="9">
         <v>19</v>
@@ -11654,7 +11654,7 @@
       </c>
       <c r="B257" s="15"/>
       <c r="C257" s="11">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D257" s="9">
         <v>19</v>
@@ -11695,7 +11695,7 @@
       </c>
       <c r="B258" s="15"/>
       <c r="C258" s="11">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D258" s="9">
         <v>19</v>
@@ -11736,7 +11736,7 @@
       </c>
       <c r="B259" s="15"/>
       <c r="C259" s="11">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D259" s="9">
         <v>19</v>
@@ -11777,7 +11777,7 @@
       </c>
       <c r="B260" s="15"/>
       <c r="C260" s="11">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D260" s="9">
         <v>19</v>
@@ -11818,7 +11818,7 @@
       </c>
       <c r="B261" s="15"/>
       <c r="C261" s="11">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D261" s="9">
         <v>19</v>
@@ -11859,7 +11859,7 @@
       </c>
       <c r="B262" s="15"/>
       <c r="C262" s="11">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D262" s="9">
         <v>19</v>
@@ -11900,7 +11900,7 @@
       </c>
       <c r="B263" s="15"/>
       <c r="C263" s="11">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D263" s="9">
         <v>19</v>
@@ -11941,7 +11941,7 @@
       </c>
       <c r="B264" s="15"/>
       <c r="C264" s="11">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D264" s="9">
         <v>19</v>
@@ -11982,7 +11982,7 @@
       </c>
       <c r="B265" s="15"/>
       <c r="C265" s="11">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D265" s="9">
         <v>19</v>
@@ -12023,7 +12023,7 @@
       </c>
       <c r="B266" s="15"/>
       <c r="C266" s="11">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D266" s="9">
         <v>19</v>
@@ -12064,7 +12064,7 @@
       </c>
       <c r="B267" s="15"/>
       <c r="C267" s="11">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D267" s="9">
         <v>19</v>
@@ -12105,7 +12105,7 @@
       </c>
       <c r="B268" s="15"/>
       <c r="C268" s="11">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D268" s="9">
         <v>19</v>
@@ -12146,7 +12146,7 @@
       </c>
       <c r="B269" s="15"/>
       <c r="C269" s="11">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D269" s="9">
         <v>19</v>
@@ -12187,7 +12187,7 @@
       </c>
       <c r="B270" s="15"/>
       <c r="C270" s="11">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D270" s="9">
         <v>19</v>
@@ -12228,7 +12228,7 @@
       </c>
       <c r="B271" s="15"/>
       <c r="C271" s="11">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D271" s="9">
         <v>19</v>
@@ -12269,7 +12269,7 @@
       </c>
       <c r="B272" s="15"/>
       <c r="C272" s="11">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D272" s="9">
         <v>19</v>
@@ -12310,7 +12310,7 @@
       </c>
       <c r="B273" s="15"/>
       <c r="C273" s="11">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D273" s="9">
         <v>19</v>
@@ -12351,7 +12351,7 @@
       </c>
       <c r="B274" s="15"/>
       <c r="C274" s="11">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D274" s="9">
         <v>19</v>
@@ -12392,7 +12392,7 @@
       </c>
       <c r="B275" s="15"/>
       <c r="C275" s="11">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D275" s="9">
         <v>19</v>
@@ -12433,7 +12433,7 @@
       </c>
       <c r="B276" s="15"/>
       <c r="C276" s="11">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D276" s="9">
         <v>19</v>
@@ -12474,7 +12474,7 @@
       </c>
       <c r="B277" s="15"/>
       <c r="C277" s="11">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D277" s="9">
         <v>19</v>
@@ -12515,7 +12515,7 @@
       </c>
       <c r="B278" s="15"/>
       <c r="C278" s="11">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D278" s="9">
         <v>19</v>
@@ -12556,7 +12556,7 @@
       </c>
       <c r="B279" s="15"/>
       <c r="C279" s="11">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D279" s="9">
         <v>19</v>
@@ -12597,7 +12597,7 @@
       </c>
       <c r="B280" s="15"/>
       <c r="C280" s="11">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D280" s="9">
         <v>19</v>
@@ -12638,7 +12638,7 @@
       </c>
       <c r="B281" s="15"/>
       <c r="C281" s="11">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D281" s="9">
         <v>19</v>
@@ -12679,7 +12679,7 @@
       </c>
       <c r="B282" s="15"/>
       <c r="C282" s="11">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D282" s="9">
         <v>19</v>
@@ -12720,7 +12720,7 @@
       </c>
       <c r="B283" s="15"/>
       <c r="C283" s="11">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D283" s="9">
         <v>19</v>
@@ -12761,7 +12761,7 @@
       </c>
       <c r="B284" s="15"/>
       <c r="C284" s="11">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D284" s="9">
         <v>19</v>
@@ -12802,7 +12802,7 @@
       </c>
       <c r="B285" s="15"/>
       <c r="C285" s="11">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D285" s="9">
         <v>19</v>
@@ -12843,7 +12843,7 @@
       </c>
       <c r="B286" s="15"/>
       <c r="C286" s="11">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D286" s="9">
         <v>19</v>
@@ -12884,7 +12884,7 @@
       </c>
       <c r="B287" s="15"/>
       <c r="C287" s="11">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D287" s="9">
         <v>19</v>
@@ -12925,7 +12925,7 @@
       </c>
       <c r="B288" s="15"/>
       <c r="C288" s="11">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D288" s="9">
         <v>19</v>
@@ -12966,7 +12966,7 @@
       </c>
       <c r="B289" s="15"/>
       <c r="C289" s="11">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D289" s="9">
         <v>19</v>
@@ -13007,7 +13007,7 @@
       </c>
       <c r="B290" s="15"/>
       <c r="C290" s="11">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D290" s="9">
         <v>19</v>
@@ -13048,7 +13048,7 @@
       </c>
       <c r="B291" s="15"/>
       <c r="C291" s="11">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D291" s="9">
         <v>19</v>
@@ -13089,7 +13089,7 @@
       </c>
       <c r="B292" s="15"/>
       <c r="C292" s="11">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D292" s="9">
         <v>19</v>
@@ -13130,7 +13130,7 @@
       </c>
       <c r="B293" s="15"/>
       <c r="C293" s="11">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D293" s="9">
         <v>19</v>
@@ -13171,7 +13171,7 @@
       </c>
       <c r="B294" s="15"/>
       <c r="C294" s="11">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D294" s="9">
         <v>19</v>
@@ -13212,7 +13212,7 @@
       </c>
       <c r="B295" s="15"/>
       <c r="C295" s="11">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D295" s="9">
         <v>19</v>
@@ -13253,7 +13253,7 @@
       </c>
       <c r="B296" s="15"/>
       <c r="C296" s="11">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D296" s="9">
         <v>19</v>
@@ -13294,7 +13294,7 @@
       </c>
       <c r="B297" s="15"/>
       <c r="C297" s="11">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D297" s="9">
         <v>19</v>
@@ -13335,7 +13335,7 @@
       </c>
       <c r="B298" s="15"/>
       <c r="C298" s="11">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D298" s="9">
         <v>19</v>
@@ -13376,7 +13376,7 @@
       </c>
       <c r="B299" s="15"/>
       <c r="C299" s="11">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D299" s="9">
         <v>19</v>
@@ -13417,7 +13417,7 @@
       </c>
       <c r="B300" s="15"/>
       <c r="C300" s="11">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D300" s="9">
         <v>19</v>
@@ -13458,7 +13458,7 @@
       </c>
       <c r="B301" s="15"/>
       <c r="C301" s="11">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D301" s="9">
         <v>19</v>
@@ -13499,7 +13499,7 @@
       </c>
       <c r="B302" s="15"/>
       <c r="C302" s="11">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D302" s="9">
         <v>19</v>
@@ -13540,7 +13540,7 @@
       </c>
       <c r="B303" s="15"/>
       <c r="C303" s="11">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D303" s="9">
         <v>19</v>
@@ -13581,7 +13581,7 @@
       </c>
       <c r="B304" s="15"/>
       <c r="C304" s="11">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D304" s="9">
         <v>19</v>
@@ -13622,7 +13622,7 @@
       </c>
       <c r="B305" s="15"/>
       <c r="C305" s="11">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D305" s="9">
         <v>19</v>
@@ -13663,7 +13663,7 @@
       </c>
       <c r="B306" s="15"/>
       <c r="C306" s="11">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D306" s="9">
         <v>19</v>
@@ -13704,7 +13704,7 @@
       </c>
       <c r="B307" s="15"/>
       <c r="C307" s="11">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D307" s="9">
         <v>19</v>
@@ -13745,7 +13745,7 @@
       </c>
       <c r="B308" s="15"/>
       <c r="C308" s="11">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D308" s="9">
         <v>19</v>
@@ -13786,7 +13786,7 @@
       </c>
       <c r="B309" s="15"/>
       <c r="C309" s="11">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D309" s="9">
         <v>19</v>
@@ -13827,7 +13827,7 @@
       </c>
       <c r="B310" s="15"/>
       <c r="C310" s="11">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D310" s="9">
         <v>19</v>
@@ -13868,7 +13868,7 @@
       </c>
       <c r="B311" s="15"/>
       <c r="C311" s="11">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D311" s="9">
         <v>19</v>
@@ -13909,7 +13909,7 @@
       </c>
       <c r="B312" s="15"/>
       <c r="C312" s="11">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D312" s="9">
         <v>19</v>
@@ -13950,7 +13950,7 @@
       </c>
       <c r="B313" s="15"/>
       <c r="C313" s="11">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D313" s="9">
         <v>19</v>
@@ -13991,7 +13991,7 @@
       </c>
       <c r="B314" s="15"/>
       <c r="C314" s="11">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D314" s="9">
         <v>19</v>
@@ -14032,7 +14032,7 @@
       </c>
       <c r="B315" s="15"/>
       <c r="C315" s="11">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D315" s="9">
         <v>19</v>
@@ -14073,7 +14073,7 @@
       </c>
       <c r="B316" s="15"/>
       <c r="C316" s="11">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D316" s="9">
         <v>19</v>
@@ -14114,7 +14114,7 @@
       </c>
       <c r="B317" s="15"/>
       <c r="C317" s="11">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D317" s="9">
         <v>19</v>
@@ -14155,7 +14155,7 @@
       </c>
       <c r="B318" s="15"/>
       <c r="C318" s="11">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D318" s="9">
         <v>19</v>
@@ -14196,7 +14196,7 @@
       </c>
       <c r="B319" s="15"/>
       <c r="C319" s="11">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D319" s="9">
         <v>19</v>
@@ -14237,7 +14237,7 @@
       </c>
       <c r="B320" s="15"/>
       <c r="C320" s="11">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D320" s="9">
         <v>19</v>
@@ -14278,7 +14278,7 @@
       </c>
       <c r="B321" s="15"/>
       <c r="C321" s="11">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D321" s="9">
         <v>19</v>
@@ -14319,7 +14319,7 @@
       </c>
       <c r="B322" s="15"/>
       <c r="C322" s="11">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D322" s="9">
         <v>19</v>
@@ -14360,7 +14360,7 @@
       </c>
       <c r="B323" s="15"/>
       <c r="C323" s="11">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D323" s="9">
         <v>19</v>
@@ -14401,7 +14401,7 @@
       </c>
       <c r="B324" s="15"/>
       <c r="C324" s="11">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D324" s="9">
         <v>19</v>
@@ -14442,7 +14442,7 @@
       </c>
       <c r="B325" s="15"/>
       <c r="C325" s="11">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D325" s="9">
         <v>19</v>
@@ -14483,7 +14483,7 @@
       </c>
       <c r="B326" s="15"/>
       <c r="C326" s="11">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D326" s="9">
         <v>19</v>
@@ -14524,7 +14524,7 @@
       </c>
       <c r="B327" s="15"/>
       <c r="C327" s="11">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D327" s="9">
         <v>19</v>
@@ -14565,7 +14565,7 @@
       </c>
       <c r="B328" s="15"/>
       <c r="C328" s="11">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D328" s="9">
         <v>19</v>
@@ -14606,7 +14606,7 @@
       </c>
       <c r="B329" s="15"/>
       <c r="C329" s="11">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D329" s="9">
         <v>19</v>
@@ -14647,7 +14647,7 @@
       </c>
       <c r="B330" s="15"/>
       <c r="C330" s="11">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D330" s="9">
         <v>19</v>
@@ -14688,7 +14688,7 @@
       </c>
       <c r="B331" s="15"/>
       <c r="C331" s="11">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D331" s="9">
         <v>19</v>
@@ -14729,7 +14729,7 @@
       </c>
       <c r="B332" s="15"/>
       <c r="C332" s="11">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D332" s="9">
         <v>19</v>
@@ -14770,7 +14770,7 @@
       </c>
       <c r="B333" s="15"/>
       <c r="C333" s="11">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D333" s="9">
         <v>19</v>
@@ -14811,7 +14811,7 @@
       </c>
       <c r="B334" s="15"/>
       <c r="C334" s="11">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D334" s="9">
         <v>19</v>
@@ -14852,7 +14852,7 @@
       </c>
       <c r="B335" s="15"/>
       <c r="C335" s="11">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D335" s="9">
         <v>19</v>
@@ -14893,7 +14893,7 @@
       </c>
       <c r="B336" s="15"/>
       <c r="C336" s="11">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D336" s="9">
         <v>19</v>
@@ -14934,7 +14934,7 @@
       </c>
       <c r="B337" s="15"/>
       <c r="C337" s="11">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D337" s="9">
         <v>19</v>
@@ -14975,7 +14975,7 @@
       </c>
       <c r="B338" s="15"/>
       <c r="C338" s="11">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D338" s="9">
         <v>19</v>
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B339" s="15"/>
       <c r="C339" s="11">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D339" s="9">
         <v>19</v>
@@ -15057,7 +15057,7 @@
       </c>
       <c r="B340" s="15"/>
       <c r="C340" s="11">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D340" s="9">
         <v>19</v>
@@ -15098,7 +15098,7 @@
       </c>
       <c r="B341" s="15"/>
       <c r="C341" s="11">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D341" s="9">
         <v>19</v>
@@ -15139,7 +15139,7 @@
       </c>
       <c r="B342" s="15"/>
       <c r="C342" s="11">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D342" s="9">
         <v>19</v>
@@ -15180,7 +15180,7 @@
       </c>
       <c r="B343" s="15"/>
       <c r="C343" s="11">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D343" s="9">
         <v>19</v>
@@ -15221,7 +15221,7 @@
       </c>
       <c r="B344" s="15"/>
       <c r="C344" s="11">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D344" s="9">
         <v>19</v>
@@ -15262,7 +15262,7 @@
       </c>
       <c r="B345" s="15"/>
       <c r="C345" s="11">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D345" s="9">
         <v>19</v>
@@ -15303,7 +15303,7 @@
       </c>
       <c r="B346" s="15"/>
       <c r="C346" s="11">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D346" s="9">
         <v>19</v>
@@ -15344,7 +15344,7 @@
       </c>
       <c r="B347" s="15"/>
       <c r="C347" s="11">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D347" s="9">
         <v>19</v>
@@ -15385,7 +15385,7 @@
       </c>
       <c r="B348" s="15"/>
       <c r="C348" s="11">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D348" s="9">
         <v>19</v>
@@ -15426,7 +15426,7 @@
       </c>
       <c r="B349" s="15"/>
       <c r="C349" s="11">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D349" s="9">
         <v>19</v>
@@ -15467,7 +15467,7 @@
       </c>
       <c r="B350" s="15"/>
       <c r="C350" s="11">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D350" s="9">
         <v>19</v>
@@ -15508,7 +15508,7 @@
       </c>
       <c r="B351" s="15"/>
       <c r="C351" s="11">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D351" s="9">
         <v>19</v>
@@ -15549,7 +15549,7 @@
       </c>
       <c r="B352" s="15"/>
       <c r="C352" s="11">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D352" s="9">
         <v>19</v>
@@ -15590,7 +15590,7 @@
       </c>
       <c r="B353" s="15"/>
       <c r="C353" s="11">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D353" s="9">
         <v>19</v>
@@ -15631,7 +15631,7 @@
       </c>
       <c r="B354" s="15"/>
       <c r="C354" s="11">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D354" s="9">
         <v>19</v>
@@ -15672,7 +15672,7 @@
       </c>
       <c r="B355" s="15"/>
       <c r="C355" s="11">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D355" s="9">
         <v>19</v>
@@ -15713,7 +15713,7 @@
       </c>
       <c r="B356" s="15"/>
       <c r="C356" s="11">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D356" s="9">
         <v>19</v>
@@ -15754,7 +15754,7 @@
       </c>
       <c r="B357" s="15"/>
       <c r="C357" s="11">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D357" s="9">
         <v>19</v>
@@ -15795,7 +15795,7 @@
       </c>
       <c r="B358" s="15"/>
       <c r="C358" s="11">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D358" s="9">
         <v>19</v>
@@ -15836,7 +15836,7 @@
       </c>
       <c r="B359" s="15"/>
       <c r="C359" s="11">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D359" s="9">
         <v>19</v>
@@ -15877,7 +15877,7 @@
       </c>
       <c r="B360" s="15"/>
       <c r="C360" s="11">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D360" s="9">
         <v>19</v>
@@ -15918,7 +15918,7 @@
       </c>
       <c r="B361" s="15"/>
       <c r="C361" s="11">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D361" s="9">
         <v>19</v>
@@ -15959,7 +15959,7 @@
       </c>
       <c r="B362" s="15"/>
       <c r="C362" s="11">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D362" s="9">
         <v>19</v>
@@ -16000,7 +16000,7 @@
       </c>
       <c r="B363" s="15"/>
       <c r="C363" s="11">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D363" s="9">
         <v>19</v>
@@ -16041,7 +16041,7 @@
       </c>
       <c r="B364" s="15"/>
       <c r="C364" s="11">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D364" s="9">
         <v>19</v>
@@ -16082,7 +16082,7 @@
       </c>
       <c r="B365" s="15"/>
       <c r="C365" s="11">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D365" s="9">
         <v>19</v>
@@ -16123,7 +16123,7 @@
       </c>
       <c r="B366" s="15"/>
       <c r="C366" s="11">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D366" s="9">
         <v>19</v>
@@ -16164,7 +16164,7 @@
       </c>
       <c r="B367" s="15"/>
       <c r="C367" s="11">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D367" s="9">
         <v>20</v>
@@ -16205,7 +16205,7 @@
       </c>
       <c r="B368" s="15"/>
       <c r="C368" s="11">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D368" s="9">
         <v>20</v>
@@ -16246,7 +16246,7 @@
       </c>
       <c r="B369" s="15"/>
       <c r="C369" s="11">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D369" s="9">
         <v>20</v>
@@ -16287,7 +16287,7 @@
       </c>
       <c r="B370" s="15"/>
       <c r="C370" s="11">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D370" s="9">
         <v>20</v>
@@ -16328,7 +16328,7 @@
       </c>
       <c r="B371" s="15"/>
       <c r="C371" s="11">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D371" s="9">
         <v>20</v>
@@ -16369,7 +16369,7 @@
       </c>
       <c r="B372" s="15"/>
       <c r="C372" s="11">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D372" s="9">
         <v>20</v>
@@ -16410,7 +16410,7 @@
       </c>
       <c r="B373" s="15"/>
       <c r="C373" s="11">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D373" s="9">
         <v>20</v>
@@ -16451,7 +16451,7 @@
       </c>
       <c r="B374" s="15"/>
       <c r="C374" s="11">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D374" s="9">
         <v>20</v>
@@ -16492,7 +16492,7 @@
       </c>
       <c r="B375" s="15"/>
       <c r="C375" s="11">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D375" s="9">
         <v>20</v>
@@ -16533,7 +16533,7 @@
       </c>
       <c r="B376" s="15"/>
       <c r="C376" s="11">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D376" s="9">
         <v>20</v>
@@ -16574,7 +16574,7 @@
       </c>
       <c r="B377" s="15"/>
       <c r="C377" s="11">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D377" s="9">
         <v>20</v>
@@ -16615,7 +16615,7 @@
       </c>
       <c r="B378" s="15"/>
       <c r="C378" s="11">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D378" s="9">
         <v>20</v>
@@ -16656,7 +16656,7 @@
       </c>
       <c r="B379" s="15"/>
       <c r="C379" s="11">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D379" s="9">
         <v>20</v>
@@ -16697,7 +16697,7 @@
       </c>
       <c r="B380" s="15"/>
       <c r="C380" s="11">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D380" s="9">
         <v>20</v>
@@ -16738,7 +16738,7 @@
       </c>
       <c r="B381" s="15"/>
       <c r="C381" s="11">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D381" s="9">
         <v>20</v>
@@ -16779,7 +16779,7 @@
       </c>
       <c r="B382" s="15"/>
       <c r="C382" s="11">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D382" s="9">
         <v>20</v>
@@ -16820,7 +16820,7 @@
       </c>
       <c r="B383" s="15"/>
       <c r="C383" s="11">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D383" s="9">
         <v>20</v>
@@ -16861,7 +16861,7 @@
       </c>
       <c r="B384" s="15"/>
       <c r="C384" s="11">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D384" s="9">
         <v>20</v>
@@ -16902,7 +16902,7 @@
       </c>
       <c r="B385" s="15"/>
       <c r="C385" s="11">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D385" s="9">
         <v>20</v>
@@ -16943,7 +16943,7 @@
       </c>
       <c r="B386" s="15"/>
       <c r="C386" s="11">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D386" s="9">
         <v>20</v>
@@ -16984,7 +16984,7 @@
       </c>
       <c r="B387" s="15"/>
       <c r="C387" s="11">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D387" s="9">
         <v>20</v>
@@ -17025,7 +17025,7 @@
       </c>
       <c r="B388" s="15"/>
       <c r="C388" s="11">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D388" s="9">
         <v>20</v>
@@ -17066,7 +17066,7 @@
       </c>
       <c r="B389" s="15"/>
       <c r="C389" s="11">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D389" s="9">
         <v>20</v>
@@ -17107,7 +17107,7 @@
       </c>
       <c r="B390" s="15"/>
       <c r="C390" s="11">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D390" s="9">
         <v>20</v>
@@ -17148,7 +17148,7 @@
       </c>
       <c r="B391" s="15"/>
       <c r="C391" s="11">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D391" s="9">
         <v>20</v>
@@ -17189,7 +17189,7 @@
       </c>
       <c r="B392" s="15"/>
       <c r="C392" s="11">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D392" s="9">
         <v>20</v>
@@ -17230,7 +17230,7 @@
       </c>
       <c r="B393" s="15"/>
       <c r="C393" s="11">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D393" s="9">
         <v>20</v>
@@ -17271,7 +17271,7 @@
       </c>
       <c r="B394" s="15"/>
       <c r="C394" s="11">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D394" s="9">
         <v>20</v>
@@ -17312,7 +17312,7 @@
       </c>
       <c r="B395" s="15"/>
       <c r="C395" s="11">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D395" s="9">
         <v>20</v>
@@ -17353,7 +17353,7 @@
       </c>
       <c r="B396" s="15"/>
       <c r="C396" s="11">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D396" s="9">
         <v>20</v>
@@ -17394,7 +17394,7 @@
       </c>
       <c r="B397" s="15"/>
       <c r="C397" s="11">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D397" s="9">
         <v>20</v>
@@ -17435,7 +17435,7 @@
       </c>
       <c r="B398" s="15"/>
       <c r="C398" s="11">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D398" s="9">
         <v>20</v>
@@ -17476,7 +17476,7 @@
       </c>
       <c r="B399" s="15"/>
       <c r="C399" s="11">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D399" s="9">
         <v>20</v>
@@ -17517,7 +17517,7 @@
       </c>
       <c r="B400" s="15"/>
       <c r="C400" s="11">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D400" s="9">
         <v>20</v>
@@ -17558,7 +17558,7 @@
       </c>
       <c r="B401" s="15"/>
       <c r="C401" s="11">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D401" s="9">
         <v>20</v>
@@ -17599,7 +17599,7 @@
       </c>
       <c r="B402" s="15"/>
       <c r="C402" s="11">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D402" s="9">
         <v>20</v>
@@ -17640,7 +17640,7 @@
       </c>
       <c r="B403" s="15"/>
       <c r="C403" s="11">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D403" s="9">
         <v>20</v>
@@ -17681,7 +17681,7 @@
       </c>
       <c r="B404" s="15"/>
       <c r="C404" s="11">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D404" s="9">
         <v>20</v>
@@ -17722,7 +17722,7 @@
       </c>
       <c r="B405" s="15"/>
       <c r="C405" s="11">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D405" s="9">
         <v>20</v>
@@ -17763,7 +17763,7 @@
       </c>
       <c r="B406" s="15"/>
       <c r="C406" s="11">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D406" s="9">
         <v>20</v>
@@ -17804,7 +17804,7 @@
       </c>
       <c r="B407" s="15"/>
       <c r="C407" s="11">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D407" s="9">
         <v>20</v>
@@ -17845,7 +17845,7 @@
       </c>
       <c r="B408" s="15"/>
       <c r="C408" s="11">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D408" s="9">
         <v>20</v>
@@ -17886,7 +17886,7 @@
       </c>
       <c r="B409" s="15"/>
       <c r="C409" s="11">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D409" s="9">
         <v>20</v>
@@ -17927,7 +17927,7 @@
       </c>
       <c r="B410" s="15"/>
       <c r="C410" s="11">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D410" s="9">
         <v>20</v>
@@ -17968,7 +17968,7 @@
       </c>
       <c r="B411" s="15"/>
       <c r="C411" s="11">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D411" s="9">
         <v>20</v>
@@ -18009,7 +18009,7 @@
       </c>
       <c r="B412" s="15"/>
       <c r="C412" s="11">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D412" s="9">
         <v>20</v>
@@ -18050,7 +18050,7 @@
       </c>
       <c r="B413" s="15"/>
       <c r="C413" s="11">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D413" s="9">
         <v>20</v>
@@ -18091,7 +18091,7 @@
       </c>
       <c r="B414" s="15"/>
       <c r="C414" s="11">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D414" s="9">
         <v>20</v>
@@ -18132,7 +18132,7 @@
       </c>
       <c r="B415" s="15"/>
       <c r="C415" s="11">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D415" s="9">
         <v>20</v>
@@ -18173,7 +18173,7 @@
       </c>
       <c r="B416" s="15"/>
       <c r="C416" s="11">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D416" s="9">
         <v>20</v>
@@ -18214,7 +18214,7 @@
       </c>
       <c r="B417" s="15"/>
       <c r="C417" s="11">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D417" s="9">
         <v>20</v>
@@ -18255,7 +18255,7 @@
       </c>
       <c r="B418" s="15"/>
       <c r="C418" s="11">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D418" s="9">
         <v>20</v>
@@ -18296,7 +18296,7 @@
       </c>
       <c r="B419" s="15"/>
       <c r="C419" s="11">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D419" s="9">
         <v>20</v>
@@ -18337,7 +18337,7 @@
       </c>
       <c r="B420" s="15"/>
       <c r="C420" s="11">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D420" s="9">
         <v>20</v>
@@ -18378,7 +18378,7 @@
       </c>
       <c r="B421" s="15"/>
       <c r="C421" s="11">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D421" s="9">
         <v>20</v>
@@ -18419,7 +18419,7 @@
       </c>
       <c r="B422" s="15"/>
       <c r="C422" s="11">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D422" s="9">
         <v>20</v>
@@ -18460,7 +18460,7 @@
       </c>
       <c r="B423" s="15"/>
       <c r="C423" s="11">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D423" s="9">
         <v>20</v>
@@ -18501,7 +18501,7 @@
       </c>
       <c r="B424" s="15"/>
       <c r="C424" s="11">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D424" s="9">
         <v>20</v>
@@ -18542,7 +18542,7 @@
       </c>
       <c r="B425" s="15"/>
       <c r="C425" s="11">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D425" s="9">
         <v>20</v>
@@ -18583,7 +18583,7 @@
       </c>
       <c r="B426" s="15"/>
       <c r="C426" s="11">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D426" s="9">
         <v>20</v>
@@ -18624,7 +18624,7 @@
       </c>
       <c r="B427" s="15"/>
       <c r="C427" s="11">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D427" s="9">
         <v>20</v>
@@ -18665,7 +18665,7 @@
       </c>
       <c r="B428" s="15"/>
       <c r="C428" s="11">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D428" s="9">
         <v>20</v>
@@ -18706,7 +18706,7 @@
       </c>
       <c r="B429" s="15"/>
       <c r="C429" s="11">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D429" s="9">
         <v>20</v>
@@ -18747,7 +18747,7 @@
       </c>
       <c r="B430" s="15"/>
       <c r="C430" s="11">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D430" s="9">
         <v>20</v>
@@ -18788,7 +18788,7 @@
       </c>
       <c r="B431" s="15"/>
       <c r="C431" s="11">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D431" s="9">
         <v>20</v>
@@ -18829,7 +18829,7 @@
       </c>
       <c r="B432" s="15"/>
       <c r="C432" s="11">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D432" s="9">
         <v>20</v>
@@ -18870,7 +18870,7 @@
       </c>
       <c r="B433" s="15"/>
       <c r="C433" s="11">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D433" s="9">
         <v>20</v>
@@ -18911,7 +18911,7 @@
       </c>
       <c r="B434" s="15"/>
       <c r="C434" s="11">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D434" s="9">
         <v>20</v>
@@ -18952,7 +18952,7 @@
       </c>
       <c r="B435" s="15"/>
       <c r="C435" s="11">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D435" s="9">
         <v>20</v>
@@ -18993,7 +18993,7 @@
       </c>
       <c r="B436" s="15"/>
       <c r="C436" s="11">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D436" s="9">
         <v>20</v>
@@ -19034,7 +19034,7 @@
       </c>
       <c r="B437" s="15"/>
       <c r="C437" s="11">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D437" s="9">
         <v>20</v>
@@ -19075,7 +19075,7 @@
       </c>
       <c r="B438" s="15"/>
       <c r="C438" s="11">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D438" s="9">
         <v>20</v>
@@ -19116,7 +19116,7 @@
       </c>
       <c r="B439" s="15"/>
       <c r="C439" s="11">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D439" s="9">
         <v>20</v>
@@ -19157,7 +19157,7 @@
       </c>
       <c r="B440" s="15"/>
       <c r="C440" s="11">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D440" s="9">
         <v>20</v>
@@ -19198,7 +19198,7 @@
       </c>
       <c r="B441" s="15"/>
       <c r="C441" s="11">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D441" s="9">
         <v>20</v>
@@ -19239,7 +19239,7 @@
       </c>
       <c r="B442" s="15"/>
       <c r="C442" s="11">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D442" s="9">
         <v>20</v>
@@ -19280,7 +19280,7 @@
       </c>
       <c r="B443" s="15"/>
       <c r="C443" s="11">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D443" s="9">
         <v>20</v>
@@ -19321,7 +19321,7 @@
       </c>
       <c r="B444" s="15"/>
       <c r="C444" s="11">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D444" s="9">
         <v>20</v>
@@ -19362,7 +19362,7 @@
       </c>
       <c r="B445" s="15"/>
       <c r="C445" s="11">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D445" s="9">
         <v>20</v>
@@ -19403,7 +19403,7 @@
       </c>
       <c r="B446" s="15"/>
       <c r="C446" s="11">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D446" s="9">
         <v>20</v>
@@ -19444,7 +19444,7 @@
       </c>
       <c r="B447" s="15"/>
       <c r="C447" s="11">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D447" s="9">
         <v>20</v>
@@ -19485,7 +19485,7 @@
       </c>
       <c r="B448" s="15"/>
       <c r="C448" s="11">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D448" s="9">
         <v>20</v>
@@ -19526,7 +19526,7 @@
       </c>
       <c r="B449" s="15"/>
       <c r="C449" s="11">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D449" s="9">
         <v>20</v>
@@ -19567,7 +19567,7 @@
       </c>
       <c r="B450" s="15"/>
       <c r="C450" s="11">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D450" s="9">
         <v>20</v>
@@ -19608,7 +19608,7 @@
       </c>
       <c r="B451" s="15"/>
       <c r="C451" s="11">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D451" s="9">
         <v>20</v>
@@ -19649,7 +19649,7 @@
       </c>
       <c r="B452" s="15"/>
       <c r="C452" s="11">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D452" s="9">
         <v>20</v>
@@ -19690,7 +19690,7 @@
       </c>
       <c r="B453" s="15"/>
       <c r="C453" s="11">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D453" s="9">
         <v>20</v>
@@ -19731,7 +19731,7 @@
       </c>
       <c r="B454" s="15"/>
       <c r="C454" s="11">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D454" s="9">
         <v>20</v>
@@ -19772,7 +19772,7 @@
       </c>
       <c r="B455" s="15"/>
       <c r="C455" s="11">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D455" s="9">
         <v>20</v>
@@ -19813,7 +19813,7 @@
       </c>
       <c r="B456" s="15"/>
       <c r="C456" s="11">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D456" s="9">
         <v>20</v>
@@ -19854,7 +19854,7 @@
       </c>
       <c r="B457" s="15"/>
       <c r="C457" s="11">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D457" s="9">
         <v>20</v>
@@ -19895,7 +19895,7 @@
       </c>
       <c r="B458" s="15"/>
       <c r="C458" s="11">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D458" s="9">
         <v>20</v>
@@ -19936,7 +19936,7 @@
       </c>
       <c r="B459" s="15"/>
       <c r="C459" s="11">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D459" s="9">
         <v>20</v>
@@ -19977,7 +19977,7 @@
       </c>
       <c r="B460" s="15"/>
       <c r="C460" s="11">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D460" s="9">
         <v>20</v>
@@ -20018,7 +20018,7 @@
       </c>
       <c r="B461" s="15"/>
       <c r="C461" s="11">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D461" s="9">
         <v>20</v>
@@ -20059,7 +20059,7 @@
       </c>
       <c r="B462" s="15"/>
       <c r="C462" s="11">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D462" s="9">
         <v>20</v>
@@ -20100,7 +20100,7 @@
       </c>
       <c r="B463" s="15"/>
       <c r="C463" s="11">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D463" s="9">
         <v>20</v>
@@ -20141,7 +20141,7 @@
       </c>
       <c r="B464" s="15"/>
       <c r="C464" s="11">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D464" s="9">
         <v>20</v>
@@ -20182,7 +20182,7 @@
       </c>
       <c r="B465" s="15"/>
       <c r="C465" s="11">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D465" s="9">
         <v>20</v>
@@ -20223,7 +20223,7 @@
       </c>
       <c r="B466" s="15"/>
       <c r="C466" s="11">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D466" s="9">
         <v>20</v>
@@ -20264,7 +20264,7 @@
       </c>
       <c r="B467" s="15"/>
       <c r="C467" s="11">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D467" s="9">
         <v>20</v>
@@ -20305,7 +20305,7 @@
       </c>
       <c r="B468" s="15"/>
       <c r="C468" s="11">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D468" s="9">
         <v>20</v>
@@ -20346,7 +20346,7 @@
       </c>
       <c r="B469" s="15"/>
       <c r="C469" s="11">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D469" s="9">
         <v>20</v>
@@ -20387,7 +20387,7 @@
       </c>
       <c r="B470" s="15"/>
       <c r="C470" s="11">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D470" s="9">
         <v>20</v>
@@ -20428,7 +20428,7 @@
       </c>
       <c r="B471" s="15"/>
       <c r="C471" s="11">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D471" s="9">
         <v>20</v>
@@ -20469,7 +20469,7 @@
       </c>
       <c r="B472" s="15"/>
       <c r="C472" s="11">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D472" s="9">
         <v>20</v>
@@ -20510,7 +20510,7 @@
       </c>
       <c r="B473" s="15"/>
       <c r="C473" s="11">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D473" s="9">
         <v>20</v>
@@ -20551,7 +20551,7 @@
       </c>
       <c r="B474" s="15"/>
       <c r="C474" s="11">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D474" s="9">
         <v>20</v>
@@ -20592,7 +20592,7 @@
       </c>
       <c r="B475" s="15"/>
       <c r="C475" s="11">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D475" s="9">
         <v>20</v>
@@ -20633,7 +20633,7 @@
       </c>
       <c r="B476" s="15"/>
       <c r="C476" s="11">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D476" s="9">
         <v>20</v>
@@ -20674,7 +20674,7 @@
       </c>
       <c r="B477" s="15"/>
       <c r="C477" s="11">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D477" s="9">
         <v>20</v>
@@ -20715,7 +20715,7 @@
       </c>
       <c r="B478" s="15"/>
       <c r="C478" s="11">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D478" s="9">
         <v>20</v>
@@ -20756,7 +20756,7 @@
       </c>
       <c r="B479" s="15"/>
       <c r="C479" s="11">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D479" s="9">
         <v>20</v>
@@ -20797,7 +20797,7 @@
       </c>
       <c r="B480" s="15"/>
       <c r="C480" s="11">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D480" s="9">
         <v>20</v>
@@ -20838,7 +20838,7 @@
       </c>
       <c r="B481" s="15"/>
       <c r="C481" s="11">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D481" s="9">
         <v>20</v>
@@ -20879,7 +20879,7 @@
       </c>
       <c r="B482" s="15"/>
       <c r="C482" s="11">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D482" s="9">
         <v>20</v>
@@ -20920,7 +20920,7 @@
       </c>
       <c r="B483" s="15"/>
       <c r="C483" s="11">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D483" s="9">
         <v>20</v>
@@ -20961,7 +20961,7 @@
       </c>
       <c r="B484" s="15"/>
       <c r="C484" s="11">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D484" s="9">
         <v>20</v>
@@ -21002,7 +21002,7 @@
       </c>
       <c r="B485" s="15"/>
       <c r="C485" s="11">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D485" s="9">
         <v>20</v>
@@ -21043,7 +21043,7 @@
       </c>
       <c r="B486" s="15"/>
       <c r="C486" s="11">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D486" s="9">
         <v>20</v>
@@ -21084,7 +21084,7 @@
       </c>
       <c r="B487" s="15"/>
       <c r="C487" s="11">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D487" s="9">
         <v>20</v>
@@ -21125,7 +21125,7 @@
       </c>
       <c r="B488" s="15"/>
       <c r="C488" s="11">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D488" s="9">
         <v>20</v>
@@ -21166,7 +21166,7 @@
       </c>
       <c r="B489" s="15"/>
       <c r="C489" s="11">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D489" s="9">
         <v>20</v>
@@ -21207,7 +21207,7 @@
       </c>
       <c r="B490" s="15"/>
       <c r="C490" s="11">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D490" s="9">
         <v>20</v>
@@ -21248,7 +21248,7 @@
       </c>
       <c r="B491" s="15"/>
       <c r="C491" s="11">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D491" s="9">
         <v>20</v>
@@ -21289,7 +21289,7 @@
       </c>
       <c r="B492" s="15"/>
       <c r="C492" s="11">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D492" s="9">
         <v>20</v>
@@ -21330,7 +21330,7 @@
       </c>
       <c r="B493" s="15"/>
       <c r="C493" s="11">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D493" s="9">
         <v>20</v>
@@ -21371,7 +21371,7 @@
       </c>
       <c r="B494" s="15"/>
       <c r="C494" s="11">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D494" s="9">
         <v>20</v>
@@ -21412,7 +21412,7 @@
       </c>
       <c r="B495" s="15"/>
       <c r="C495" s="11">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D495" s="9">
         <v>20</v>
@@ -21453,7 +21453,7 @@
       </c>
       <c r="B496" s="15"/>
       <c r="C496" s="11">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D496" s="9">
         <v>20</v>
@@ -21494,7 +21494,7 @@
       </c>
       <c r="B497" s="15"/>
       <c r="C497" s="11">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D497" s="9">
         <v>20</v>
@@ -21535,7 +21535,7 @@
       </c>
       <c r="B498" s="15"/>
       <c r="C498" s="11">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D498" s="9">
         <v>20</v>
@@ -21576,7 +21576,7 @@
       </c>
       <c r="B499" s="15"/>
       <c r="C499" s="11">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D499" s="9">
         <v>20</v>
@@ -21617,7 +21617,7 @@
       </c>
       <c r="B500" s="15"/>
       <c r="C500" s="11">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D500" s="9">
         <v>20</v>
@@ -21658,7 +21658,7 @@
       </c>
       <c r="B501" s="15"/>
       <c r="C501" s="11">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D501" s="9">
         <v>20</v>
@@ -21699,7 +21699,7 @@
       </c>
       <c r="B502" s="15"/>
       <c r="C502" s="11">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D502" s="9">
         <v>20</v>
@@ -21740,7 +21740,7 @@
       </c>
       <c r="B503" s="15"/>
       <c r="C503" s="11">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D503" s="9">
         <v>20</v>
@@ -21781,7 +21781,7 @@
       </c>
       <c r="B504" s="15"/>
       <c r="C504" s="11">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D504" s="9">
         <v>20</v>
@@ -21822,7 +21822,7 @@
       </c>
       <c r="B505" s="15"/>
       <c r="C505" s="11">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D505" s="9">
         <v>20</v>
@@ -21863,7 +21863,7 @@
       </c>
       <c r="B506" s="15"/>
       <c r="C506" s="11">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D506" s="9">
         <v>20</v>
@@ -21904,7 +21904,7 @@
       </c>
       <c r="B507" s="15"/>
       <c r="C507" s="11">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D507" s="9">
         <v>20</v>
@@ -21945,7 +21945,7 @@
       </c>
       <c r="B508" s="15"/>
       <c r="C508" s="11">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D508" s="9">
         <v>20</v>
@@ -21986,7 +21986,7 @@
       </c>
       <c r="B509" s="15"/>
       <c r="C509" s="11">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D509" s="9">
         <v>20</v>
@@ -22027,7 +22027,7 @@
       </c>
       <c r="B510" s="15"/>
       <c r="C510" s="11">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D510" s="9">
         <v>20</v>
@@ -22068,7 +22068,7 @@
       </c>
       <c r="B511" s="15"/>
       <c r="C511" s="11">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D511" s="9">
         <v>20</v>
@@ -22109,7 +22109,7 @@
       </c>
       <c r="B512" s="15"/>
       <c r="C512" s="11">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D512" s="9">
         <v>20</v>
@@ -22150,7 +22150,7 @@
       </c>
       <c r="B513" s="15"/>
       <c r="C513" s="11">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D513" s="9">
         <v>20</v>
@@ -22191,7 +22191,7 @@
       </c>
       <c r="B514" s="15"/>
       <c r="C514" s="11">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D514" s="9">
         <v>20</v>
@@ -22232,7 +22232,7 @@
       </c>
       <c r="B515" s="15"/>
       <c r="C515" s="11">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D515" s="9">
         <v>20</v>
@@ -22273,7 +22273,7 @@
       </c>
       <c r="B516" s="15"/>
       <c r="C516" s="11">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D516" s="9">
         <v>20</v>
@@ -22314,7 +22314,7 @@
       </c>
       <c r="B517" s="15"/>
       <c r="C517" s="11">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D517" s="9">
         <v>20</v>
@@ -22355,7 +22355,7 @@
       </c>
       <c r="B518" s="15"/>
       <c r="C518" s="11">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D518" s="9">
         <v>20</v>
@@ -22396,7 +22396,7 @@
       </c>
       <c r="B519" s="15"/>
       <c r="C519" s="11">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D519" s="9">
         <v>20</v>
@@ -22437,7 +22437,7 @@
       </c>
       <c r="B520" s="15"/>
       <c r="C520" s="11">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D520" s="9">
         <v>20</v>
@@ -22478,7 +22478,7 @@
       </c>
       <c r="B521" s="15"/>
       <c r="C521" s="11">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D521" s="9">
         <v>20</v>
@@ -22519,7 +22519,7 @@
       </c>
       <c r="B522" s="15"/>
       <c r="C522" s="11">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D522" s="9">
         <v>20</v>
@@ -22560,7 +22560,7 @@
       </c>
       <c r="B523" s="15"/>
       <c r="C523" s="11">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D523" s="9">
         <v>20</v>
@@ -22601,7 +22601,7 @@
       </c>
       <c r="B524" s="15"/>
       <c r="C524" s="11">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D524" s="9">
         <v>20</v>
@@ -22642,7 +22642,7 @@
       </c>
       <c r="B525" s="15"/>
       <c r="C525" s="11">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D525" s="9">
         <v>20</v>
@@ -22683,7 +22683,7 @@
       </c>
       <c r="B526" s="15"/>
       <c r="C526" s="11">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D526" s="9">
         <v>20</v>
@@ -22724,7 +22724,7 @@
       </c>
       <c r="B527" s="15"/>
       <c r="C527" s="11">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D527" s="9">
         <v>20</v>
@@ -22765,7 +22765,7 @@
       </c>
       <c r="B528" s="15"/>
       <c r="C528" s="11">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D528" s="9">
         <v>20</v>
@@ -22806,7 +22806,7 @@
       </c>
       <c r="B529" s="15"/>
       <c r="C529" s="11">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D529" s="9">
         <v>20</v>
@@ -22847,7 +22847,7 @@
       </c>
       <c r="B530" s="15"/>
       <c r="C530" s="11">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D530" s="9">
         <v>20</v>
@@ -22888,7 +22888,7 @@
       </c>
       <c r="B531" s="15"/>
       <c r="C531" s="11">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D531" s="9">
         <v>20</v>
@@ -22929,7 +22929,7 @@
       </c>
       <c r="B532" s="15"/>
       <c r="C532" s="11">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D532" s="9">
         <v>20</v>
@@ -22970,7 +22970,7 @@
       </c>
       <c r="B533" s="15"/>
       <c r="C533" s="11">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D533" s="9">
         <v>20</v>
@@ -23011,7 +23011,7 @@
       </c>
       <c r="B534" s="15"/>
       <c r="C534" s="11">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D534" s="9">
         <v>20</v>
@@ -23052,7 +23052,7 @@
       </c>
       <c r="B535" s="15"/>
       <c r="C535" s="11">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D535" s="9">
         <v>20</v>
@@ -23093,7 +23093,7 @@
       </c>
       <c r="B536" s="15"/>
       <c r="C536" s="11">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D536" s="9">
         <v>20</v>
@@ -23134,7 +23134,7 @@
       </c>
       <c r="B537" s="15"/>
       <c r="C537" s="11">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D537" s="9">
         <v>20</v>
@@ -23175,7 +23175,7 @@
       </c>
       <c r="B538" s="15"/>
       <c r="C538" s="11">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D538" s="9">
         <v>20</v>
@@ -23216,7 +23216,7 @@
       </c>
       <c r="B539" s="15"/>
       <c r="C539" s="11">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D539" s="9">
         <v>20</v>
@@ -23257,7 +23257,7 @@
       </c>
       <c r="B540" s="15"/>
       <c r="C540" s="11">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D540" s="9">
         <v>20</v>
@@ -23298,7 +23298,7 @@
       </c>
       <c r="B541" s="15"/>
       <c r="C541" s="11">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D541" s="9">
         <v>20</v>
@@ -23339,7 +23339,7 @@
       </c>
       <c r="B542" s="15"/>
       <c r="C542" s="11">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D542" s="9">
         <v>20</v>
@@ -23380,7 +23380,7 @@
       </c>
       <c r="B543" s="15"/>
       <c r="C543" s="11">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D543" s="9">
         <v>20</v>
@@ -23421,7 +23421,7 @@
       </c>
       <c r="B544" s="15"/>
       <c r="C544" s="11">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D544" s="9">
         <v>20</v>
@@ -23462,7 +23462,7 @@
       </c>
       <c r="B545" s="15"/>
       <c r="C545" s="11">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D545" s="9">
         <v>20</v>
@@ -23503,7 +23503,7 @@
       </c>
       <c r="B546" s="15"/>
       <c r="C546" s="11">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D546" s="9">
         <v>20</v>
@@ -23544,7 +23544,7 @@
       </c>
       <c r="B547" s="15"/>
       <c r="C547" s="11">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D547" s="9">
         <v>20</v>
@@ -23585,7 +23585,7 @@
       </c>
       <c r="B548" s="15"/>
       <c r="C548" s="11">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D548" s="9">
         <v>20</v>
@@ -23626,7 +23626,7 @@
       </c>
       <c r="B549" s="15"/>
       <c r="C549" s="11">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D549" s="9">
         <v>20</v>
@@ -23667,7 +23667,7 @@
       </c>
       <c r="B550" s="15"/>
       <c r="C550" s="11">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D550" s="9">
         <v>20</v>
@@ -23708,7 +23708,7 @@
       </c>
       <c r="B551" s="15"/>
       <c r="C551" s="11">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D551" s="9">
         <v>20</v>
@@ -23749,7 +23749,7 @@
       </c>
       <c r="B552" s="15"/>
       <c r="C552" s="11">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D552" s="9">
         <v>20</v>
@@ -23790,7 +23790,7 @@
       </c>
       <c r="B553" s="15"/>
       <c r="C553" s="11">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D553" s="9">
         <v>20</v>
@@ -23831,7 +23831,7 @@
       </c>
       <c r="B554" s="15"/>
       <c r="C554" s="11">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D554" s="9">
         <v>20</v>
@@ -23872,7 +23872,7 @@
       </c>
       <c r="B555" s="15"/>
       <c r="C555" s="11">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D555" s="9">
         <v>20</v>
@@ -23913,7 +23913,7 @@
       </c>
       <c r="B556" s="15"/>
       <c r="C556" s="11">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D556" s="9">
         <v>20</v>
@@ -23954,7 +23954,7 @@
       </c>
       <c r="B557" s="15"/>
       <c r="C557" s="11">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D557" s="9">
         <v>20</v>
@@ -23995,7 +23995,7 @@
       </c>
       <c r="B558" s="15"/>
       <c r="C558" s="11">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D558" s="9">
         <v>20</v>
@@ -24036,7 +24036,7 @@
       </c>
       <c r="B559" s="15"/>
       <c r="C559" s="11">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D559" s="9">
         <v>20</v>
@@ -24077,7 +24077,7 @@
       </c>
       <c r="B560" s="15"/>
       <c r="C560" s="11">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D560" s="9">
         <v>20</v>
@@ -24118,7 +24118,7 @@
       </c>
       <c r="B561" s="15"/>
       <c r="C561" s="11">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D561" s="9">
         <v>20</v>
@@ -24159,7 +24159,7 @@
       </c>
       <c r="B562" s="15"/>
       <c r="C562" s="11">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D562" s="9">
         <v>20</v>
@@ -24200,7 +24200,7 @@
       </c>
       <c r="B563" s="15"/>
       <c r="C563" s="11">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D563" s="9">
         <v>20</v>
@@ -24241,7 +24241,7 @@
       </c>
       <c r="B564" s="15"/>
       <c r="C564" s="11">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D564" s="9">
         <v>20</v>
@@ -24282,7 +24282,7 @@
       </c>
       <c r="B565" s="15"/>
       <c r="C565" s="11">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D565" s="9">
         <v>20</v>
@@ -24323,7 +24323,7 @@
       </c>
       <c r="B566" s="15"/>
       <c r="C566" s="11">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D566" s="9">
         <v>20</v>
@@ -24364,7 +24364,7 @@
       </c>
       <c r="B567" s="15"/>
       <c r="C567" s="11">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D567" s="9">
         <v>20</v>
@@ -24405,7 +24405,7 @@
       </c>
       <c r="B568" s="15"/>
       <c r="C568" s="11">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D568" s="9">
         <v>20</v>
@@ -24446,7 +24446,7 @@
       </c>
       <c r="B569" s="15"/>
       <c r="C569" s="11">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D569" s="9">
         <v>20</v>
@@ -24487,7 +24487,7 @@
       </c>
       <c r="B570" s="15"/>
       <c r="C570" s="11">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D570" s="9">
         <v>20</v>
@@ -24528,7 +24528,7 @@
       </c>
       <c r="B571" s="15"/>
       <c r="C571" s="11">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D571" s="9">
         <v>20</v>
@@ -24569,7 +24569,7 @@
       </c>
       <c r="B572" s="15"/>
       <c r="C572" s="11">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D572" s="9">
         <v>20</v>
@@ -24610,7 +24610,7 @@
       </c>
       <c r="B573" s="15"/>
       <c r="C573" s="11">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D573" s="9">
         <v>20</v>
@@ -24651,7 +24651,7 @@
       </c>
       <c r="B574" s="15"/>
       <c r="C574" s="11">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D574" s="9">
         <v>20</v>
@@ -24692,7 +24692,7 @@
       </c>
       <c r="B575" s="15"/>
       <c r="C575" s="11">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D575" s="9">
         <v>20</v>
@@ -24733,7 +24733,7 @@
       </c>
       <c r="B576" s="15"/>
       <c r="C576" s="11">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D576" s="9">
         <v>20</v>
@@ -24774,7 +24774,7 @@
       </c>
       <c r="B577" s="15"/>
       <c r="C577" s="11">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D577" s="9">
         <v>20</v>
@@ -24815,7 +24815,7 @@
       </c>
       <c r="B578" s="15"/>
       <c r="C578" s="11">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D578" s="9">
         <v>20</v>
@@ -24856,7 +24856,7 @@
       </c>
       <c r="B579" s="15"/>
       <c r="C579" s="11">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D579" s="9">
         <v>20</v>
@@ -24897,7 +24897,7 @@
       </c>
       <c r="B580" s="15"/>
       <c r="C580" s="11">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D580" s="9">
         <v>20</v>
@@ -24938,7 +24938,7 @@
       </c>
       <c r="B581" s="15"/>
       <c r="C581" s="11">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D581" s="9">
         <v>20</v>
@@ -24979,7 +24979,7 @@
       </c>
       <c r="B582" s="15"/>
       <c r="C582" s="11">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D582" s="9">
         <v>20</v>
@@ -25020,7 +25020,7 @@
       </c>
       <c r="B583" s="15"/>
       <c r="C583" s="11">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D583" s="9">
         <v>20</v>
@@ -25061,7 +25061,7 @@
       </c>
       <c r="B584" s="15"/>
       <c r="C584" s="11">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D584" s="9">
         <v>20</v>
@@ -25102,7 +25102,7 @@
       </c>
       <c r="B585" s="15"/>
       <c r="C585" s="11">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D585" s="9">
         <v>20</v>
@@ -25143,7 +25143,7 @@
       </c>
       <c r="B586" s="15"/>
       <c r="C586" s="11">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D586" s="9">
         <v>20</v>
@@ -25184,7 +25184,7 @@
       </c>
       <c r="B587" s="15"/>
       <c r="C587" s="11">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D587" s="9">
         <v>20</v>
@@ -25225,7 +25225,7 @@
       </c>
       <c r="B588" s="15"/>
       <c r="C588" s="11">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D588" s="9">
         <v>20</v>
@@ -25266,7 +25266,7 @@
       </c>
       <c r="B589" s="15"/>
       <c r="C589" s="11">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D589" s="9">
         <v>20</v>
@@ -25307,7 +25307,7 @@
       </c>
       <c r="B590" s="15"/>
       <c r="C590" s="11">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D590" s="9">
         <v>20</v>
@@ -25348,7 +25348,7 @@
       </c>
       <c r="B591" s="15"/>
       <c r="C591" s="11">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D591" s="9">
         <v>20</v>
@@ -25389,7 +25389,7 @@
       </c>
       <c r="B592" s="15"/>
       <c r="C592" s="11">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D592" s="9">
         <v>20</v>
@@ -25430,7 +25430,7 @@
       </c>
       <c r="B593" s="15"/>
       <c r="C593" s="11">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D593" s="9">
         <v>20</v>
@@ -25471,7 +25471,7 @@
       </c>
       <c r="B594" s="15"/>
       <c r="C594" s="11">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D594" s="9">
         <v>20</v>
@@ -25512,7 +25512,7 @@
       </c>
       <c r="B595" s="15"/>
       <c r="C595" s="11">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D595" s="9">
         <v>20</v>
@@ -25553,7 +25553,7 @@
       </c>
       <c r="B596" s="15"/>
       <c r="C596" s="11">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D596" s="9">
         <v>20</v>
@@ -25594,7 +25594,7 @@
       </c>
       <c r="B597" s="15"/>
       <c r="C597" s="11">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D597" s="9">
         <v>20</v>
@@ -25635,7 +25635,7 @@
       </c>
       <c r="B598" s="15"/>
       <c r="C598" s="11">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D598" s="9">
         <v>20</v>
@@ -25676,7 +25676,7 @@
       </c>
       <c r="B599" s="15"/>
       <c r="C599" s="11">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D599" s="9">
         <v>20</v>
@@ -25717,7 +25717,7 @@
       </c>
       <c r="B600" s="15"/>
       <c r="C600" s="11">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D600" s="9">
         <v>20</v>
@@ -25758,7 +25758,7 @@
       </c>
       <c r="B601" s="15"/>
       <c r="C601" s="11">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D601" s="9">
         <v>20</v>
@@ -25799,7 +25799,7 @@
       </c>
       <c r="B602" s="15"/>
       <c r="C602" s="11">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D602" s="9">
         <v>20</v>
@@ -25840,7 +25840,7 @@
       </c>
       <c r="B603" s="15"/>
       <c r="C603" s="11">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D603" s="9">
         <v>20</v>
@@ -25881,7 +25881,7 @@
       </c>
       <c r="B604" s="15"/>
       <c r="C604" s="11">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D604" s="9">
         <v>20</v>
@@ -25922,7 +25922,7 @@
       </c>
       <c r="B605" s="15"/>
       <c r="C605" s="11">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D605" s="9">
         <v>20</v>
@@ -25963,7 +25963,7 @@
       </c>
       <c r="B606" s="15"/>
       <c r="C606" s="11">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D606" s="9">
         <v>20</v>
@@ -26004,7 +26004,7 @@
       </c>
       <c r="B607" s="15"/>
       <c r="C607" s="11">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D607" s="9">
         <v>20</v>
@@ -26045,7 +26045,7 @@
       </c>
       <c r="B608" s="15"/>
       <c r="C608" s="11">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D608" s="9">
         <v>20</v>
@@ -26086,7 +26086,7 @@
       </c>
       <c r="B609" s="15"/>
       <c r="C609" s="11">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D609" s="9">
         <v>20</v>
@@ -26127,7 +26127,7 @@
       </c>
       <c r="B610" s="15"/>
       <c r="C610" s="11">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D610" s="9">
         <v>20</v>
@@ -26168,7 +26168,7 @@
       </c>
       <c r="B611" s="15"/>
       <c r="C611" s="11">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D611" s="9">
         <v>20</v>
@@ -26209,7 +26209,7 @@
       </c>
       <c r="B612" s="15"/>
       <c r="C612" s="11">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D612" s="9">
         <v>20</v>
@@ -26250,7 +26250,7 @@
       </c>
       <c r="B613" s="15"/>
       <c r="C613" s="11">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D613" s="9">
         <v>20</v>
@@ -26291,7 +26291,7 @@
       </c>
       <c r="B614" s="15"/>
       <c r="C614" s="11">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D614" s="9">
         <v>20</v>
@@ -26332,7 +26332,7 @@
       </c>
       <c r="B615" s="15"/>
       <c r="C615" s="11">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D615" s="9">
         <v>20</v>
@@ -26373,7 +26373,7 @@
       </c>
       <c r="B616" s="15"/>
       <c r="C616" s="11">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D616" s="9">
         <v>20</v>
@@ -26414,7 +26414,7 @@
       </c>
       <c r="B617" s="15"/>
       <c r="C617" s="11">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D617" s="9">
         <v>20</v>
@@ -26455,7 +26455,7 @@
       </c>
       <c r="B618" s="15"/>
       <c r="C618" s="11">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D618" s="9">
         <v>20</v>
@@ -26496,7 +26496,7 @@
       </c>
       <c r="B619" s="15"/>
       <c r="C619" s="11">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D619" s="9">
         <v>20</v>
@@ -26537,7 +26537,7 @@
       </c>
       <c r="B620" s="15"/>
       <c r="C620" s="11">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D620" s="9">
         <v>20</v>
@@ -26578,7 +26578,7 @@
       </c>
       <c r="B621" s="15"/>
       <c r="C621" s="11">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D621" s="9">
         <v>20</v>
@@ -26619,7 +26619,7 @@
       </c>
       <c r="B622" s="15"/>
       <c r="C622" s="11">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D622" s="9">
         <v>20</v>
@@ -26660,7 +26660,7 @@
       </c>
       <c r="B623" s="15"/>
       <c r="C623" s="11">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D623" s="9">
         <v>20</v>
@@ -26701,7 +26701,7 @@
       </c>
       <c r="B624" s="15"/>
       <c r="C624" s="11">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D624" s="9">
         <v>20</v>
@@ -26742,7 +26742,7 @@
       </c>
       <c r="B625" s="15"/>
       <c r="C625" s="11">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D625" s="9">
         <v>20</v>
@@ -26783,7 +26783,7 @@
       </c>
       <c r="B626" s="15"/>
       <c r="C626" s="11">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D626" s="9">
         <v>20</v>
@@ -26824,7 +26824,7 @@
       </c>
       <c r="B627" s="15"/>
       <c r="C627" s="11">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D627" s="9">
         <v>20</v>
@@ -26865,7 +26865,7 @@
       </c>
       <c r="B628" s="15"/>
       <c r="C628" s="11">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D628" s="9">
         <v>20</v>
@@ -26906,7 +26906,7 @@
       </c>
       <c r="B629" s="15"/>
       <c r="C629" s="11">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D629" s="9">
         <v>20</v>
@@ -26947,7 +26947,7 @@
       </c>
       <c r="B630" s="15"/>
       <c r="C630" s="11">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D630" s="9">
         <v>20</v>
@@ -26988,7 +26988,7 @@
       </c>
       <c r="B631" s="15"/>
       <c r="C631" s="11">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D631" s="9">
         <v>20</v>
@@ -27029,7 +27029,7 @@
       </c>
       <c r="B632" s="15"/>
       <c r="C632" s="11">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D632" s="9">
         <v>20</v>
@@ -27070,7 +27070,7 @@
       </c>
       <c r="B633" s="15"/>
       <c r="C633" s="11">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D633" s="9">
         <v>20</v>
@@ -27111,7 +27111,7 @@
       </c>
       <c r="B634" s="15"/>
       <c r="C634" s="11">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D634" s="9">
         <v>20</v>
@@ -27152,7 +27152,7 @@
       </c>
       <c r="B635" s="15"/>
       <c r="C635" s="11">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D635" s="9">
         <v>20</v>
@@ -27193,7 +27193,7 @@
       </c>
       <c r="B636" s="15"/>
       <c r="C636" s="11">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D636" s="9">
         <v>20</v>
@@ -27234,7 +27234,7 @@
       </c>
       <c r="B637" s="15"/>
       <c r="C637" s="11">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D637" s="9">
         <v>20</v>
@@ -27275,7 +27275,7 @@
       </c>
       <c r="B638" s="15"/>
       <c r="C638" s="11">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D638" s="9">
         <v>20</v>
@@ -27316,7 +27316,7 @@
       </c>
       <c r="B639" s="15"/>
       <c r="C639" s="11">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D639" s="9">
         <v>20</v>
@@ -27357,7 +27357,7 @@
       </c>
       <c r="B640" s="15"/>
       <c r="C640" s="11">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D640" s="9">
         <v>20</v>
@@ -27398,7 +27398,7 @@
       </c>
       <c r="B641" s="15"/>
       <c r="C641" s="11">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D641" s="9">
         <v>20</v>
@@ -27439,7 +27439,7 @@
       </c>
       <c r="B642" s="15"/>
       <c r="C642" s="11">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D642" s="9">
         <v>20</v>
@@ -27480,7 +27480,7 @@
       </c>
       <c r="B643" s="15"/>
       <c r="C643" s="11">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D643" s="9">
         <v>20</v>
@@ -27521,7 +27521,7 @@
       </c>
       <c r="B644" s="15"/>
       <c r="C644" s="11">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D644" s="9">
         <v>20</v>
@@ -27562,7 +27562,7 @@
       </c>
       <c r="B645" s="15"/>
       <c r="C645" s="11">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D645" s="9">
         <v>20</v>
@@ -27603,7 +27603,7 @@
       </c>
       <c r="B646" s="15"/>
       <c r="C646" s="11">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D646" s="9">
         <v>20</v>
@@ -27644,7 +27644,7 @@
       </c>
       <c r="B647" s="15"/>
       <c r="C647" s="11">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D647" s="9">
         <v>20</v>
@@ -27685,7 +27685,7 @@
       </c>
       <c r="B648" s="15"/>
       <c r="C648" s="11">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D648" s="9">
         <v>20</v>
@@ -27726,7 +27726,7 @@
       </c>
       <c r="B649" s="15"/>
       <c r="C649" s="11">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D649" s="9">
         <v>20</v>
@@ -27767,7 +27767,7 @@
       </c>
       <c r="B650" s="15"/>
       <c r="C650" s="11">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D650" s="9">
         <v>20</v>
@@ -27808,7 +27808,7 @@
       </c>
       <c r="B651" s="15"/>
       <c r="C651" s="11">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D651" s="9">
         <v>20</v>
@@ -27849,7 +27849,7 @@
       </c>
       <c r="B652" s="15"/>
       <c r="C652" s="11">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D652" s="9">
         <v>20</v>
@@ -27890,7 +27890,7 @@
       </c>
       <c r="B653" s="15"/>
       <c r="C653" s="11">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D653" s="9">
         <v>20</v>
@@ -27931,7 +27931,7 @@
       </c>
       <c r="B654" s="15"/>
       <c r="C654" s="11">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D654" s="9">
         <v>20</v>
@@ -27972,7 +27972,7 @@
       </c>
       <c r="B655" s="15"/>
       <c r="C655" s="11">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D655" s="9">
         <v>20</v>
@@ -28013,7 +28013,7 @@
       </c>
       <c r="B656" s="15"/>
       <c r="C656" s="11">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D656" s="9">
         <v>20</v>
@@ -28054,7 +28054,7 @@
       </c>
       <c r="B657" s="15"/>
       <c r="C657" s="11">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D657" s="9">
         <v>20</v>
@@ -28095,7 +28095,7 @@
       </c>
       <c r="B658" s="15"/>
       <c r="C658" s="11">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D658" s="9">
         <v>20</v>
@@ -28136,7 +28136,7 @@
       </c>
       <c r="B659" s="15"/>
       <c r="C659" s="11">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D659" s="9">
         <v>20</v>
@@ -28177,7 +28177,7 @@
       </c>
       <c r="B660" s="15"/>
       <c r="C660" s="11">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D660" s="9">
         <v>20</v>
@@ -28218,7 +28218,7 @@
       </c>
       <c r="B661" s="15"/>
       <c r="C661" s="11">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D661" s="9">
         <v>20</v>
@@ -28259,7 +28259,7 @@
       </c>
       <c r="B662" s="15"/>
       <c r="C662" s="11">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D662" s="9">
         <v>20</v>
@@ -28300,7 +28300,7 @@
       </c>
       <c r="B663" s="15"/>
       <c r="C663" s="11">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D663" s="9">
         <v>20</v>
@@ -28341,7 +28341,7 @@
       </c>
       <c r="B664" s="15"/>
       <c r="C664" s="11">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D664" s="9">
         <v>20</v>
@@ -28382,7 +28382,7 @@
       </c>
       <c r="B665" s="15"/>
       <c r="C665" s="11">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D665" s="9">
         <v>20</v>
@@ -28423,7 +28423,7 @@
       </c>
       <c r="B666" s="15"/>
       <c r="C666" s="11">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D666" s="9">
         <v>20</v>
@@ -28464,7 +28464,7 @@
       </c>
       <c r="B667" s="15"/>
       <c r="C667" s="11">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D667" s="9">
         <v>20</v>
@@ -28505,7 +28505,7 @@
       </c>
       <c r="B668" s="15"/>
       <c r="C668" s="11">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D668" s="9">
         <v>20</v>
@@ -28546,7 +28546,7 @@
       </c>
       <c r="B669" s="15"/>
       <c r="C669" s="11">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D669" s="9">
         <v>20</v>
@@ -28587,7 +28587,7 @@
       </c>
       <c r="B670" s="15"/>
       <c r="C670" s="11">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D670" s="9">
         <v>20</v>
@@ -28628,7 +28628,7 @@
       </c>
       <c r="B671" s="15"/>
       <c r="C671" s="11">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D671" s="9">
         <v>20</v>
@@ -28669,7 +28669,7 @@
       </c>
       <c r="B672" s="15"/>
       <c r="C672" s="11">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D672" s="9">
         <v>20</v>
@@ -28710,7 +28710,7 @@
       </c>
       <c r="B673" s="15"/>
       <c r="C673" s="11">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D673" s="9">
         <v>20</v>
@@ -28751,7 +28751,7 @@
       </c>
       <c r="B674" s="15"/>
       <c r="C674" s="11">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D674" s="9">
         <v>20</v>
@@ -28792,7 +28792,7 @@
       </c>
       <c r="B675" s="15"/>
       <c r="C675" s="11">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D675" s="9">
         <v>20</v>
@@ -28833,7 +28833,7 @@
       </c>
       <c r="B676" s="15"/>
       <c r="C676" s="11">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D676" s="9">
         <v>20</v>
@@ -28874,7 +28874,7 @@
       </c>
       <c r="B677" s="15"/>
       <c r="C677" s="11">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D677" s="9">
         <v>20</v>
@@ -28915,7 +28915,7 @@
       </c>
       <c r="B678" s="15"/>
       <c r="C678" s="11">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D678" s="9">
         <v>20</v>
@@ -28956,7 +28956,7 @@
       </c>
       <c r="B679" s="15"/>
       <c r="C679" s="11">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D679" s="9">
         <v>20</v>
@@ -28997,7 +28997,7 @@
       </c>
       <c r="B680" s="15"/>
       <c r="C680" s="11">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D680" s="9">
         <v>20</v>
@@ -29038,7 +29038,7 @@
       </c>
       <c r="B681" s="15"/>
       <c r="C681" s="11">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D681" s="9">
         <v>20</v>
@@ -29079,7 +29079,7 @@
       </c>
       <c r="B682" s="15"/>
       <c r="C682" s="11">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D682" s="9">
         <v>20</v>
@@ -29120,7 +29120,7 @@
       </c>
       <c r="B683" s="15"/>
       <c r="C683" s="11">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D683" s="9">
         <v>20</v>
@@ -29161,7 +29161,7 @@
       </c>
       <c r="B684" s="15"/>
       <c r="C684" s="11">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D684" s="9">
         <v>20</v>
@@ -29202,7 +29202,7 @@
       </c>
       <c r="B685" s="15"/>
       <c r="C685" s="11">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D685" s="9">
         <v>20</v>
@@ -29243,7 +29243,7 @@
       </c>
       <c r="B686" s="15"/>
       <c r="C686" s="11">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D686" s="9">
         <v>20</v>
@@ -29284,7 +29284,7 @@
       </c>
       <c r="B687" s="15"/>
       <c r="C687" s="11">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D687" s="9">
         <v>20</v>
@@ -29325,7 +29325,7 @@
       </c>
       <c r="B688" s="15"/>
       <c r="C688" s="11">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D688" s="9">
         <v>20</v>
@@ -29366,7 +29366,7 @@
       </c>
       <c r="B689" s="15"/>
       <c r="C689" s="11">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D689" s="9">
         <v>20</v>
@@ -29407,7 +29407,7 @@
       </c>
       <c r="B690" s="15"/>
       <c r="C690" s="11">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D690" s="9">
         <v>20</v>
@@ -29448,7 +29448,7 @@
       </c>
       <c r="B691" s="15"/>
       <c r="C691" s="11">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D691" s="9">
         <v>20</v>
@@ -29489,7 +29489,7 @@
       </c>
       <c r="B692" s="15"/>
       <c r="C692" s="11">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D692" s="9">
         <v>20</v>
@@ -29530,7 +29530,7 @@
       </c>
       <c r="B693" s="15"/>
       <c r="C693" s="11">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D693" s="9">
         <v>20</v>
@@ -29571,7 +29571,7 @@
       </c>
       <c r="B694" s="15"/>
       <c r="C694" s="11">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D694" s="9">
         <v>20</v>
@@ -29612,7 +29612,7 @@
       </c>
       <c r="B695" s="15"/>
       <c r="C695" s="11">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D695" s="9">
         <v>20</v>
@@ -29653,7 +29653,7 @@
       </c>
       <c r="B696" s="15"/>
       <c r="C696" s="11">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D696" s="9">
         <v>20</v>
@@ -29694,7 +29694,7 @@
       </c>
       <c r="B697" s="15"/>
       <c r="C697" s="11">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D697" s="9">
         <v>20</v>
@@ -29735,7 +29735,7 @@
       </c>
       <c r="B698" s="15"/>
       <c r="C698" s="11">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D698" s="9">
         <v>20</v>
@@ -29776,7 +29776,7 @@
       </c>
       <c r="B699" s="15"/>
       <c r="C699" s="11">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D699" s="9">
         <v>20</v>
@@ -29817,7 +29817,7 @@
       </c>
       <c r="B700" s="15"/>
       <c r="C700" s="11">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D700" s="9">
         <v>20</v>
@@ -29858,7 +29858,7 @@
       </c>
       <c r="B701" s="15"/>
       <c r="C701" s="11">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D701" s="9">
         <v>20</v>
@@ -29899,7 +29899,7 @@
       </c>
       <c r="B702" s="15"/>
       <c r="C702" s="11">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D702" s="9">
         <v>20</v>
@@ -29940,7 +29940,7 @@
       </c>
       <c r="B703" s="15"/>
       <c r="C703" s="11">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D703" s="9">
         <v>20</v>
@@ -29981,7 +29981,7 @@
       </c>
       <c r="B704" s="15"/>
       <c r="C704" s="11">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D704" s="9">
         <v>20</v>
@@ -30022,7 +30022,7 @@
       </c>
       <c r="B705" s="15"/>
       <c r="C705" s="11">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D705" s="9">
         <v>20</v>
@@ -30063,7 +30063,7 @@
       </c>
       <c r="B706" s="15"/>
       <c r="C706" s="11">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D706" s="9">
         <v>20</v>
@@ -30104,7 +30104,7 @@
       </c>
       <c r="B707" s="15"/>
       <c r="C707" s="11">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D707" s="9">
         <v>20</v>
@@ -30145,7 +30145,7 @@
       </c>
       <c r="B708" s="15"/>
       <c r="C708" s="11">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D708" s="9">
         <v>20</v>
@@ -30186,7 +30186,7 @@
       </c>
       <c r="B709" s="15"/>
       <c r="C709" s="11">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D709" s="9">
         <v>20</v>
@@ -30227,7 +30227,7 @@
       </c>
       <c r="B710" s="15"/>
       <c r="C710" s="11">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D710" s="9">
         <v>20</v>
@@ -30268,7 +30268,7 @@
       </c>
       <c r="B711" s="15"/>
       <c r="C711" s="11">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D711" s="9">
         <v>20</v>
@@ -30309,7 +30309,7 @@
       </c>
       <c r="B712" s="15"/>
       <c r="C712" s="11">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D712" s="9">
         <v>20</v>
@@ -30350,7 +30350,7 @@
       </c>
       <c r="B713" s="15"/>
       <c r="C713" s="11">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D713" s="9">
         <v>20</v>
@@ -30391,7 +30391,7 @@
       </c>
       <c r="B714" s="15"/>
       <c r="C714" s="11">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D714" s="9">
         <v>20</v>
@@ -30432,7 +30432,7 @@
       </c>
       <c r="B715" s="15"/>
       <c r="C715" s="11">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D715" s="9">
         <v>20</v>
@@ -30473,7 +30473,7 @@
       </c>
       <c r="B716" s="15"/>
       <c r="C716" s="11">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D716" s="9">
         <v>20</v>
@@ -30514,7 +30514,7 @@
       </c>
       <c r="B717" s="15"/>
       <c r="C717" s="11">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D717" s="9">
         <v>20</v>
@@ -30555,7 +30555,7 @@
       </c>
       <c r="B718" s="15"/>
       <c r="C718" s="11">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D718" s="9">
         <v>20</v>
@@ -30596,7 +30596,7 @@
       </c>
       <c r="B719" s="15"/>
       <c r="C719" s="11">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D719" s="9">
         <v>20</v>
@@ -30637,7 +30637,7 @@
       </c>
       <c r="B720" s="15"/>
       <c r="C720" s="11">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D720" s="9">
         <v>20</v>
@@ -30678,7 +30678,7 @@
       </c>
       <c r="B721" s="15"/>
       <c r="C721" s="11">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D721" s="9">
         <v>20</v>
@@ -30719,7 +30719,7 @@
       </c>
       <c r="B722" s="15"/>
       <c r="C722" s="11">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D722" s="9">
         <v>20</v>
@@ -30760,7 +30760,7 @@
       </c>
       <c r="B723" s="15"/>
       <c r="C723" s="11">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D723" s="9">
         <v>20</v>
@@ -30801,7 +30801,7 @@
       </c>
       <c r="B724" s="15"/>
       <c r="C724" s="11">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D724" s="9">
         <v>20</v>
@@ -30842,7 +30842,7 @@
       </c>
       <c r="B725" s="15"/>
       <c r="C725" s="11">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D725" s="9">
         <v>20</v>
@@ -30883,7 +30883,7 @@
       </c>
       <c r="B726" s="15"/>
       <c r="C726" s="11">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D726" s="9">
         <v>20</v>
@@ -30924,7 +30924,7 @@
       </c>
       <c r="B727" s="15"/>
       <c r="C727" s="11">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D727" s="9">
         <v>20</v>
@@ -30965,7 +30965,7 @@
       </c>
       <c r="B728" s="15"/>
       <c r="C728" s="11">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D728" s="9">
         <v>20</v>
@@ -31006,7 +31006,7 @@
       </c>
       <c r="B729" s="15"/>
       <c r="C729" s="11">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D729" s="9">
         <v>20</v>
@@ -31047,7 +31047,7 @@
       </c>
       <c r="B730" s="15"/>
       <c r="C730" s="11">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D730" s="9">
         <v>20</v>
@@ -31088,7 +31088,7 @@
       </c>
       <c r="B731" s="15"/>
       <c r="C731" s="11">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D731" s="9">
         <v>20</v>
@@ -31129,7 +31129,7 @@
       </c>
       <c r="B732" s="15"/>
       <c r="C732" s="11">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D732" s="9">
         <v>20</v>
@@ -31170,7 +31170,7 @@
       </c>
       <c r="B733" s="15"/>
       <c r="C733" s="11">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D733" s="9">
         <v>21</v>
@@ -31211,7 +31211,7 @@
       </c>
       <c r="B734" s="15"/>
       <c r="C734" s="11">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D734" s="9">
         <v>21</v>
@@ -31252,7 +31252,7 @@
       </c>
       <c r="B735" s="15"/>
       <c r="C735" s="11">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D735" s="9">
         <v>21</v>
@@ -31293,7 +31293,7 @@
       </c>
       <c r="B736" s="15"/>
       <c r="C736" s="11">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D736" s="9">
         <v>21</v>
@@ -31334,7 +31334,7 @@
       </c>
       <c r="B737" s="15"/>
       <c r="C737" s="11">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D737" s="9">
         <v>21</v>
@@ -31375,7 +31375,7 @@
       </c>
       <c r="B738" s="15"/>
       <c r="C738" s="11">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D738" s="9">
         <v>21</v>
@@ -31416,7 +31416,7 @@
       </c>
       <c r="B739" s="15"/>
       <c r="C739" s="11">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D739" s="9">
         <v>21</v>
@@ -31457,7 +31457,7 @@
       </c>
       <c r="B740" s="15"/>
       <c r="C740" s="11">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D740" s="9">
         <v>21</v>
@@ -31498,7 +31498,7 @@
       </c>
       <c r="B741" s="15"/>
       <c r="C741" s="11">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D741" s="9">
         <v>21</v>
@@ -31539,7 +31539,7 @@
       </c>
       <c r="B742" s="15"/>
       <c r="C742" s="11">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D742" s="9">
         <v>21</v>
@@ -31580,7 +31580,7 @@
       </c>
       <c r="B743" s="15"/>
       <c r="C743" s="11">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D743" s="9">
         <v>21</v>
@@ -31621,7 +31621,7 @@
       </c>
       <c r="B744" s="15"/>
       <c r="C744" s="11">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D744" s="9">
         <v>21</v>
@@ -31662,7 +31662,7 @@
       </c>
       <c r="B745" s="15"/>
       <c r="C745" s="11">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D745" s="9">
         <v>21</v>
@@ -31703,7 +31703,7 @@
       </c>
       <c r="B746" s="15"/>
       <c r="C746" s="11">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D746" s="9">
         <v>21</v>
@@ -31744,7 +31744,7 @@
       </c>
       <c r="B747" s="15"/>
       <c r="C747" s="11">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D747" s="9">
         <v>21</v>
@@ -31785,7 +31785,7 @@
       </c>
       <c r="B748" s="15"/>
       <c r="C748" s="11">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D748" s="9">
         <v>21</v>
@@ -31826,7 +31826,7 @@
       </c>
       <c r="B749" s="15"/>
       <c r="C749" s="11">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D749" s="9">
         <v>21</v>
@@ -31867,7 +31867,7 @@
       </c>
       <c r="B750" s="15"/>
       <c r="C750" s="11">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D750" s="9">
         <v>21</v>
@@ -31908,7 +31908,7 @@
       </c>
       <c r="B751" s="15"/>
       <c r="C751" s="11">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D751" s="9">
         <v>21</v>
@@ -31949,7 +31949,7 @@
       </c>
       <c r="B752" s="15"/>
       <c r="C752" s="11">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D752" s="9">
         <v>21</v>
@@ -31990,7 +31990,7 @@
       </c>
       <c r="B753" s="15"/>
       <c r="C753" s="11">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D753" s="9">
         <v>21</v>
@@ -32031,7 +32031,7 @@
       </c>
       <c r="B754" s="15"/>
       <c r="C754" s="11">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D754" s="9">
         <v>21</v>
@@ -32072,7 +32072,7 @@
       </c>
       <c r="B755" s="15"/>
       <c r="C755" s="11">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D755" s="9">
         <v>21</v>
@@ -32113,7 +32113,7 @@
       </c>
       <c r="B756" s="15"/>
       <c r="C756" s="11">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D756" s="9">
         <v>21</v>
@@ -32154,7 +32154,7 @@
       </c>
       <c r="B757" s="15"/>
       <c r="C757" s="11">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D757" s="9">
         <v>21</v>
@@ -32195,7 +32195,7 @@
       </c>
       <c r="B758" s="15"/>
       <c r="C758" s="11">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D758" s="9">
         <v>21</v>
@@ -32236,7 +32236,7 @@
       </c>
       <c r="B759" s="15"/>
       <c r="C759" s="11">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D759" s="9">
         <v>21</v>
@@ -32277,7 +32277,7 @@
       </c>
       <c r="B760" s="15"/>
       <c r="C760" s="11">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D760" s="9">
         <v>21</v>
@@ -32318,7 +32318,7 @@
       </c>
       <c r="B761" s="15"/>
       <c r="C761" s="11">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D761" s="9">
         <v>21</v>
@@ -32359,7 +32359,7 @@
       </c>
       <c r="B762" s="15"/>
       <c r="C762" s="11">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D762" s="9">
         <v>21</v>
@@ -32400,7 +32400,7 @@
       </c>
       <c r="B763" s="15"/>
       <c r="C763" s="11">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D763" s="9">
         <v>21</v>
@@ -32441,7 +32441,7 @@
       </c>
       <c r="B764" s="15"/>
       <c r="C764" s="11">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D764" s="9">
         <v>21</v>
@@ -32478,7 +32478,7 @@
       </c>
       <c r="B765" s="15"/>
       <c r="C765" s="11">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D765" s="9">
         <v>21</v>
@@ -32515,7 +32515,7 @@
       </c>
       <c r="B766" s="15"/>
       <c r="C766" s="11">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D766" s="9">
         <v>21</v>
@@ -32552,7 +32552,7 @@
       </c>
       <c r="B767" s="15"/>
       <c r="C767" s="11">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D767" s="9">
         <v>21</v>
@@ -32589,7 +32589,7 @@
       </c>
       <c r="B768" s="15"/>
       <c r="C768" s="11">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D768" s="9">
         <v>21</v>
@@ -32626,7 +32626,7 @@
       </c>
       <c r="B769" s="15"/>
       <c r="C769" s="11">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D769" s="9">
         <v>21</v>
@@ -32663,7 +32663,7 @@
       </c>
       <c r="B770" s="15"/>
       <c r="C770" s="11">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D770" s="9">
         <v>21</v>
@@ -32700,7 +32700,7 @@
       </c>
       <c r="B771" s="15"/>
       <c r="C771" s="11">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D771" s="9">
         <v>21</v>
@@ -32737,7 +32737,7 @@
       </c>
       <c r="B772" s="15"/>
       <c r="C772" s="11">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D772" s="9">
         <v>21</v>
@@ -32774,7 +32774,7 @@
       </c>
       <c r="B773" s="15"/>
       <c r="C773" s="11">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D773" s="9">
         <v>21</v>
@@ -32811,7 +32811,7 @@
       </c>
       <c r="B774" s="15"/>
       <c r="C774" s="11">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D774" s="9">
         <v>21</v>
@@ -32848,7 +32848,7 @@
       </c>
       <c r="B775" s="15"/>
       <c r="C775" s="11">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D775" s="16">
         <v>21</v>
@@ -32885,7 +32885,7 @@
       </c>
       <c r="B776" s="15"/>
       <c r="C776" s="11">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D776" s="9">
         <v>21</v>
@@ -32922,7 +32922,7 @@
       </c>
       <c r="B777" s="15"/>
       <c r="C777" s="11">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D777" s="9">
         <v>21</v>
@@ -32959,7 +32959,7 @@
       </c>
       <c r="B778" s="15"/>
       <c r="C778" s="11">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D778" s="9">
         <v>21</v>
@@ -32996,7 +32996,7 @@
       </c>
       <c r="B779" s="15"/>
       <c r="C779" s="11">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D779" s="9">
         <v>21</v>
@@ -33033,7 +33033,7 @@
       </c>
       <c r="B780" s="15"/>
       <c r="C780" s="11">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D780" s="9">
         <v>21</v>
@@ -33070,7 +33070,7 @@
       </c>
       <c r="B781" s="15"/>
       <c r="C781" s="11">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D781" s="9">
         <v>21</v>
@@ -33107,7 +33107,7 @@
       </c>
       <c r="B782" s="15"/>
       <c r="C782" s="11">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D782" s="9">
         <v>21</v>
@@ -33144,7 +33144,7 @@
       </c>
       <c r="B783" s="15"/>
       <c r="C783" s="11">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D783" s="9">
         <v>21</v>
@@ -33181,7 +33181,7 @@
       </c>
       <c r="B784" s="15"/>
       <c r="C784" s="11">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D784" s="9">
         <v>21</v>
@@ -33218,7 +33218,7 @@
       </c>
       <c r="B785" s="15"/>
       <c r="C785" s="11">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D785" s="9">
         <v>21</v>
@@ -33255,7 +33255,7 @@
       </c>
       <c r="B786" s="15"/>
       <c r="C786" s="11">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D786" s="9">
         <v>21</v>
@@ -33292,7 +33292,7 @@
       </c>
       <c r="B787" s="15"/>
       <c r="C787" s="11">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D787" s="9">
         <v>21</v>
@@ -33329,7 +33329,7 @@
       </c>
       <c r="B788" s="15"/>
       <c r="C788" s="11">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D788" s="9">
         <v>21</v>
@@ -33366,7 +33366,7 @@
       </c>
       <c r="B789" s="15"/>
       <c r="C789" s="11">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D789" s="9">
         <v>21</v>
@@ -33403,7 +33403,7 @@
       </c>
       <c r="B790" s="15"/>
       <c r="C790" s="11">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D790" s="9">
         <v>21</v>
@@ -33440,7 +33440,7 @@
       </c>
       <c r="B791" s="15"/>
       <c r="C791" s="11">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D791" s="9">
         <v>21</v>
@@ -33477,7 +33477,7 @@
       </c>
       <c r="B792" s="15"/>
       <c r="C792" s="11">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D792" s="9">
         <v>21</v>
@@ -33514,7 +33514,7 @@
       </c>
       <c r="B793" s="15"/>
       <c r="C793" s="11">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D793" s="9">
         <v>21</v>
@@ -33551,7 +33551,7 @@
       </c>
       <c r="B794" s="15"/>
       <c r="C794" s="11">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D794" s="9">
         <v>21</v>
@@ -33588,7 +33588,7 @@
       </c>
       <c r="B795" s="15"/>
       <c r="C795" s="11">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D795" s="9">
         <v>21</v>
@@ -33625,7 +33625,7 @@
       </c>
       <c r="B796" s="15"/>
       <c r="C796" s="11">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D796" s="9">
         <v>21</v>
@@ -33662,7 +33662,7 @@
       </c>
       <c r="B797" s="15"/>
       <c r="C797" s="11">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D797" s="9">
         <v>21</v>
@@ -33699,7 +33699,7 @@
       </c>
       <c r="B798" s="15"/>
       <c r="C798" s="11">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D798" s="9">
         <v>21</v>
@@ -33736,7 +33736,7 @@
       </c>
       <c r="B799" s="15"/>
       <c r="C799" s="11">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D799" s="9">
         <v>21</v>
@@ -33773,7 +33773,7 @@
       </c>
       <c r="B800" s="15"/>
       <c r="C800" s="11">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D800" s="9">
         <v>21</v>
@@ -33810,7 +33810,7 @@
       </c>
       <c r="B801" s="15"/>
       <c r="C801" s="11">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D801" s="9">
         <v>21</v>
@@ -33847,7 +33847,7 @@
       </c>
       <c r="B802" s="15"/>
       <c r="C802" s="11">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D802" s="9">
         <v>21</v>
@@ -33884,7 +33884,7 @@
       </c>
       <c r="B803" s="15"/>
       <c r="C803" s="11">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D803" s="9">
         <v>21</v>
@@ -33921,7 +33921,7 @@
       </c>
       <c r="B804" s="15"/>
       <c r="C804" s="11">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D804" s="9">
         <v>21</v>
@@ -33958,7 +33958,7 @@
       </c>
       <c r="B805" s="15"/>
       <c r="C805" s="11">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D805" s="9">
         <v>21</v>
@@ -33995,7 +33995,7 @@
       </c>
       <c r="B806" s="15"/>
       <c r="C806" s="11">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D806" s="9">
         <v>21</v>
@@ -34034,7 +34034,7 @@
         <v>0</v>
       </c>
       <c r="C807" s="11">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D807" s="9">
         <v>21</v>
@@ -34073,7 +34073,7 @@
         <v>1</v>
       </c>
       <c r="C808" s="11">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D808" s="9">
         <v>21</v>
@@ -34102,7 +34102,7 @@
         <v>2</v>
       </c>
       <c r="C809" s="11">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D809" s="9">
         <v>21</v>
@@ -34131,7 +34131,7 @@
         <v>3</v>
       </c>
       <c r="C810" s="11">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D810" s="9">
         <v>21</v>
@@ -34160,7 +34160,7 @@
         <v>4</v>
       </c>
       <c r="C811" s="11">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D811" s="9">
         <v>21</v>
@@ -34189,7 +34189,7 @@
         <v>5</v>
       </c>
       <c r="C812" s="11">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D812" s="9">
         <v>21</v>
@@ -34218,7 +34218,7 @@
         <v>6</v>
       </c>
       <c r="C813" s="11">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D813" s="9">
         <v>21</v>
@@ -34247,7 +34247,7 @@
         <v>7</v>
       </c>
       <c r="C814" s="11">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D814" s="16">
         <v>21</v>
@@ -34276,7 +34276,7 @@
         <v>8</v>
       </c>
       <c r="C815" s="11">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D815" s="16">
         <v>21</v>
@@ -34305,7 +34305,7 @@
         <v>9</v>
       </c>
       <c r="C816" s="11">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D816" s="16">
         <v>21</v>
@@ -34334,7 +34334,7 @@
         <v>10</v>
       </c>
       <c r="C817" s="11">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D817" s="16">
         <v>21</v>
@@ -34363,7 +34363,7 @@
         <v>11</v>
       </c>
       <c r="C818" s="11">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D818" s="16">
         <v>21</v>
@@ -34392,7 +34392,7 @@
         <v>12</v>
       </c>
       <c r="C819" s="11">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D819" s="16">
         <v>21</v>
@@ -34421,7 +34421,7 @@
         <v>13</v>
       </c>
       <c r="C820" s="11">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D820" s="16">
         <v>21</v>

--- a/data/data_set_xx.xlsx
+++ b/data/data_set_xx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lab\Documents\GitHub\DSAI_HW1_ElectricityForecasting\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68724F93-FBCF-4920-B871-47AE31BE9439}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88818720-42C8-4EDD-96C5-A44A5FC40709}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -93,7 +93,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="d"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1141,12 +1141,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67E630ED-6963-4251-8D45-4AAB56483D5C}">
   <dimension ref="A1:M821"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A759" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A806" sqref="A793:XFD806"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A791" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A814" sqref="A814:XFD820"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.75" customWidth="1"/>
@@ -1162,7 +1162,7 @@
     <col min="13" max="13" width="14.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="12" customFormat="1">
       <c r="A1" s="13"/>
       <c r="B1" s="13"/>
       <c r="C1" s="11"/>
@@ -1197,7 +1197,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="2" customFormat="1">
       <c r="A3" s="15">
         <v>43467</v>
       </c>
@@ -1275,7 +1275,7 @@
         <v>28148</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="2" customFormat="1">
       <c r="A4" s="15">
         <v>43468</v>
       </c>
@@ -1316,7 +1316,7 @@
         <v>28452</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="2" customFormat="1">
       <c r="A5" s="15">
         <v>43469</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>28490</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" s="2" customFormat="1">
       <c r="A6" s="15">
         <v>43470</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>26054</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" s="2" customFormat="1">
       <c r="A7" s="15">
         <v>43471</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>24617</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="2" customFormat="1">
       <c r="A8" s="15">
         <v>43472</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>28536</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" s="2" customFormat="1">
       <c r="A9" s="15">
         <v>43473</v>
       </c>
@@ -1521,7 +1521,7 @@
         <v>28719</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" s="2" customFormat="1">
       <c r="A10" s="15">
         <v>43474</v>
       </c>
@@ -1562,7 +1562,7 @@
         <v>28641</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" s="2" customFormat="1">
       <c r="A11" s="15">
         <v>43475</v>
       </c>
@@ -1603,7 +1603,7 @@
         <v>29006</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" s="2" customFormat="1">
       <c r="A12" s="15">
         <v>43476</v>
       </c>
@@ -1644,7 +1644,7 @@
         <v>28798</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" s="2" customFormat="1">
       <c r="A13" s="15">
         <v>43477</v>
       </c>
@@ -1685,7 +1685,7 @@
         <v>25905</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" s="2" customFormat="1">
       <c r="A14" s="15">
         <v>43478</v>
       </c>
@@ -1726,7 +1726,7 @@
         <v>24629</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" s="2" customFormat="1">
       <c r="A15" s="15">
         <v>43479</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>28348</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" s="2" customFormat="1">
       <c r="A16" s="15">
         <v>43480</v>
       </c>
@@ -1808,7 +1808,7 @@
         <v>28887</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" s="2" customFormat="1">
       <c r="A17" s="15">
         <v>43481</v>
       </c>
@@ -1849,7 +1849,7 @@
         <v>28649</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" s="2" customFormat="1">
       <c r="A18" s="15">
         <v>43482</v>
       </c>
@@ -1890,7 +1890,7 @@
         <v>28395</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" s="2" customFormat="1">
       <c r="A19" s="15">
         <v>43483</v>
       </c>
@@ -1931,7 +1931,7 @@
         <v>27756</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" s="2" customFormat="1">
       <c r="A20" s="15">
         <v>43484</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>26477</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" s="2" customFormat="1">
       <c r="A21" s="15">
         <v>43485</v>
       </c>
@@ -2013,7 +2013,7 @@
         <v>24539</v>
       </c>
     </row>
-    <row r="22" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" s="2" customFormat="1">
       <c r="A22" s="15">
         <v>43486</v>
       </c>
@@ -2054,7 +2054,7 @@
         <v>27739</v>
       </c>
     </row>
-    <row r="23" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" s="2" customFormat="1">
       <c r="A23" s="15">
         <v>43487</v>
       </c>
@@ -2095,7 +2095,7 @@
         <v>28140</v>
       </c>
     </row>
-    <row r="24" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" s="2" customFormat="1">
       <c r="A24" s="15">
         <v>43488</v>
       </c>
@@ -2136,7 +2136,7 @@
         <v>27838</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" s="2" customFormat="1">
       <c r="A25" s="15">
         <v>43489</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>27863</v>
       </c>
     </row>
-    <row r="26" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" s="2" customFormat="1">
       <c r="A26" s="15">
         <v>43490</v>
       </c>
@@ -2218,7 +2218,7 @@
         <v>27296</v>
       </c>
     </row>
-    <row r="27" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" s="2" customFormat="1">
       <c r="A27" s="15">
         <v>43491</v>
       </c>
@@ -2259,7 +2259,7 @@
         <v>25282</v>
       </c>
     </row>
-    <row r="28" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" s="2" customFormat="1">
       <c r="A28" s="15">
         <v>43492</v>
       </c>
@@ -2300,7 +2300,7 @@
         <v>24414</v>
       </c>
     </row>
-    <row r="29" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" s="2" customFormat="1">
       <c r="A29" s="15">
         <v>43493</v>
       </c>
@@ -2341,7 +2341,7 @@
         <v>27557</v>
       </c>
     </row>
-    <row r="30" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" s="2" customFormat="1">
       <c r="A30" s="15">
         <v>43494</v>
       </c>
@@ -2382,7 +2382,7 @@
         <v>27858</v>
       </c>
     </row>
-    <row r="31" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" s="2" customFormat="1">
       <c r="A31" s="15">
         <v>43495</v>
       </c>
@@ -2423,7 +2423,7 @@
         <v>27760</v>
       </c>
     </row>
-    <row r="32" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" s="2" customFormat="1">
       <c r="A32" s="15">
         <v>43496</v>
       </c>
@@ -2464,7 +2464,7 @@
         <v>27181</v>
       </c>
     </row>
-    <row r="33" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" s="2" customFormat="1">
       <c r="A33" s="15">
         <v>43497</v>
       </c>
@@ -2505,7 +2505,7 @@
         <v>24709</v>
       </c>
     </row>
-    <row r="34" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" s="2" customFormat="1">
       <c r="A34" s="15">
         <v>43498</v>
       </c>
@@ -2546,7 +2546,7 @@
         <v>23382</v>
       </c>
     </row>
-    <row r="35" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" s="2" customFormat="1">
       <c r="A35" s="15">
         <v>43499</v>
       </c>
@@ -2587,7 +2587,7 @@
         <v>22915</v>
       </c>
     </row>
-    <row r="36" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" s="2" customFormat="1">
       <c r="A36" s="15">
         <v>43500</v>
       </c>
@@ -2628,7 +2628,7 @@
         <v>20214</v>
       </c>
     </row>
-    <row r="37" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" s="2" customFormat="1">
       <c r="A37" s="15">
         <v>43501</v>
       </c>
@@ -2669,7 +2669,7 @@
         <v>19992</v>
       </c>
     </row>
-    <row r="38" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" s="2" customFormat="1">
       <c r="A38" s="15">
         <v>43502</v>
       </c>
@@ -2710,7 +2710,7 @@
         <v>19936</v>
       </c>
     </row>
-    <row r="39" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" s="2" customFormat="1">
       <c r="A39" s="15">
         <v>43503</v>
       </c>
@@ -2751,7 +2751,7 @@
         <v>20938</v>
       </c>
     </row>
-    <row r="40" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" s="2" customFormat="1">
       <c r="A40" s="15">
         <v>43504</v>
       </c>
@@ -2792,7 +2792,7 @@
         <v>21581</v>
       </c>
     </row>
-    <row r="41" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" s="2" customFormat="1">
       <c r="A41" s="15">
         <v>43505</v>
       </c>
@@ -2833,7 +2833,7 @@
         <v>22436</v>
       </c>
     </row>
-    <row r="42" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" s="2" customFormat="1">
       <c r="A42" s="15">
         <v>43506</v>
       </c>
@@ -2874,7 +2874,7 @@
         <v>23236</v>
       </c>
     </row>
-    <row r="43" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" s="2" customFormat="1">
       <c r="A43" s="15">
         <v>43507</v>
       </c>
@@ -2915,7 +2915,7 @@
         <v>26667</v>
       </c>
     </row>
-    <row r="44" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" s="2" customFormat="1">
       <c r="A44" s="15">
         <v>43508</v>
       </c>
@@ -2956,7 +2956,7 @@
         <v>27768</v>
       </c>
     </row>
-    <row r="45" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" s="2" customFormat="1">
       <c r="A45" s="15">
         <v>43509</v>
       </c>
@@ -2997,7 +2997,7 @@
         <v>27699</v>
       </c>
     </row>
-    <row r="46" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" s="2" customFormat="1">
       <c r="A46" s="15">
         <v>43510</v>
       </c>
@@ -3038,7 +3038,7 @@
         <v>28250</v>
       </c>
     </row>
-    <row r="47" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" s="2" customFormat="1">
       <c r="A47" s="15">
         <v>43511</v>
       </c>
@@ -3079,7 +3079,7 @@
         <v>28262</v>
       </c>
     </row>
-    <row r="48" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" s="2" customFormat="1">
       <c r="A48" s="15">
         <v>43512</v>
       </c>
@@ -3120,7 +3120,7 @@
         <v>25432</v>
       </c>
     </row>
-    <row r="49" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" s="2" customFormat="1">
       <c r="A49" s="15">
         <v>43513</v>
       </c>
@@ -3161,7 +3161,7 @@
         <v>24343</v>
       </c>
     </row>
-    <row r="50" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" s="2" customFormat="1">
       <c r="A50" s="15">
         <v>43514</v>
       </c>
@@ -3202,7 +3202,7 @@
         <v>28645</v>
       </c>
     </row>
-    <row r="51" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" s="2" customFormat="1">
       <c r="A51" s="15">
         <v>43515</v>
       </c>
@@ -3243,7 +3243,7 @@
         <v>28876</v>
       </c>
     </row>
-    <row r="52" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" s="2" customFormat="1">
       <c r="A52" s="15">
         <v>43516</v>
       </c>
@@ -3284,7 +3284,7 @@
         <v>29078</v>
       </c>
     </row>
-    <row r="53" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" s="2" customFormat="1">
       <c r="A53" s="15">
         <v>43517</v>
       </c>
@@ -3325,7 +3325,7 @@
         <v>28912</v>
       </c>
     </row>
-    <row r="54" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" s="2" customFormat="1">
       <c r="A54" s="15">
         <v>43518</v>
       </c>
@@ -3366,7 +3366,7 @@
         <v>28420</v>
       </c>
     </row>
-    <row r="55" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" s="2" customFormat="1">
       <c r="A55" s="15">
         <v>43519</v>
       </c>
@@ -3407,7 +3407,7 @@
         <v>26723</v>
       </c>
     </row>
-    <row r="56" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" s="2" customFormat="1">
       <c r="A56" s="15">
         <v>43520</v>
       </c>
@@ -3448,7 +3448,7 @@
         <v>24694</v>
       </c>
     </row>
-    <row r="57" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" s="2" customFormat="1">
       <c r="A57" s="15">
         <v>43521</v>
       </c>
@@ -3489,7 +3489,7 @@
         <v>28084</v>
       </c>
     </row>
-    <row r="58" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" s="2" customFormat="1">
       <c r="A58" s="15">
         <v>43522</v>
       </c>
@@ -3530,7 +3530,7 @@
         <v>28390</v>
       </c>
     </row>
-    <row r="59" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" s="2" customFormat="1">
       <c r="A59" s="15">
         <v>43523</v>
       </c>
@@ -3571,7 +3571,7 @@
         <v>28013</v>
       </c>
     </row>
-    <row r="60" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" s="2" customFormat="1">
       <c r="A60" s="15">
         <v>43524</v>
       </c>
@@ -3612,7 +3612,7 @@
         <v>25472</v>
       </c>
     </row>
-    <row r="61" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" s="2" customFormat="1">
       <c r="A61" s="15">
         <v>43525</v>
       </c>
@@ -3653,7 +3653,7 @@
         <v>24689</v>
       </c>
     </row>
-    <row r="62" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" s="2" customFormat="1">
       <c r="A62" s="15">
         <v>43526</v>
       </c>
@@ -3694,7 +3694,7 @@
         <v>24734</v>
       </c>
     </row>
-    <row r="63" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" s="2" customFormat="1">
       <c r="A63" s="15">
         <v>43527</v>
       </c>
@@ -3735,7 +3735,7 @@
         <v>24102</v>
       </c>
     </row>
-    <row r="64" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" s="2" customFormat="1">
       <c r="A64" s="15">
         <v>43528</v>
       </c>
@@ -3776,7 +3776,7 @@
         <v>27688</v>
       </c>
     </row>
-    <row r="65" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" s="2" customFormat="1">
       <c r="A65" s="15">
         <v>43529</v>
       </c>
@@ -3817,7 +3817,7 @@
         <v>28241</v>
       </c>
     </row>
-    <row r="66" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" s="2" customFormat="1">
       <c r="A66" s="15">
         <v>43530</v>
       </c>
@@ -3858,7 +3858,7 @@
         <v>28032</v>
       </c>
     </row>
-    <row r="67" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" s="2" customFormat="1">
       <c r="A67" s="15">
         <v>43531</v>
       </c>
@@ -3899,7 +3899,7 @@
         <v>28147</v>
       </c>
     </row>
-    <row r="68" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" s="2" customFormat="1">
       <c r="A68" s="15">
         <v>43532</v>
       </c>
@@ -3940,7 +3940,7 @@
         <v>27951</v>
       </c>
     </row>
-    <row r="69" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" s="2" customFormat="1">
       <c r="A69" s="15">
         <v>43533</v>
       </c>
@@ -3981,7 +3981,7 @@
         <v>25870</v>
       </c>
     </row>
-    <row r="70" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" s="2" customFormat="1">
       <c r="A70" s="15">
         <v>43534</v>
       </c>
@@ -4022,7 +4022,7 @@
         <v>24801</v>
       </c>
     </row>
-    <row r="71" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" s="2" customFormat="1">
       <c r="A71" s="15">
         <v>43535</v>
       </c>
@@ -4063,7 +4063,7 @@
         <v>27730</v>
       </c>
     </row>
-    <row r="72" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" s="2" customFormat="1">
       <c r="A72" s="15">
         <v>43536</v>
       </c>
@@ -4104,7 +4104,7 @@
         <v>27936</v>
       </c>
     </row>
-    <row r="73" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" s="2" customFormat="1">
       <c r="A73" s="15">
         <v>43537</v>
       </c>
@@ -4145,7 +4145,7 @@
         <v>28145</v>
       </c>
     </row>
-    <row r="74" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" s="2" customFormat="1">
       <c r="A74" s="15">
         <v>43538</v>
       </c>
@@ -4186,7 +4186,7 @@
         <v>28417</v>
       </c>
     </row>
-    <row r="75" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" s="2" customFormat="1">
       <c r="A75" s="15">
         <v>43539</v>
       </c>
@@ -4227,7 +4227,7 @@
         <v>27757</v>
       </c>
     </row>
-    <row r="76" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" s="2" customFormat="1">
       <c r="A76" s="15">
         <v>43540</v>
       </c>
@@ -4268,7 +4268,7 @@
         <v>25318</v>
       </c>
     </row>
-    <row r="77" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" s="2" customFormat="1">
       <c r="A77" s="15">
         <v>43541</v>
       </c>
@@ -4309,7 +4309,7 @@
         <v>24681</v>
       </c>
     </row>
-    <row r="78" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" s="2" customFormat="1">
       <c r="A78" s="15">
         <v>43542</v>
       </c>
@@ -4350,7 +4350,7 @@
         <v>28338</v>
       </c>
     </row>
-    <row r="79" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" s="2" customFormat="1">
       <c r="A79" s="15">
         <v>43543</v>
       </c>
@@ -4391,7 +4391,7 @@
         <v>28882</v>
       </c>
     </row>
-    <row r="80" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" s="2" customFormat="1">
       <c r="A80" s="15">
         <v>43544</v>
       </c>
@@ -4432,7 +4432,7 @@
         <v>29645</v>
       </c>
     </row>
-    <row r="81" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" s="2" customFormat="1">
       <c r="A81" s="15">
         <v>43545</v>
       </c>
@@ -4473,7 +4473,7 @@
         <v>30343</v>
       </c>
     </row>
-    <row r="82" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" s="2" customFormat="1">
       <c r="A82" s="15">
         <v>43546</v>
       </c>
@@ -4514,7 +4514,7 @@
         <v>29618</v>
       </c>
     </row>
-    <row r="83" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" s="2" customFormat="1">
       <c r="A83" s="15">
         <v>43547</v>
       </c>
@@ -4555,7 +4555,7 @@
         <v>25265</v>
       </c>
     </row>
-    <row r="84" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" s="2" customFormat="1">
       <c r="A84" s="15">
         <v>43548</v>
       </c>
@@ -4596,7 +4596,7 @@
         <v>24812</v>
       </c>
     </row>
-    <row r="85" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" s="2" customFormat="1">
       <c r="A85" s="15">
         <v>43549</v>
       </c>
@@ -4637,7 +4637,7 @@
         <v>28535</v>
       </c>
     </row>
-    <row r="86" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" s="2" customFormat="1">
       <c r="A86" s="15">
         <v>43550</v>
       </c>
@@ -4678,7 +4678,7 @@
         <v>28756</v>
       </c>
     </row>
-    <row r="87" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" s="2" customFormat="1">
       <c r="A87" s="15">
         <v>43551</v>
       </c>
@@ -4719,7 +4719,7 @@
         <v>29140</v>
       </c>
     </row>
-    <row r="88" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" s="2" customFormat="1">
       <c r="A88" s="15">
         <v>43552</v>
       </c>
@@ -4760,7 +4760,7 @@
         <v>30093</v>
       </c>
     </row>
-    <row r="89" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" s="2" customFormat="1">
       <c r="A89" s="15">
         <v>43553</v>
       </c>
@@ -4801,7 +4801,7 @@
         <v>29673</v>
       </c>
     </row>
-    <row r="90" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" s="2" customFormat="1">
       <c r="A90" s="15">
         <v>43554</v>
       </c>
@@ -4842,7 +4842,7 @@
         <v>25810</v>
       </c>
     </row>
-    <row r="91" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" s="2" customFormat="1">
       <c r="A91" s="15">
         <v>43555</v>
       </c>
@@ -4883,7 +4883,7 @@
         <v>24466</v>
       </c>
     </row>
-    <row r="92" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" s="2" customFormat="1">
       <c r="A92" s="15">
         <v>43556</v>
       </c>
@@ -4924,7 +4924,7 @@
         <v>27842</v>
       </c>
     </row>
-    <row r="93" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" s="2" customFormat="1">
       <c r="A93" s="15">
         <v>43557</v>
       </c>
@@ -4965,7 +4965,7 @@
         <v>28359</v>
       </c>
     </row>
-    <row r="94" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" s="2" customFormat="1">
       <c r="A94" s="15">
         <v>43558</v>
       </c>
@@ -5006,7 +5006,7 @@
         <v>28483</v>
       </c>
     </row>
-    <row r="95" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" s="2" customFormat="1">
       <c r="A95" s="15">
         <v>43559</v>
       </c>
@@ -5047,7 +5047,7 @@
         <v>25663</v>
       </c>
     </row>
-    <row r="96" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" s="2" customFormat="1">
       <c r="A96" s="15">
         <v>43560</v>
       </c>
@@ -5088,7 +5088,7 @@
         <v>24542</v>
       </c>
     </row>
-    <row r="97" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" s="2" customFormat="1">
       <c r="A97" s="15">
         <v>43561</v>
       </c>
@@ -5129,7 +5129,7 @@
         <v>24966</v>
       </c>
     </row>
-    <row r="98" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" s="2" customFormat="1">
       <c r="A98" s="15">
         <v>43562</v>
       </c>
@@ -5170,7 +5170,7 @@
         <v>25240</v>
       </c>
     </row>
-    <row r="99" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" s="2" customFormat="1">
       <c r="A99" s="15">
         <v>43563</v>
       </c>
@@ -5211,7 +5211,7 @@
         <v>30399</v>
       </c>
     </row>
-    <row r="100" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" s="2" customFormat="1">
       <c r="A100" s="15">
         <v>43564</v>
       </c>
@@ -5252,7 +5252,7 @@
         <v>31532</v>
       </c>
     </row>
-    <row r="101" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" s="2" customFormat="1">
       <c r="A101" s="15">
         <v>43565</v>
       </c>
@@ -5293,7 +5293,7 @@
         <v>31709</v>
       </c>
     </row>
-    <row r="102" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" s="2" customFormat="1">
       <c r="A102" s="15">
         <v>43566</v>
       </c>
@@ -5334,7 +5334,7 @@
         <v>30541</v>
       </c>
     </row>
-    <row r="103" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" s="2" customFormat="1">
       <c r="A103" s="15">
         <v>43567</v>
       </c>
@@ -5375,7 +5375,7 @@
         <v>29035</v>
       </c>
     </row>
-    <row r="104" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" s="2" customFormat="1">
       <c r="A104" s="15">
         <v>43568</v>
       </c>
@@ -5416,7 +5416,7 @@
         <v>26446</v>
       </c>
     </row>
-    <row r="105" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" s="2" customFormat="1">
       <c r="A105" s="15">
         <v>43569</v>
       </c>
@@ -5457,7 +5457,7 @@
         <v>25537</v>
       </c>
     </row>
-    <row r="106" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" s="2" customFormat="1">
       <c r="A106" s="15">
         <v>43570</v>
       </c>
@@ -5498,7 +5498,7 @@
         <v>28749</v>
       </c>
     </row>
-    <row r="107" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" s="2" customFormat="1">
       <c r="A107" s="15">
         <v>43571</v>
       </c>
@@ -5539,7 +5539,7 @@
         <v>29017</v>
       </c>
     </row>
-    <row r="108" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" s="2" customFormat="1">
       <c r="A108" s="15">
         <v>43572</v>
       </c>
@@ -5580,7 +5580,7 @@
         <v>29565</v>
       </c>
     </row>
-    <row r="109" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" s="2" customFormat="1">
       <c r="A109" s="15">
         <v>43573</v>
       </c>
@@ -5621,7 +5621,7 @@
         <v>30335</v>
       </c>
     </row>
-    <row r="110" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" s="2" customFormat="1">
       <c r="A110" s="15">
         <v>43574</v>
       </c>
@@ -5662,7 +5662,7 @@
         <v>30748</v>
       </c>
     </row>
-    <row r="111" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" s="2" customFormat="1">
       <c r="A111" s="15">
         <v>43575</v>
       </c>
@@ -5703,7 +5703,7 @@
         <v>26910</v>
       </c>
     </row>
-    <row r="112" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" s="2" customFormat="1">
       <c r="A112" s="15">
         <v>43576</v>
       </c>
@@ -5744,7 +5744,7 @@
         <v>26306</v>
       </c>
     </row>
-    <row r="113" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" s="2" customFormat="1">
       <c r="A113" s="15">
         <v>43577</v>
       </c>
@@ -5785,7 +5785,7 @@
         <v>31955</v>
       </c>
     </row>
-    <row r="114" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" s="2" customFormat="1">
       <c r="A114" s="15">
         <v>43578</v>
       </c>
@@ -5826,7 +5826,7 @@
         <v>33181</v>
       </c>
     </row>
-    <row r="115" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" s="2" customFormat="1">
       <c r="A115" s="15">
         <v>43579</v>
       </c>
@@ -5867,7 +5867,7 @@
         <v>33263</v>
       </c>
     </row>
-    <row r="116" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" s="2" customFormat="1">
       <c r="A116" s="15">
         <v>43580</v>
       </c>
@@ -5908,7 +5908,7 @@
         <v>33134</v>
       </c>
     </row>
-    <row r="117" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" s="2" customFormat="1">
       <c r="A117" s="15">
         <v>43581</v>
       </c>
@@ -5949,7 +5949,7 @@
         <v>32664</v>
       </c>
     </row>
-    <row r="118" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" s="2" customFormat="1">
       <c r="A118" s="15">
         <v>43582</v>
       </c>
@@ -5990,7 +5990,7 @@
         <v>27376</v>
       </c>
     </row>
-    <row r="119" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" s="2" customFormat="1">
       <c r="A119" s="15">
         <v>43583</v>
       </c>
@@ -6031,7 +6031,7 @@
         <v>26948</v>
       </c>
     </row>
-    <row r="120" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" s="2" customFormat="1">
       <c r="A120" s="15">
         <v>43584</v>
       </c>
@@ -6072,7 +6072,7 @@
         <v>32847</v>
       </c>
     </row>
-    <row r="121" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" s="2" customFormat="1">
       <c r="A121" s="15">
         <v>43585</v>
       </c>
@@ -6113,7 +6113,7 @@
         <v>33099</v>
       </c>
     </row>
-    <row r="122" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" s="2" customFormat="1">
       <c r="A122" s="15">
         <v>43586</v>
       </c>
@@ -6154,7 +6154,7 @@
         <v>26826</v>
       </c>
     </row>
-    <row r="123" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" s="2" customFormat="1">
       <c r="A123" s="15">
         <v>43587</v>
       </c>
@@ -6195,7 +6195,7 @@
         <v>28690</v>
       </c>
     </row>
-    <row r="124" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" s="2" customFormat="1">
       <c r="A124" s="15">
         <v>43588</v>
       </c>
@@ -6236,7 +6236,7 @@
         <v>28315</v>
       </c>
     </row>
-    <row r="125" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" s="2" customFormat="1">
       <c r="A125" s="15">
         <v>43589</v>
       </c>
@@ -6277,7 +6277,7 @@
         <v>25819</v>
       </c>
     </row>
-    <row r="126" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" s="2" customFormat="1">
       <c r="A126" s="15">
         <v>43590</v>
       </c>
@@ -6318,7 +6318,7 @@
         <v>25336</v>
       </c>
     </row>
-    <row r="127" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" s="2" customFormat="1">
       <c r="A127" s="15">
         <v>43591</v>
       </c>
@@ -6359,7 +6359,7 @@
         <v>28615</v>
       </c>
     </row>
-    <row r="128" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" s="2" customFormat="1">
       <c r="A128" s="15">
         <v>43592</v>
       </c>
@@ -6400,7 +6400,7 @@
         <v>28472</v>
       </c>
     </row>
-    <row r="129" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" s="2" customFormat="1">
       <c r="A129" s="15">
         <v>43593</v>
       </c>
@@ -6441,7 +6441,7 @@
         <v>28968</v>
       </c>
     </row>
-    <row r="130" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" s="2" customFormat="1">
       <c r="A130" s="15">
         <v>43594</v>
       </c>
@@ -6482,7 +6482,7 @@
         <v>29229</v>
       </c>
     </row>
-    <row r="131" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" s="2" customFormat="1">
       <c r="A131" s="15">
         <v>43595</v>
       </c>
@@ -6523,7 +6523,7 @@
         <v>29571</v>
       </c>
     </row>
-    <row r="132" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" s="2" customFormat="1">
       <c r="A132" s="15">
         <v>43596</v>
       </c>
@@ -6564,7 +6564,7 @@
         <v>26576</v>
       </c>
     </row>
-    <row r="133" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" s="2" customFormat="1">
       <c r="A133" s="15">
         <v>43597</v>
       </c>
@@ -6605,7 +6605,7 @@
         <v>26484</v>
       </c>
     </row>
-    <row r="134" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" s="2" customFormat="1">
       <c r="A134" s="15">
         <v>43598</v>
       </c>
@@ -6646,7 +6646,7 @@
         <v>32135</v>
       </c>
     </row>
-    <row r="135" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" s="2" customFormat="1">
       <c r="A135" s="15">
         <v>43599</v>
       </c>
@@ -6687,7 +6687,7 @@
         <v>33144</v>
       </c>
     </row>
-    <row r="136" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" s="2" customFormat="1">
       <c r="A136" s="15">
         <v>43600</v>
       </c>
@@ -6728,7 +6728,7 @@
         <v>32896</v>
       </c>
     </row>
-    <row r="137" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" s="2" customFormat="1">
       <c r="A137" s="15">
         <v>43601</v>
       </c>
@@ -6769,7 +6769,7 @@
         <v>33307</v>
       </c>
     </row>
-    <row r="138" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" s="2" customFormat="1">
       <c r="A138" s="15">
         <v>43602</v>
       </c>
@@ -6810,7 +6810,7 @@
         <v>32316</v>
       </c>
     </row>
-    <row r="139" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" s="2" customFormat="1">
       <c r="A139" s="15">
         <v>43603</v>
       </c>
@@ -6851,7 +6851,7 @@
         <v>29523</v>
       </c>
     </row>
-    <row r="140" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" s="2" customFormat="1">
       <c r="A140" s="15">
         <v>43604</v>
       </c>
@@ -6892,7 +6892,7 @@
         <v>28977</v>
       </c>
     </row>
-    <row r="141" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" s="2" customFormat="1">
       <c r="A141" s="15">
         <v>43605</v>
       </c>
@@ -6933,7 +6933,7 @@
         <v>32213</v>
       </c>
     </row>
-    <row r="142" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" s="2" customFormat="1">
       <c r="A142" s="15">
         <v>43606</v>
       </c>
@@ -6974,7 +6974,7 @@
         <v>29978</v>
       </c>
     </row>
-    <row r="143" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" s="2" customFormat="1">
       <c r="A143" s="15">
         <v>43607</v>
       </c>
@@ -7015,7 +7015,7 @@
         <v>30150</v>
       </c>
     </row>
-    <row r="144" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" s="2" customFormat="1">
       <c r="A144" s="15">
         <v>43608</v>
       </c>
@@ -7056,7 +7056,7 @@
         <v>30430</v>
       </c>
     </row>
-    <row r="145" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" s="2" customFormat="1">
       <c r="A145" s="15">
         <v>43609</v>
       </c>
@@ -7097,7 +7097,7 @@
         <v>31548</v>
       </c>
     </row>
-    <row r="146" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" s="2" customFormat="1">
       <c r="A146" s="15">
         <v>43610</v>
       </c>
@@ -7138,7 +7138,7 @@
         <v>27810</v>
       </c>
     </row>
-    <row r="147" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" s="2" customFormat="1">
       <c r="A147" s="15">
         <v>43611</v>
       </c>
@@ -7179,7 +7179,7 @@
         <v>27905</v>
       </c>
     </row>
-    <row r="148" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" s="2" customFormat="1">
       <c r="A148" s="15">
         <v>43612</v>
       </c>
@@ -7220,7 +7220,7 @@
         <v>32521</v>
       </c>
     </row>
-    <row r="149" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" s="2" customFormat="1">
       <c r="A149" s="15">
         <v>43613</v>
       </c>
@@ -7261,7 +7261,7 @@
         <v>32242</v>
       </c>
     </row>
-    <row r="150" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" s="2" customFormat="1">
       <c r="A150" s="15">
         <v>43614</v>
       </c>
@@ -7302,7 +7302,7 @@
         <v>30319</v>
       </c>
     </row>
-    <row r="151" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" s="2" customFormat="1">
       <c r="A151" s="15">
         <v>43615</v>
       </c>
@@ -7343,7 +7343,7 @@
         <v>32116</v>
       </c>
     </row>
-    <row r="152" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" s="2" customFormat="1">
       <c r="A152" s="15">
         <v>43616</v>
       </c>
@@ -7384,7 +7384,7 @@
         <v>32971</v>
       </c>
     </row>
-    <row r="153" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" s="2" customFormat="1">
       <c r="A153" s="15">
         <v>43617</v>
       </c>
@@ -7425,7 +7425,7 @@
         <v>28860</v>
       </c>
     </row>
-    <row r="154" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" s="2" customFormat="1">
       <c r="A154" s="15">
         <v>43618</v>
       </c>
@@ -7466,7 +7466,7 @@
         <v>28856</v>
       </c>
     </row>
-    <row r="155" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" s="2" customFormat="1">
       <c r="A155" s="15">
         <v>43619</v>
       </c>
@@ -7507,7 +7507,7 @@
         <v>32958</v>
       </c>
     </row>
-    <row r="156" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" s="2" customFormat="1">
       <c r="A156" s="15">
         <v>43620</v>
       </c>
@@ -7548,7 +7548,7 @@
         <v>32409</v>
       </c>
     </row>
-    <row r="157" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" s="2" customFormat="1">
       <c r="A157" s="15">
         <v>43621</v>
       </c>
@@ -7589,7 +7589,7 @@
         <v>33916</v>
       </c>
     </row>
-    <row r="158" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" s="2" customFormat="1">
       <c r="A158" s="15">
         <v>43622</v>
       </c>
@@ -7630,7 +7630,7 @@
         <v>34889</v>
       </c>
     </row>
-    <row r="159" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" s="2" customFormat="1">
       <c r="A159" s="15">
         <v>43623</v>
       </c>
@@ -7671,7 +7671,7 @@
         <v>30068</v>
       </c>
     </row>
-    <row r="160" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" s="2" customFormat="1">
       <c r="A160" s="15">
         <v>43624</v>
       </c>
@@ -7712,7 +7712,7 @@
         <v>29548</v>
       </c>
     </row>
-    <row r="161" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" s="2" customFormat="1">
       <c r="A161" s="15">
         <v>43625</v>
       </c>
@@ -7753,7 +7753,7 @@
         <v>29408</v>
       </c>
     </row>
-    <row r="162" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" s="2" customFormat="1">
       <c r="A162" s="15">
         <v>43626</v>
       </c>
@@ -7794,7 +7794,7 @@
         <v>33355</v>
       </c>
     </row>
-    <row r="163" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" s="2" customFormat="1">
       <c r="A163" s="15">
         <v>43627</v>
       </c>
@@ -7835,7 +7835,7 @@
         <v>32126</v>
       </c>
     </row>
-    <row r="164" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" s="2" customFormat="1">
       <c r="A164" s="15">
         <v>43628</v>
       </c>
@@ -7876,7 +7876,7 @@
         <v>31095</v>
       </c>
     </row>
-    <row r="165" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" s="2" customFormat="1">
       <c r="A165" s="15">
         <v>43629</v>
       </c>
@@ -7917,7 +7917,7 @@
         <v>31680</v>
       </c>
     </row>
-    <row r="166" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" s="2" customFormat="1">
       <c r="A166" s="15">
         <v>43630</v>
       </c>
@@ -7958,7 +7958,7 @@
         <v>30877</v>
       </c>
     </row>
-    <row r="167" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" s="2" customFormat="1">
       <c r="A167" s="15">
         <v>43631</v>
       </c>
@@ -7999,7 +7999,7 @@
         <v>27686</v>
       </c>
     </row>
-    <row r="168" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" s="2" customFormat="1">
       <c r="A168" s="15">
         <v>43632</v>
       </c>
@@ -8040,7 +8040,7 @@
         <v>27673</v>
       </c>
     </row>
-    <row r="169" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" s="2" customFormat="1">
       <c r="A169" s="15">
         <v>43633</v>
       </c>
@@ -8081,7 +8081,7 @@
         <v>33703</v>
       </c>
     </row>
-    <row r="170" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" s="2" customFormat="1">
       <c r="A170" s="15">
         <v>43634</v>
       </c>
@@ -8122,7 +8122,7 @@
         <v>34739</v>
       </c>
     </row>
-    <row r="171" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" s="2" customFormat="1">
       <c r="A171" s="15">
         <v>43635</v>
       </c>
@@ -8163,7 +8163,7 @@
         <v>35601</v>
       </c>
     </row>
-    <row r="172" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" s="2" customFormat="1">
       <c r="A172" s="15">
         <v>43636</v>
       </c>
@@ -8204,7 +8204,7 @@
         <v>35959</v>
       </c>
     </row>
-    <row r="173" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" s="2" customFormat="1">
       <c r="A173" s="15">
         <v>43637</v>
       </c>
@@ -8245,7 +8245,7 @@
         <v>35928</v>
       </c>
     </row>
-    <row r="174" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" s="2" customFormat="1">
       <c r="A174" s="15">
         <v>43638</v>
       </c>
@@ -8286,7 +8286,7 @@
         <v>30923</v>
       </c>
     </row>
-    <row r="175" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" s="2" customFormat="1">
       <c r="A175" s="15">
         <v>43639</v>
       </c>
@@ -8327,7 +8327,7 @@
         <v>28305</v>
       </c>
     </row>
-    <row r="176" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" s="2" customFormat="1">
       <c r="A176" s="15">
         <v>43640</v>
       </c>
@@ -8368,7 +8368,7 @@
         <v>31688</v>
       </c>
     </row>
-    <row r="177" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13" s="2" customFormat="1">
       <c r="A177" s="15">
         <v>43641</v>
       </c>
@@ -8409,7 +8409,7 @@
         <v>33290</v>
       </c>
     </row>
-    <row r="178" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13" s="2" customFormat="1">
       <c r="A178" s="15">
         <v>43642</v>
       </c>
@@ -8450,7 +8450,7 @@
         <v>32816</v>
       </c>
     </row>
-    <row r="179" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:13" s="2" customFormat="1">
       <c r="A179" s="15">
         <v>43643</v>
       </c>
@@ -8491,7 +8491,7 @@
         <v>33465</v>
       </c>
     </row>
-    <row r="180" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13" s="2" customFormat="1">
       <c r="A180" s="15">
         <v>43644</v>
       </c>
@@ -8532,7 +8532,7 @@
         <v>34963</v>
       </c>
     </row>
-    <row r="181" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:13" s="2" customFormat="1">
       <c r="A181" s="15">
         <v>43645</v>
       </c>
@@ -8573,7 +8573,7 @@
         <v>30553</v>
       </c>
     </row>
-    <row r="182" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13" s="2" customFormat="1">
       <c r="A182" s="15">
         <v>43646</v>
       </c>
@@ -8614,7 +8614,7 @@
         <v>30083</v>
       </c>
     </row>
-    <row r="183" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:13" s="2" customFormat="1">
       <c r="A183" s="15">
         <v>43647</v>
       </c>
@@ -8655,7 +8655,7 @@
         <v>35215</v>
       </c>
     </row>
-    <row r="184" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:13" s="2" customFormat="1">
       <c r="A184" s="15">
         <v>43648</v>
       </c>
@@ -8696,7 +8696,7 @@
         <v>35052</v>
       </c>
     </row>
-    <row r="185" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13" s="2" customFormat="1">
       <c r="A185" s="15">
         <v>43649</v>
       </c>
@@ -8737,7 +8737,7 @@
         <v>33953</v>
       </c>
     </row>
-    <row r="186" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:13" s="2" customFormat="1">
       <c r="A186" s="15">
         <v>43650</v>
       </c>
@@ -8778,7 +8778,7 @@
         <v>34157</v>
       </c>
     </row>
-    <row r="187" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:13" s="2" customFormat="1">
       <c r="A187" s="15">
         <v>43651</v>
       </c>
@@ -8819,7 +8819,7 @@
         <v>33853</v>
       </c>
     </row>
-    <row r="188" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13" s="2" customFormat="1">
       <c r="A188" s="15">
         <v>43652</v>
       </c>
@@ -8860,7 +8860,7 @@
         <v>30014</v>
       </c>
     </row>
-    <row r="189" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13" s="2" customFormat="1">
       <c r="A189" s="15">
         <v>43653</v>
       </c>
@@ -8901,7 +8901,7 @@
         <v>29965</v>
       </c>
     </row>
-    <row r="190" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13" s="2" customFormat="1">
       <c r="A190" s="15">
         <v>43654</v>
       </c>
@@ -8942,7 +8942,7 @@
         <v>35166</v>
       </c>
     </row>
-    <row r="191" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:13" s="2" customFormat="1">
       <c r="A191" s="15">
         <v>43655</v>
       </c>
@@ -8983,7 +8983,7 @@
         <v>34886</v>
       </c>
     </row>
-    <row r="192" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13" s="2" customFormat="1">
       <c r="A192" s="15">
         <v>43656</v>
       </c>
@@ -9024,7 +9024,7 @@
         <v>35267</v>
       </c>
     </row>
-    <row r="193" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:13" s="2" customFormat="1">
       <c r="A193" s="15">
         <v>43657</v>
       </c>
@@ -9065,7 +9065,7 @@
         <v>34564</v>
       </c>
     </row>
-    <row r="194" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:13" s="2" customFormat="1">
       <c r="A194" s="15">
         <v>43658</v>
       </c>
@@ -9106,7 +9106,7 @@
         <v>35638</v>
       </c>
     </row>
-    <row r="195" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:13" s="2" customFormat="1">
       <c r="A195" s="15">
         <v>43659</v>
       </c>
@@ -9147,7 +9147,7 @@
         <v>31353</v>
       </c>
     </row>
-    <row r="196" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:13" s="2" customFormat="1">
       <c r="A196" s="15">
         <v>43660</v>
       </c>
@@ -9188,7 +9188,7 @@
         <v>30941</v>
       </c>
     </row>
-    <row r="197" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:13" s="2" customFormat="1">
       <c r="A197" s="15">
         <v>43661</v>
       </c>
@@ -9229,7 +9229,7 @@
         <v>36261</v>
       </c>
     </row>
-    <row r="198" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:13" s="2" customFormat="1">
       <c r="A198" s="15">
         <v>43662</v>
       </c>
@@ -9270,7 +9270,7 @@
         <v>36926</v>
       </c>
     </row>
-    <row r="199" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:13" s="2" customFormat="1">
       <c r="A199" s="15">
         <v>43663</v>
       </c>
@@ -9311,7 +9311,7 @@
         <v>37383</v>
       </c>
     </row>
-    <row r="200" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:13" s="2" customFormat="1">
       <c r="A200" s="15">
         <v>43664</v>
       </c>
@@ -9352,7 +9352,7 @@
         <v>35922</v>
       </c>
     </row>
-    <row r="201" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:13" s="2" customFormat="1">
       <c r="A201" s="15">
         <v>43665</v>
       </c>
@@ -9393,7 +9393,7 @@
         <v>35484</v>
       </c>
     </row>
-    <row r="202" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:13" s="2" customFormat="1">
       <c r="A202" s="15">
         <v>43666</v>
       </c>
@@ -9434,7 +9434,7 @@
         <v>30618</v>
       </c>
     </row>
-    <row r="203" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:13" s="2" customFormat="1">
       <c r="A203" s="15">
         <v>43667</v>
       </c>
@@ -9475,7 +9475,7 @@
         <v>29604</v>
       </c>
     </row>
-    <row r="204" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:13" s="2" customFormat="1">
       <c r="A204" s="15">
         <v>43668</v>
       </c>
@@ -9516,7 +9516,7 @@
         <v>34488</v>
       </c>
     </row>
-    <row r="205" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:13" s="2" customFormat="1">
       <c r="A205" s="15">
         <v>43669</v>
       </c>
@@ -9557,7 +9557,7 @@
         <v>35004</v>
       </c>
     </row>
-    <row r="206" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:13" s="2" customFormat="1">
       <c r="A206" s="15">
         <v>43670</v>
       </c>
@@ -9598,7 +9598,7 @@
         <v>35571</v>
       </c>
     </row>
-    <row r="207" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:13" s="2" customFormat="1">
       <c r="A207" s="15">
         <v>43671</v>
       </c>
@@ -9639,7 +9639,7 @@
         <v>35955</v>
       </c>
     </row>
-    <row r="208" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:13" s="2" customFormat="1">
       <c r="A208" s="15">
         <v>43672</v>
       </c>
@@ -9680,7 +9680,7 @@
         <v>36523</v>
       </c>
     </row>
-    <row r="209" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:13" s="2" customFormat="1">
       <c r="A209" s="15">
         <v>43673</v>
       </c>
@@ -9721,7 +9721,7 @@
         <v>31207</v>
       </c>
     </row>
-    <row r="210" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:13" s="2" customFormat="1">
       <c r="A210" s="15">
         <v>43674</v>
       </c>
@@ -9762,7 +9762,7 @@
         <v>29654</v>
       </c>
     </row>
-    <row r="211" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:13" s="2" customFormat="1">
       <c r="A211" s="15">
         <v>43675</v>
       </c>
@@ -9803,7 +9803,7 @@
         <v>35554</v>
       </c>
     </row>
-    <row r="212" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:13" s="2" customFormat="1">
       <c r="A212" s="15">
         <v>43676</v>
       </c>
@@ -9844,7 +9844,7 @@
         <v>36647</v>
       </c>
     </row>
-    <row r="213" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:13" s="2" customFormat="1">
       <c r="A213" s="15">
         <v>43677</v>
       </c>
@@ -9885,7 +9885,7 @@
         <v>36807</v>
       </c>
     </row>
-    <row r="214" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:13" s="2" customFormat="1">
       <c r="A214" s="15">
         <v>43678</v>
       </c>
@@ -9926,7 +9926,7 @@
         <v>36482</v>
       </c>
     </row>
-    <row r="215" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:13" s="2" customFormat="1">
       <c r="A215" s="15">
         <v>43679</v>
       </c>
@@ -9967,7 +9967,7 @@
         <v>35775</v>
       </c>
     </row>
-    <row r="216" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:13" s="2" customFormat="1">
       <c r="A216" s="15">
         <v>43680</v>
       </c>
@@ -10008,7 +10008,7 @@
         <v>31045</v>
       </c>
     </row>
-    <row r="217" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:13" s="2" customFormat="1">
       <c r="A217" s="15">
         <v>43681</v>
       </c>
@@ -10049,7 +10049,7 @@
         <v>31333</v>
       </c>
     </row>
-    <row r="218" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:13" s="2" customFormat="1">
       <c r="A218" s="15">
         <v>43682</v>
       </c>
@@ -10090,7 +10090,7 @@
         <v>36721</v>
       </c>
     </row>
-    <row r="219" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:13" s="2" customFormat="1">
       <c r="A219" s="15">
         <v>43683</v>
       </c>
@@ -10131,7 +10131,7 @@
         <v>36386</v>
       </c>
     </row>
-    <row r="220" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:13" s="2" customFormat="1">
       <c r="A220" s="15">
         <v>43684</v>
       </c>
@@ -10172,7 +10172,7 @@
         <v>36067</v>
       </c>
     </row>
-    <row r="221" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:13" s="2" customFormat="1">
       <c r="A221" s="15">
         <v>43685</v>
       </c>
@@ -10213,7 +10213,7 @@
         <v>36331</v>
       </c>
     </row>
-    <row r="222" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:13" s="2" customFormat="1">
       <c r="A222" s="15">
         <v>43686</v>
       </c>
@@ -10254,7 +10254,7 @@
         <v>30740</v>
       </c>
     </row>
-    <row r="223" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:13" s="2" customFormat="1">
       <c r="A223" s="15">
         <v>43687</v>
       </c>
@@ -10295,7 +10295,7 @@
         <v>31478</v>
       </c>
     </row>
-    <row r="224" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:13" s="2" customFormat="1">
       <c r="A224" s="15">
         <v>43688</v>
       </c>
@@ -10336,7 +10336,7 @@
         <v>31064</v>
       </c>
     </row>
-    <row r="225" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:13" s="2" customFormat="1">
       <c r="A225" s="15">
         <v>43689</v>
       </c>
@@ -10377,7 +10377,7 @@
         <v>34479</v>
       </c>
     </row>
-    <row r="226" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:13" s="2" customFormat="1">
       <c r="A226" s="15">
         <v>43690</v>
       </c>
@@ -10418,7 +10418,7 @@
         <v>33906</v>
       </c>
     </row>
-    <row r="227" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:13" s="2" customFormat="1">
       <c r="A227" s="15">
         <v>43691</v>
       </c>
@@ -10459,7 +10459,7 @@
         <v>36100</v>
       </c>
     </row>
-    <row r="228" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:13" s="2" customFormat="1">
       <c r="A228" s="15">
         <v>43692</v>
       </c>
@@ -10500,7 +10500,7 @@
         <v>34275</v>
       </c>
     </row>
-    <row r="229" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:13" s="2" customFormat="1">
       <c r="A229" s="15">
         <v>43693</v>
       </c>
@@ -10541,7 +10541,7 @@
         <v>34379</v>
       </c>
     </row>
-    <row r="230" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:13" s="2" customFormat="1">
       <c r="A230" s="15">
         <v>43694</v>
       </c>
@@ -10582,7 +10582,7 @@
         <v>30424</v>
       </c>
     </row>
-    <row r="231" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:13" s="2" customFormat="1">
       <c r="A231" s="15">
         <v>43695</v>
       </c>
@@ -10623,7 +10623,7 @@
         <v>28616</v>
       </c>
     </row>
-    <row r="232" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:13" s="2" customFormat="1">
       <c r="A232" s="15">
         <v>43696</v>
       </c>
@@ -10664,7 +10664,7 @@
         <v>32954</v>
       </c>
     </row>
-    <row r="233" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:13" s="2" customFormat="1">
       <c r="A233" s="15">
         <v>43697</v>
       </c>
@@ -10705,7 +10705,7 @@
         <v>33328</v>
       </c>
     </row>
-    <row r="234" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:13" s="2" customFormat="1">
       <c r="A234" s="15">
         <v>43698</v>
       </c>
@@ -10746,7 +10746,7 @@
         <v>33542</v>
       </c>
     </row>
-    <row r="235" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:13" s="2" customFormat="1">
       <c r="A235" s="15">
         <v>43699</v>
       </c>
@@ -10787,7 +10787,7 @@
         <v>34983</v>
       </c>
     </row>
-    <row r="236" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:13" s="2" customFormat="1">
       <c r="A236" s="15">
         <v>43700</v>
       </c>
@@ -10828,7 +10828,7 @@
         <v>35157</v>
       </c>
     </row>
-    <row r="237" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:13" s="2" customFormat="1">
       <c r="A237" s="15">
         <v>43701</v>
       </c>
@@ -10869,7 +10869,7 @@
         <v>28996</v>
       </c>
     </row>
-    <row r="238" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:13" s="2" customFormat="1">
       <c r="A238" s="15">
         <v>43702</v>
       </c>
@@ -10910,7 +10910,7 @@
         <v>28990</v>
       </c>
     </row>
-    <row r="239" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:13" s="2" customFormat="1">
       <c r="A239" s="15">
         <v>43703</v>
       </c>
@@ -10951,7 +10951,7 @@
         <v>35049</v>
       </c>
     </row>
-    <row r="240" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:13" s="2" customFormat="1">
       <c r="A240" s="15">
         <v>43704</v>
       </c>
@@ -10992,7 +10992,7 @@
         <v>35593</v>
       </c>
     </row>
-    <row r="241" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:13" s="2" customFormat="1">
       <c r="A241" s="15">
         <v>43705</v>
       </c>
@@ -11033,7 +11033,7 @@
         <v>36507</v>
       </c>
     </row>
-    <row r="242" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:13" s="2" customFormat="1">
       <c r="A242" s="15">
         <v>43706</v>
       </c>
@@ -11074,7 +11074,7 @@
         <v>36368</v>
       </c>
     </row>
-    <row r="243" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:13" s="2" customFormat="1">
       <c r="A243" s="15">
         <v>43707</v>
       </c>
@@ -11115,7 +11115,7 @@
         <v>34613</v>
       </c>
     </row>
-    <row r="244" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:13" s="2" customFormat="1">
       <c r="A244" s="15">
         <v>43708</v>
       </c>
@@ -11156,7 +11156,7 @@
         <v>30636</v>
       </c>
     </row>
-    <row r="245" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:13" s="2" customFormat="1">
       <c r="A245" s="15">
         <v>43709</v>
       </c>
@@ -11197,7 +11197,7 @@
         <v>29629</v>
       </c>
     </row>
-    <row r="246" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:13" s="2" customFormat="1">
       <c r="A246" s="15">
         <v>43710</v>
       </c>
@@ -11238,7 +11238,7 @@
         <v>35383</v>
       </c>
     </row>
-    <row r="247" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:13" s="2" customFormat="1">
       <c r="A247" s="15">
         <v>43711</v>
       </c>
@@ -11279,7 +11279,7 @@
         <v>35469</v>
       </c>
     </row>
-    <row r="248" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:13" s="2" customFormat="1">
       <c r="A248" s="15">
         <v>43712</v>
       </c>
@@ -11320,7 +11320,7 @@
         <v>33717</v>
       </c>
     </row>
-    <row r="249" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:13" s="2" customFormat="1">
       <c r="A249" s="15">
         <v>43713</v>
       </c>
@@ -11361,7 +11361,7 @@
         <v>33277</v>
       </c>
     </row>
-    <row r="250" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:13" s="2" customFormat="1">
       <c r="A250" s="15">
         <v>43714</v>
       </c>
@@ -11402,7 +11402,7 @@
         <v>34200</v>
       </c>
     </row>
-    <row r="251" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:13" s="2" customFormat="1">
       <c r="A251" s="15">
         <v>43715</v>
       </c>
@@ -11443,7 +11443,7 @@
         <v>30088</v>
       </c>
     </row>
-    <row r="252" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:13" s="2" customFormat="1">
       <c r="A252" s="15">
         <v>43716</v>
       </c>
@@ -11484,7 +11484,7 @@
         <v>29047</v>
       </c>
     </row>
-    <row r="253" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:13" s="2" customFormat="1">
       <c r="A253" s="15">
         <v>43717</v>
       </c>
@@ -11525,7 +11525,7 @@
         <v>34357</v>
       </c>
     </row>
-    <row r="254" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:13" s="2" customFormat="1">
       <c r="A254" s="15">
         <v>43718</v>
       </c>
@@ -11566,7 +11566,7 @@
         <v>34664</v>
       </c>
     </row>
-    <row r="255" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:13" s="2" customFormat="1">
       <c r="A255" s="15">
         <v>43719</v>
       </c>
@@ -11607,7 +11607,7 @@
         <v>35341</v>
       </c>
     </row>
-    <row r="256" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:13" s="2" customFormat="1">
       <c r="A256" s="15">
         <v>43720</v>
       </c>
@@ -11648,7 +11648,7 @@
         <v>35264</v>
       </c>
     </row>
-    <row r="257" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:13" s="2" customFormat="1">
       <c r="A257" s="15">
         <v>43721</v>
       </c>
@@ -11689,7 +11689,7 @@
         <v>29375</v>
       </c>
     </row>
-    <row r="258" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:13" s="2" customFormat="1">
       <c r="A258" s="15">
         <v>43722</v>
       </c>
@@ -11730,7 +11730,7 @@
         <v>28676</v>
       </c>
     </row>
-    <row r="259" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:13" s="2" customFormat="1">
       <c r="A259" s="15">
         <v>43723</v>
       </c>
@@ -11771,7 +11771,7 @@
         <v>28191</v>
       </c>
     </row>
-    <row r="260" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:13" s="2" customFormat="1">
       <c r="A260" s="15">
         <v>43724</v>
       </c>
@@ -11812,7 +11812,7 @@
         <v>33228</v>
       </c>
     </row>
-    <row r="261" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:13" s="2" customFormat="1">
       <c r="A261" s="15">
         <v>43725</v>
       </c>
@@ -11853,7 +11853,7 @@
         <v>32961</v>
       </c>
     </row>
-    <row r="262" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:13" s="2" customFormat="1">
       <c r="A262" s="15">
         <v>43726</v>
       </c>
@@ -11894,7 +11894,7 @@
         <v>32428</v>
       </c>
     </row>
-    <row r="263" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:13" s="2" customFormat="1">
       <c r="A263" s="15">
         <v>43727</v>
       </c>
@@ -11935,7 +11935,7 @@
         <v>31508</v>
       </c>
     </row>
-    <row r="264" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:13" s="2" customFormat="1">
       <c r="A264" s="15">
         <v>43728</v>
       </c>
@@ -11976,7 +11976,7 @@
         <v>30594</v>
       </c>
     </row>
-    <row r="265" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:13" s="2" customFormat="1">
       <c r="A265" s="15">
         <v>43729</v>
       </c>
@@ -12017,7 +12017,7 @@
         <v>26460</v>
       </c>
     </row>
-    <row r="266" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:13" s="2" customFormat="1">
       <c r="A266" s="15">
         <v>43730</v>
       </c>
@@ -12058,7 +12058,7 @@
         <v>25836</v>
       </c>
     </row>
-    <row r="267" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:13" s="2" customFormat="1">
       <c r="A267" s="15">
         <v>43731</v>
       </c>
@@ -12099,7 +12099,7 @@
         <v>29947</v>
       </c>
     </row>
-    <row r="268" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:13" s="2" customFormat="1">
       <c r="A268" s="15">
         <v>43732</v>
       </c>
@@ -12140,7 +12140,7 @@
         <v>30106</v>
       </c>
     </row>
-    <row r="269" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:13" s="2" customFormat="1">
       <c r="A269" s="15">
         <v>43733</v>
       </c>
@@ -12181,7 +12181,7 @@
         <v>30709</v>
       </c>
     </row>
-    <row r="270" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:13" s="2" customFormat="1">
       <c r="A270" s="15">
         <v>43734</v>
       </c>
@@ -12222,7 +12222,7 @@
         <v>31162</v>
       </c>
     </row>
-    <row r="271" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:13" s="2" customFormat="1">
       <c r="A271" s="15">
         <v>43735</v>
       </c>
@@ -12263,7 +12263,7 @@
         <v>31255</v>
       </c>
     </row>
-    <row r="272" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:13" s="2" customFormat="1">
       <c r="A272" s="15">
         <v>43736</v>
       </c>
@@ -12304,7 +12304,7 @@
         <v>28161</v>
       </c>
     </row>
-    <row r="273" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:13" s="2" customFormat="1">
       <c r="A273" s="15">
         <v>43737</v>
       </c>
@@ -12345,7 +12345,7 @@
         <v>27926</v>
       </c>
     </row>
-    <row r="274" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:13" s="2" customFormat="1">
       <c r="A274" s="15">
         <v>43738</v>
       </c>
@@ -12386,7 +12386,7 @@
         <v>28505</v>
       </c>
     </row>
-    <row r="275" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:13" s="2" customFormat="1">
       <c r="A275" s="15">
         <v>43739</v>
       </c>
@@ -12427,7 +12427,7 @@
         <v>31917</v>
       </c>
     </row>
-    <row r="276" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:13" s="2" customFormat="1">
       <c r="A276" s="15">
         <v>43740</v>
       </c>
@@ -12468,7 +12468,7 @@
         <v>33316</v>
       </c>
     </row>
-    <row r="277" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:13" s="2" customFormat="1">
       <c r="A277" s="15">
         <v>43741</v>
       </c>
@@ -12509,7 +12509,7 @@
         <v>33699</v>
       </c>
     </row>
-    <row r="278" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:13" s="2" customFormat="1">
       <c r="A278" s="15">
         <v>43742</v>
       </c>
@@ -12550,7 +12550,7 @@
         <v>33670</v>
       </c>
     </row>
-    <row r="279" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:13" s="2" customFormat="1">
       <c r="A279" s="15">
         <v>43743</v>
       </c>
@@ -12591,7 +12591,7 @@
         <v>32451</v>
       </c>
     </row>
-    <row r="280" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:13" s="2" customFormat="1">
       <c r="A280" s="15">
         <v>43744</v>
       </c>
@@ -12632,7 +12632,7 @@
         <v>28030</v>
       </c>
     </row>
-    <row r="281" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:13" s="2" customFormat="1">
       <c r="A281" s="15">
         <v>43745</v>
       </c>
@@ -12673,7 +12673,7 @@
         <v>32889</v>
       </c>
     </row>
-    <row r="282" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:13" s="2" customFormat="1">
       <c r="A282" s="15">
         <v>43746</v>
       </c>
@@ -12714,7 +12714,7 @@
         <v>32938</v>
       </c>
     </row>
-    <row r="283" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:13" s="2" customFormat="1">
       <c r="A283" s="15">
         <v>43747</v>
       </c>
@@ -12755,7 +12755,7 @@
         <v>32345</v>
       </c>
     </row>
-    <row r="284" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:13" s="2" customFormat="1">
       <c r="A284" s="15">
         <v>43748</v>
       </c>
@@ -12796,7 +12796,7 @@
         <v>27817</v>
       </c>
     </row>
-    <row r="285" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:13" s="2" customFormat="1">
       <c r="A285" s="15">
         <v>43749</v>
       </c>
@@ -12837,7 +12837,7 @@
         <v>27177</v>
       </c>
     </row>
-    <row r="286" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:13" s="2" customFormat="1">
       <c r="A286" s="15">
         <v>43750</v>
       </c>
@@ -12878,7 +12878,7 @@
         <v>26962</v>
       </c>
     </row>
-    <row r="287" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:13" s="2" customFormat="1">
       <c r="A287" s="15">
         <v>43751</v>
       </c>
@@ -12919,7 +12919,7 @@
         <v>26364</v>
       </c>
     </row>
-    <row r="288" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:13" s="2" customFormat="1">
       <c r="A288" s="15">
         <v>43752</v>
       </c>
@@ -12960,7 +12960,7 @@
         <v>30884</v>
       </c>
     </row>
-    <row r="289" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:13" s="2" customFormat="1">
       <c r="A289" s="15">
         <v>43753</v>
       </c>
@@ -13001,7 +13001,7 @@
         <v>30530</v>
       </c>
     </row>
-    <row r="290" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:13" s="2" customFormat="1">
       <c r="A290" s="15">
         <v>43754</v>
       </c>
@@ -13042,7 +13042,7 @@
         <v>30329</v>
       </c>
     </row>
-    <row r="291" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:13" s="2" customFormat="1">
       <c r="A291" s="15">
         <v>43755</v>
       </c>
@@ -13083,7 +13083,7 @@
         <v>30179</v>
       </c>
     </row>
-    <row r="292" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:13" s="2" customFormat="1">
       <c r="A292" s="15">
         <v>43756</v>
       </c>
@@ -13124,7 +13124,7 @@
         <v>30172</v>
       </c>
     </row>
-    <row r="293" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:13" s="2" customFormat="1">
       <c r="A293" s="15">
         <v>43757</v>
       </c>
@@ -13165,7 +13165,7 @@
         <v>26430</v>
       </c>
     </row>
-    <row r="294" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:13" s="2" customFormat="1">
       <c r="A294" s="15">
         <v>43758</v>
       </c>
@@ -13206,7 +13206,7 @@
         <v>25233</v>
       </c>
     </row>
-    <row r="295" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:13" s="2" customFormat="1">
       <c r="A295" s="15">
         <v>43759</v>
       </c>
@@ -13247,7 +13247,7 @@
         <v>29219</v>
       </c>
     </row>
-    <row r="296" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:13" s="2" customFormat="1">
       <c r="A296" s="15">
         <v>43760</v>
       </c>
@@ -13288,7 +13288,7 @@
         <v>30037</v>
       </c>
     </row>
-    <row r="297" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:13" s="2" customFormat="1">
       <c r="A297" s="15">
         <v>43761</v>
       </c>
@@ -13329,7 +13329,7 @@
         <v>30286</v>
       </c>
     </row>
-    <row r="298" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:13" s="2" customFormat="1">
       <c r="A298" s="15">
         <v>43762</v>
       </c>
@@ -13370,7 +13370,7 @@
         <v>30343</v>
       </c>
     </row>
-    <row r="299" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:13" s="2" customFormat="1">
       <c r="A299" s="15">
         <v>43763</v>
       </c>
@@ -13411,7 +13411,7 @@
         <v>30131</v>
       </c>
     </row>
-    <row r="300" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:13" s="2" customFormat="1">
       <c r="A300" s="15">
         <v>43764</v>
       </c>
@@ -13452,7 +13452,7 @@
         <v>26498</v>
       </c>
     </row>
-    <row r="301" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:13" s="2" customFormat="1">
       <c r="A301" s="15">
         <v>43765</v>
       </c>
@@ -13493,7 +13493,7 @@
         <v>25725</v>
       </c>
     </row>
-    <row r="302" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:13" s="2" customFormat="1">
       <c r="A302" s="15">
         <v>43766</v>
       </c>
@@ -13534,7 +13534,7 @@
         <v>30207</v>
       </c>
     </row>
-    <row r="303" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:13" s="2" customFormat="1">
       <c r="A303" s="15">
         <v>43767</v>
       </c>
@@ -13575,7 +13575,7 @@
         <v>29624</v>
       </c>
     </row>
-    <row r="304" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:13" s="2" customFormat="1">
       <c r="A304" s="15">
         <v>43768</v>
       </c>
@@ -13616,7 +13616,7 @@
         <v>29714</v>
       </c>
     </row>
-    <row r="305" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:13" s="2" customFormat="1">
       <c r="A305" s="15">
         <v>43769</v>
       </c>
@@ -13657,7 +13657,7 @@
         <v>30080</v>
       </c>
     </row>
-    <row r="306" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:13" s="2" customFormat="1">
       <c r="A306" s="15">
         <v>43770</v>
       </c>
@@ -13698,7 +13698,7 @@
         <v>30331</v>
       </c>
     </row>
-    <row r="307" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:13" s="2" customFormat="1">
       <c r="A307" s="15">
         <v>43771</v>
       </c>
@@ -13739,7 +13739,7 @@
         <v>26705</v>
       </c>
     </row>
-    <row r="308" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:13" s="2" customFormat="1">
       <c r="A308" s="15">
         <v>43772</v>
       </c>
@@ -13780,7 +13780,7 @@
         <v>25745</v>
       </c>
     </row>
-    <row r="309" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:13" s="2" customFormat="1">
       <c r="A309" s="15">
         <v>43773</v>
       </c>
@@ -13821,7 +13821,7 @@
         <v>29192</v>
       </c>
     </row>
-    <row r="310" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:13" s="2" customFormat="1">
       <c r="A310" s="15">
         <v>43774</v>
       </c>
@@ -13862,7 +13862,7 @@
         <v>29247</v>
       </c>
     </row>
-    <row r="311" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:13" s="2" customFormat="1">
       <c r="A311" s="15">
         <v>43775</v>
       </c>
@@ -13903,7 +13903,7 @@
         <v>29422</v>
       </c>
     </row>
-    <row r="312" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:13" s="2" customFormat="1">
       <c r="A312" s="15">
         <v>43776</v>
       </c>
@@ -13944,7 +13944,7 @@
         <v>29601</v>
       </c>
     </row>
-    <row r="313" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:13" s="2" customFormat="1">
       <c r="A313" s="15">
         <v>43777</v>
       </c>
@@ -13985,7 +13985,7 @@
         <v>28900</v>
       </c>
     </row>
-    <row r="314" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:13" s="2" customFormat="1">
       <c r="A314" s="15">
         <v>43778</v>
       </c>
@@ -14026,7 +14026,7 @@
         <v>25900</v>
       </c>
     </row>
-    <row r="315" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:13" s="2" customFormat="1">
       <c r="A315" s="15">
         <v>43779</v>
       </c>
@@ -14067,7 +14067,7 @@
         <v>24716</v>
       </c>
     </row>
-    <row r="316" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:13" s="2" customFormat="1">
       <c r="A316" s="15">
         <v>43780</v>
       </c>
@@ -14108,7 +14108,7 @@
         <v>28620</v>
       </c>
     </row>
-    <row r="317" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:13" s="2" customFormat="1">
       <c r="A317" s="15">
         <v>43781</v>
       </c>
@@ -14149,7 +14149,7 @@
         <v>29305</v>
       </c>
     </row>
-    <row r="318" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:13" s="2" customFormat="1">
       <c r="A318" s="15">
         <v>43782</v>
       </c>
@@ -14190,7 +14190,7 @@
         <v>29360</v>
       </c>
     </row>
-    <row r="319" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:13" s="2" customFormat="1">
       <c r="A319" s="15">
         <v>43783</v>
       </c>
@@ -14231,7 +14231,7 @@
         <v>28953</v>
       </c>
     </row>
-    <row r="320" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:13" s="2" customFormat="1">
       <c r="A320" s="15">
         <v>43784</v>
       </c>
@@ -14272,7 +14272,7 @@
         <v>28764</v>
       </c>
     </row>
-    <row r="321" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:13" s="2" customFormat="1">
       <c r="A321" s="15">
         <v>43785</v>
       </c>
@@ -14313,7 +14313,7 @@
         <v>26075</v>
       </c>
     </row>
-    <row r="322" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:13" s="2" customFormat="1">
       <c r="A322" s="15">
         <v>43786</v>
       </c>
@@ -14354,7 +14354,7 @@
         <v>25366</v>
       </c>
     </row>
-    <row r="323" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:13" s="2" customFormat="1">
       <c r="A323" s="15">
         <v>43787</v>
       </c>
@@ -14395,7 +14395,7 @@
         <v>29306</v>
       </c>
     </row>
-    <row r="324" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:13" s="2" customFormat="1">
       <c r="A324" s="15">
         <v>43788</v>
       </c>
@@ -14436,7 +14436,7 @@
         <v>28743</v>
       </c>
     </row>
-    <row r="325" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:13" s="2" customFormat="1">
       <c r="A325" s="15">
         <v>43789</v>
       </c>
@@ -14477,7 +14477,7 @@
         <v>28935</v>
       </c>
     </row>
-    <row r="326" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:13" s="2" customFormat="1">
       <c r="A326" s="15">
         <v>43790</v>
       </c>
@@ -14518,7 +14518,7 @@
         <v>29520</v>
       </c>
     </row>
-    <row r="327" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:13" s="2" customFormat="1">
       <c r="A327" s="15">
         <v>43791</v>
       </c>
@@ -14559,7 +14559,7 @@
         <v>29500</v>
       </c>
     </row>
-    <row r="328" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:13" s="2" customFormat="1">
       <c r="A328" s="15">
         <v>43792</v>
       </c>
@@ -14600,7 +14600,7 @@
         <v>26796</v>
       </c>
     </row>
-    <row r="329" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:13" s="2" customFormat="1">
       <c r="A329" s="15">
         <v>43793</v>
       </c>
@@ -14641,7 +14641,7 @@
         <v>25584</v>
       </c>
     </row>
-    <row r="330" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:13" s="2" customFormat="1">
       <c r="A330" s="15">
         <v>43794</v>
       </c>
@@ -14682,7 +14682,7 @@
         <v>29340</v>
       </c>
     </row>
-    <row r="331" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:13" s="2" customFormat="1">
       <c r="A331" s="15">
         <v>43795</v>
       </c>
@@ -14723,7 +14723,7 @@
         <v>29285</v>
       </c>
     </row>
-    <row r="332" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:13" s="2" customFormat="1">
       <c r="A332" s="15">
         <v>43796</v>
       </c>
@@ -14764,7 +14764,7 @@
         <v>29312</v>
       </c>
     </row>
-    <row r="333" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:13" s="2" customFormat="1">
       <c r="A333" s="15">
         <v>43797</v>
       </c>
@@ -14805,7 +14805,7 @@
         <v>28610</v>
       </c>
     </row>
-    <row r="334" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:13" s="2" customFormat="1">
       <c r="A334" s="15">
         <v>43798</v>
       </c>
@@ -14846,7 +14846,7 @@
         <v>28472</v>
       </c>
     </row>
-    <row r="335" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:13" s="2" customFormat="1">
       <c r="A335" s="15">
         <v>43799</v>
       </c>
@@ -14887,7 +14887,7 @@
         <v>25855</v>
       </c>
     </row>
-    <row r="336" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:13" s="2" customFormat="1">
       <c r="A336" s="15">
         <v>43800</v>
       </c>
@@ -14928,7 +14928,7 @@
         <v>24836</v>
       </c>
     </row>
-    <row r="337" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:13" s="2" customFormat="1">
       <c r="A337" s="15">
         <v>43801</v>
       </c>
@@ -14969,7 +14969,7 @@
         <v>27936</v>
       </c>
     </row>
-    <row r="338" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:13" s="2" customFormat="1">
       <c r="A338" s="15">
         <v>43802</v>
       </c>
@@ -15010,7 +15010,7 @@
         <v>28157</v>
       </c>
     </row>
-    <row r="339" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:13" s="2" customFormat="1">
       <c r="A339" s="15">
         <v>43803</v>
       </c>
@@ -15051,7 +15051,7 @@
         <v>28474</v>
       </c>
     </row>
-    <row r="340" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:13" s="2" customFormat="1">
       <c r="A340" s="15">
         <v>43804</v>
       </c>
@@ -15092,7 +15092,7 @@
         <v>28706</v>
       </c>
     </row>
-    <row r="341" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:13" s="2" customFormat="1">
       <c r="A341" s="15">
         <v>43805</v>
       </c>
@@ -15133,7 +15133,7 @@
         <v>28563</v>
       </c>
     </row>
-    <row r="342" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:13" s="2" customFormat="1">
       <c r="A342" s="15">
         <v>43806</v>
       </c>
@@ -15174,7 +15174,7 @@
         <v>25824</v>
       </c>
     </row>
-    <row r="343" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:13" s="2" customFormat="1">
       <c r="A343" s="15">
         <v>43807</v>
       </c>
@@ -15215,7 +15215,7 @@
         <v>24750</v>
       </c>
     </row>
-    <row r="344" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:13" s="2" customFormat="1">
       <c r="A344" s="15">
         <v>43808</v>
       </c>
@@ -15256,7 +15256,7 @@
         <v>28207</v>
       </c>
     </row>
-    <row r="345" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:13" s="2" customFormat="1">
       <c r="A345" s="15">
         <v>43809</v>
       </c>
@@ -15297,7 +15297,7 @@
         <v>28456</v>
       </c>
     </row>
-    <row r="346" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:13" s="2" customFormat="1">
       <c r="A346" s="15">
         <v>43810</v>
       </c>
@@ -15338,7 +15338,7 @@
         <v>28397</v>
       </c>
     </row>
-    <row r="347" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:13" s="2" customFormat="1">
       <c r="A347" s="15">
         <v>43811</v>
       </c>
@@ -15379,7 +15379,7 @@
         <v>28422</v>
       </c>
     </row>
-    <row r="348" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:13" s="2" customFormat="1">
       <c r="A348" s="15">
         <v>43812</v>
       </c>
@@ -15420,7 +15420,7 @@
         <v>28370</v>
       </c>
     </row>
-    <row r="349" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:13" s="2" customFormat="1">
       <c r="A349" s="15">
         <v>43813</v>
       </c>
@@ -15461,7 +15461,7 @@
         <v>25676</v>
       </c>
     </row>
-    <row r="350" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:13" s="2" customFormat="1">
       <c r="A350" s="15">
         <v>43814</v>
       </c>
@@ -15502,7 +15502,7 @@
         <v>24717</v>
       </c>
     </row>
-    <row r="351" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:13" s="2" customFormat="1">
       <c r="A351" s="15">
         <v>43815</v>
       </c>
@@ -15543,7 +15543,7 @@
         <v>28851</v>
       </c>
     </row>
-    <row r="352" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:13" s="2" customFormat="1">
       <c r="A352" s="15">
         <v>43816</v>
       </c>
@@ -15584,7 +15584,7 @@
         <v>29234</v>
       </c>
     </row>
-    <row r="353" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:13" s="2" customFormat="1">
       <c r="A353" s="15">
         <v>43817</v>
       </c>
@@ -15625,7 +15625,7 @@
         <v>29085</v>
       </c>
     </row>
-    <row r="354" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:13" s="2" customFormat="1">
       <c r="A354" s="15">
         <v>43818</v>
       </c>
@@ -15666,7 +15666,7 @@
         <v>28952</v>
       </c>
     </row>
-    <row r="355" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:13" s="2" customFormat="1">
       <c r="A355" s="15">
         <v>43819</v>
       </c>
@@ -15707,7 +15707,7 @@
         <v>28581</v>
       </c>
     </row>
-    <row r="356" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:13" s="2" customFormat="1">
       <c r="A356" s="15">
         <v>43820</v>
       </c>
@@ -15748,7 +15748,7 @@
         <v>26352</v>
       </c>
     </row>
-    <row r="357" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:13" s="2" customFormat="1">
       <c r="A357" s="15">
         <v>43821</v>
       </c>
@@ -15789,7 +15789,7 @@
         <v>25115</v>
       </c>
     </row>
-    <row r="358" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:13" s="2" customFormat="1">
       <c r="A358" s="15">
         <v>43822</v>
       </c>
@@ -15830,7 +15830,7 @@
         <v>28787</v>
       </c>
     </row>
-    <row r="359" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:13" s="2" customFormat="1">
       <c r="A359" s="15">
         <v>43823</v>
       </c>
@@ -15871,7 +15871,7 @@
         <v>28996</v>
       </c>
     </row>
-    <row r="360" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:13" s="2" customFormat="1">
       <c r="A360" s="15">
         <v>43824</v>
       </c>
@@ -15912,7 +15912,7 @@
         <v>28965</v>
       </c>
     </row>
-    <row r="361" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:13" s="2" customFormat="1">
       <c r="A361" s="15">
         <v>43825</v>
       </c>
@@ -15953,7 +15953,7 @@
         <v>28955</v>
       </c>
     </row>
-    <row r="362" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:13" s="2" customFormat="1">
       <c r="A362" s="15">
         <v>43826</v>
       </c>
@@ -15994,7 +15994,7 @@
         <v>27867</v>
       </c>
     </row>
-    <row r="363" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:13" s="2" customFormat="1">
       <c r="A363" s="15">
         <v>43827</v>
       </c>
@@ -16035,7 +16035,7 @@
         <v>25349</v>
       </c>
     </row>
-    <row r="364" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:13" s="2" customFormat="1">
       <c r="A364" s="15">
         <v>43828</v>
       </c>
@@ -16076,7 +16076,7 @@
         <v>24989</v>
       </c>
     </row>
-    <row r="365" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:13" s="2" customFormat="1">
       <c r="A365" s="15">
         <v>43829</v>
       </c>
@@ -16117,7 +16117,7 @@
         <v>27991</v>
       </c>
     </row>
-    <row r="366" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:13" s="2" customFormat="1">
       <c r="A366" s="15">
         <v>43830</v>
       </c>
@@ -16158,7 +16158,7 @@
         <v>27364</v>
       </c>
     </row>
-    <row r="367" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:13" s="2" customFormat="1">
       <c r="A367" s="15">
         <v>43831</v>
       </c>
@@ -16199,7 +16199,7 @@
         <v>25335</v>
       </c>
     </row>
-    <row r="368" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:13" s="2" customFormat="1">
       <c r="A368" s="15">
         <v>43832</v>
       </c>
@@ -16240,7 +16240,7 @@
         <v>28223</v>
       </c>
     </row>
-    <row r="369" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:13" s="2" customFormat="1">
       <c r="A369" s="15">
         <v>43833</v>
       </c>
@@ -16281,7 +16281,7 @@
         <v>28292</v>
       </c>
     </row>
-    <row r="370" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:13" s="2" customFormat="1">
       <c r="A370" s="15">
         <v>43834</v>
       </c>
@@ -16322,7 +16322,7 @@
         <v>25583</v>
       </c>
     </row>
-    <row r="371" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:13" s="2" customFormat="1">
       <c r="A371" s="15">
         <v>43835</v>
       </c>
@@ -16363,7 +16363,7 @@
         <v>24761</v>
       </c>
     </row>
-    <row r="372" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:13" s="2" customFormat="1">
       <c r="A372" s="15">
         <v>43836</v>
       </c>
@@ -16404,7 +16404,7 @@
         <v>28644</v>
       </c>
     </row>
-    <row r="373" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:13" s="2" customFormat="1">
       <c r="A373" s="15">
         <v>43837</v>
       </c>
@@ -16445,7 +16445,7 @@
         <v>29144</v>
       </c>
     </row>
-    <row r="374" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:13" s="2" customFormat="1">
       <c r="A374" s="15">
         <v>43838</v>
       </c>
@@ -16486,7 +16486,7 @@
         <v>28544</v>
       </c>
     </row>
-    <row r="375" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:13" s="2" customFormat="1">
       <c r="A375" s="15">
         <v>43839</v>
       </c>
@@ -16527,7 +16527,7 @@
         <v>28730</v>
       </c>
     </row>
-    <row r="376" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:13" s="2" customFormat="1">
       <c r="A376" s="15">
         <v>43840</v>
       </c>
@@ -16568,7 +16568,7 @@
         <v>28476</v>
       </c>
     </row>
-    <row r="377" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:13" s="2" customFormat="1">
       <c r="A377" s="15">
         <v>43841</v>
       </c>
@@ -16609,7 +16609,7 @@
         <v>25342</v>
       </c>
     </row>
-    <row r="378" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:13" s="2" customFormat="1">
       <c r="A378" s="15">
         <v>43842</v>
       </c>
@@ -16650,7 +16650,7 @@
         <v>24842</v>
       </c>
     </row>
-    <row r="379" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:13" s="2" customFormat="1">
       <c r="A379" s="15">
         <v>43843</v>
       </c>
@@ -16691,7 +16691,7 @@
         <v>28647</v>
       </c>
     </row>
-    <row r="380" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:13" s="2" customFormat="1">
       <c r="A380" s="15">
         <v>43844</v>
       </c>
@@ -16732,7 +16732,7 @@
         <v>28801</v>
       </c>
     </row>
-    <row r="381" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:13" s="2" customFormat="1">
       <c r="A381" s="15">
         <v>43845</v>
       </c>
@@ -16773,7 +16773,7 @@
         <v>28431</v>
       </c>
     </row>
-    <row r="382" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:13" s="2" customFormat="1">
       <c r="A382" s="15">
         <v>43846</v>
       </c>
@@ -16814,7 +16814,7 @@
         <v>28714</v>
       </c>
     </row>
-    <row r="383" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:13" s="2" customFormat="1">
       <c r="A383" s="15">
         <v>43847</v>
       </c>
@@ -16855,7 +16855,7 @@
         <v>28186</v>
       </c>
     </row>
-    <row r="384" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:13" s="2" customFormat="1">
       <c r="A384" s="15">
         <v>43848</v>
       </c>
@@ -16896,7 +16896,7 @@
         <v>26068</v>
       </c>
     </row>
-    <row r="385" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:13" s="2" customFormat="1">
       <c r="A385" s="15">
         <v>43849</v>
       </c>
@@ -16937,7 +16937,7 @@
         <v>25322</v>
       </c>
     </row>
-    <row r="386" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:13" s="2" customFormat="1">
       <c r="A386" s="15">
         <v>43850</v>
       </c>
@@ -16978,7 +16978,7 @@
         <v>27970</v>
       </c>
     </row>
-    <row r="387" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:13" s="2" customFormat="1">
       <c r="A387" s="15">
         <v>43851</v>
       </c>
@@ -17019,7 +17019,7 @@
         <v>27517</v>
       </c>
     </row>
-    <row r="388" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:13" s="2" customFormat="1">
       <c r="A388" s="15">
         <v>43852</v>
       </c>
@@ -17060,7 +17060,7 @@
         <v>25748</v>
       </c>
     </row>
-    <row r="389" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:13" s="2" customFormat="1">
       <c r="A389" s="15">
         <v>43853</v>
       </c>
@@ -17101,7 +17101,7 @@
         <v>23531</v>
       </c>
     </row>
-    <row r="390" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:13" s="2" customFormat="1">
       <c r="A390" s="15">
         <v>43854</v>
       </c>
@@ -17142,7 +17142,7 @@
         <v>21543</v>
       </c>
     </row>
-    <row r="391" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:13" s="2" customFormat="1">
       <c r="A391" s="15">
         <v>43855</v>
       </c>
@@ -17183,7 +17183,7 @@
         <v>21022</v>
       </c>
     </row>
-    <row r="392" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:13" s="2" customFormat="1">
       <c r="A392" s="15">
         <v>43856</v>
       </c>
@@ -17224,7 +17224,7 @@
         <v>21174</v>
       </c>
     </row>
-    <row r="393" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:13" s="2" customFormat="1">
       <c r="A393" s="15">
         <v>43857</v>
       </c>
@@ -17265,7 +17265,7 @@
         <v>21710</v>
       </c>
     </row>
-    <row r="394" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:13" s="2" customFormat="1">
       <c r="A394" s="15">
         <v>43858</v>
       </c>
@@ -17306,7 +17306,7 @@
         <v>22817</v>
       </c>
     </row>
-    <row r="395" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:13" s="2" customFormat="1">
       <c r="A395" s="15">
         <v>43859</v>
       </c>
@@ -17347,7 +17347,7 @@
         <v>23984</v>
       </c>
     </row>
-    <row r="396" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:13" s="2" customFormat="1">
       <c r="A396" s="15">
         <v>43860</v>
       </c>
@@ -17388,7 +17388,7 @@
         <v>26323</v>
       </c>
     </row>
-    <row r="397" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:13" s="2" customFormat="1">
       <c r="A397" s="15">
         <v>43861</v>
       </c>
@@ -17429,7 +17429,7 @@
         <v>26714</v>
       </c>
     </row>
-    <row r="398" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:13" s="2" customFormat="1">
       <c r="A398" s="15">
         <v>43862</v>
       </c>
@@ -17470,7 +17470,7 @@
         <v>25211</v>
       </c>
     </row>
-    <row r="399" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:13" s="2" customFormat="1">
       <c r="A399" s="15">
         <v>43863</v>
       </c>
@@ -17511,7 +17511,7 @@
         <v>24816</v>
       </c>
     </row>
-    <row r="400" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:13" s="2" customFormat="1">
       <c r="A400" s="15">
         <v>43864</v>
       </c>
@@ -17552,7 +17552,7 @@
         <v>27960</v>
       </c>
     </row>
-    <row r="401" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:13" s="2" customFormat="1">
       <c r="A401" s="15">
         <v>43865</v>
       </c>
@@ -17593,7 +17593,7 @@
         <v>28443</v>
       </c>
     </row>
-    <row r="402" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:13" s="2" customFormat="1">
       <c r="A402" s="15">
         <v>43866</v>
       </c>
@@ -17634,7 +17634,7 @@
         <v>28397</v>
       </c>
     </row>
-    <row r="403" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:13" s="2" customFormat="1">
       <c r="A403" s="15">
         <v>43867</v>
       </c>
@@ -17675,7 +17675,7 @@
         <v>28482</v>
       </c>
     </row>
-    <row r="404" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:13" s="2" customFormat="1">
       <c r="A404" s="15">
         <v>43868</v>
       </c>
@@ -17716,7 +17716,7 @@
         <v>28275</v>
       </c>
     </row>
-    <row r="405" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:13" s="2" customFormat="1">
       <c r="A405" s="15">
         <v>43869</v>
       </c>
@@ -17757,7 +17757,7 @@
         <v>25630</v>
       </c>
     </row>
-    <row r="406" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:13" s="2" customFormat="1">
       <c r="A406" s="15">
         <v>43870</v>
       </c>
@@ -17798,7 +17798,7 @@
         <v>25150</v>
       </c>
     </row>
-    <row r="407" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:13" s="2" customFormat="1">
       <c r="A407" s="15">
         <v>43871</v>
       </c>
@@ -17839,7 +17839,7 @@
         <v>28283</v>
       </c>
     </row>
-    <row r="408" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:13" s="2" customFormat="1">
       <c r="A408" s="15">
         <v>43872</v>
       </c>
@@ -17880,7 +17880,7 @@
         <v>28663</v>
       </c>
     </row>
-    <row r="409" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:13" s="2" customFormat="1">
       <c r="A409" s="15">
         <v>43873</v>
       </c>
@@ -17921,7 +17921,7 @@
         <v>28533</v>
       </c>
     </row>
-    <row r="410" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:13" s="2" customFormat="1">
       <c r="A410" s="15">
         <v>43874</v>
       </c>
@@ -17962,7 +17962,7 @@
         <v>29094</v>
       </c>
     </row>
-    <row r="411" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:13" s="2" customFormat="1">
       <c r="A411" s="15">
         <v>43875</v>
       </c>
@@ -18003,7 +18003,7 @@
         <v>29199</v>
       </c>
     </row>
-    <row r="412" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:13" s="2" customFormat="1">
       <c r="A412" s="15">
         <v>43876</v>
       </c>
@@ -18044,7 +18044,7 @@
         <v>27770</v>
       </c>
     </row>
-    <row r="413" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:13" s="2" customFormat="1">
       <c r="A413" s="15">
         <v>43877</v>
       </c>
@@ -18085,7 +18085,7 @@
         <v>25062</v>
       </c>
     </row>
-    <row r="414" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:13" s="2" customFormat="1">
       <c r="A414" s="15">
         <v>43878</v>
       </c>
@@ -18126,7 +18126,7 @@
         <v>28300</v>
       </c>
     </row>
-    <row r="415" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:13" s="2" customFormat="1">
       <c r="A415" s="15">
         <v>43879</v>
       </c>
@@ -18167,7 +18167,7 @@
         <v>28426</v>
       </c>
     </row>
-    <row r="416" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:13" s="2" customFormat="1">
       <c r="A416" s="15">
         <v>43880</v>
       </c>
@@ -18208,7 +18208,7 @@
         <v>28374</v>
       </c>
     </row>
-    <row r="417" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:13" s="2" customFormat="1">
       <c r="A417" s="15">
         <v>43881</v>
       </c>
@@ -18249,7 +18249,7 @@
         <v>28613</v>
       </c>
     </row>
-    <row r="418" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:13" s="2" customFormat="1">
       <c r="A418" s="15">
         <v>43882</v>
       </c>
@@ -18290,7 +18290,7 @@
         <v>28527</v>
       </c>
     </row>
-    <row r="419" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:13" s="2" customFormat="1">
       <c r="A419" s="15">
         <v>43883</v>
       </c>
@@ -18331,7 +18331,7 @@
         <v>26047</v>
       </c>
     </row>
-    <row r="420" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:13" s="2" customFormat="1">
       <c r="A420" s="15">
         <v>43884</v>
       </c>
@@ -18372,7 +18372,7 @@
         <v>25064</v>
       </c>
     </row>
-    <row r="421" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:13" s="2" customFormat="1">
       <c r="A421" s="15">
         <v>43885</v>
       </c>
@@ -18413,7 +18413,7 @@
         <v>28827</v>
       </c>
     </row>
-    <row r="422" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:13" s="2" customFormat="1">
       <c r="A422" s="15">
         <v>43886</v>
       </c>
@@ -18454,7 +18454,7 @@
         <v>29196</v>
       </c>
     </row>
-    <row r="423" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:13" s="2" customFormat="1">
       <c r="A423" s="15">
         <v>43887</v>
       </c>
@@ -18495,7 +18495,7 @@
         <v>29467</v>
       </c>
     </row>
-    <row r="424" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:13" s="2" customFormat="1">
       <c r="A424" s="15">
         <v>43888</v>
       </c>
@@ -18536,7 +18536,7 @@
         <v>28368</v>
       </c>
     </row>
-    <row r="425" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:13" s="2" customFormat="1">
       <c r="A425" s="15">
         <v>43889</v>
       </c>
@@ -18577,7 +18577,7 @@
         <v>26356</v>
       </c>
     </row>
-    <row r="426" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:13" s="2" customFormat="1">
       <c r="A426" s="15">
         <v>43890</v>
       </c>
@@ -18618,7 +18618,7 @@
         <v>25677</v>
       </c>
     </row>
-    <row r="427" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:13" s="2" customFormat="1">
       <c r="A427" s="15">
         <v>43891</v>
       </c>
@@ -18659,7 +18659,7 @@
         <v>24986</v>
       </c>
     </row>
-    <row r="428" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:13" s="2" customFormat="1">
       <c r="A428" s="15">
         <v>43892</v>
       </c>
@@ -18700,7 +18700,7 @@
         <v>28557</v>
       </c>
     </row>
-    <row r="429" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:13" s="2" customFormat="1">
       <c r="A429" s="15">
         <v>43893</v>
       </c>
@@ -18741,7 +18741,7 @@
         <v>29183</v>
       </c>
     </row>
-    <row r="430" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:13" s="2" customFormat="1">
       <c r="A430" s="15">
         <v>43894</v>
       </c>
@@ -18782,7 +18782,7 @@
         <v>28858</v>
       </c>
     </row>
-    <row r="431" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:13" s="2" customFormat="1">
       <c r="A431" s="15">
         <v>43895</v>
       </c>
@@ -18823,7 +18823,7 @@
         <v>28608</v>
       </c>
     </row>
-    <row r="432" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:13" s="2" customFormat="1">
       <c r="A432" s="15">
         <v>43896</v>
       </c>
@@ -18864,7 +18864,7 @@
         <v>28569</v>
       </c>
     </row>
-    <row r="433" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:13" s="2" customFormat="1">
       <c r="A433" s="15">
         <v>43897</v>
       </c>
@@ -18905,7 +18905,7 @@
         <v>26182</v>
       </c>
     </row>
-    <row r="434" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:13" s="2" customFormat="1">
       <c r="A434" s="15">
         <v>43898</v>
       </c>
@@ -18946,7 +18946,7 @@
         <v>25557</v>
       </c>
     </row>
-    <row r="435" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:13" s="2" customFormat="1">
       <c r="A435" s="15">
         <v>43899</v>
       </c>
@@ -18987,7 +18987,7 @@
         <v>29653</v>
       </c>
     </row>
-    <row r="436" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:13" s="2" customFormat="1">
       <c r="A436" s="15">
         <v>43900</v>
       </c>
@@ -19028,7 +19028,7 @@
         <v>28591</v>
       </c>
     </row>
-    <row r="437" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:13" s="2" customFormat="1">
       <c r="A437" s="15">
         <v>43901</v>
       </c>
@@ -19069,7 +19069,7 @@
         <v>28531</v>
       </c>
     </row>
-    <row r="438" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:13" s="2" customFormat="1">
       <c r="A438" s="15">
         <v>43902</v>
       </c>
@@ -19110,7 +19110,7 @@
         <v>29348</v>
       </c>
     </row>
-    <row r="439" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:13" s="2" customFormat="1">
       <c r="A439" s="15">
         <v>43903</v>
       </c>
@@ -19151,7 +19151,7 @@
         <v>29165</v>
       </c>
     </row>
-    <row r="440" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:13" s="2" customFormat="1">
       <c r="A440" s="15">
         <v>43904</v>
       </c>
@@ -19192,7 +19192,7 @@
         <v>25802</v>
       </c>
     </row>
-    <row r="441" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:13" s="2" customFormat="1">
       <c r="A441" s="15">
         <v>43905</v>
       </c>
@@ -19233,7 +19233,7 @@
         <v>24837</v>
       </c>
     </row>
-    <row r="442" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:13" s="2" customFormat="1">
       <c r="A442" s="15">
         <v>43906</v>
       </c>
@@ -19274,7 +19274,7 @@
         <v>27984</v>
       </c>
     </row>
-    <row r="443" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:13" s="2" customFormat="1">
       <c r="A443" s="15">
         <v>43907</v>
       </c>
@@ -19315,7 +19315,7 @@
         <v>28753</v>
       </c>
     </row>
-    <row r="444" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:13" s="2" customFormat="1">
       <c r="A444" s="15">
         <v>43908</v>
       </c>
@@ -19356,7 +19356,7 @@
         <v>29118</v>
       </c>
     </row>
-    <row r="445" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:13" s="2" customFormat="1">
       <c r="A445" s="15">
         <v>43909</v>
       </c>
@@ -19397,7 +19397,7 @@
         <v>29389</v>
       </c>
     </row>
-    <row r="446" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:13" s="2" customFormat="1">
       <c r="A446" s="15">
         <v>43910</v>
       </c>
@@ -19438,7 +19438,7 @@
         <v>29030</v>
       </c>
     </row>
-    <row r="447" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:13" s="2" customFormat="1">
       <c r="A447" s="15">
         <v>43911</v>
       </c>
@@ -19479,7 +19479,7 @@
         <v>26635</v>
       </c>
     </row>
-    <row r="448" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:13" s="2" customFormat="1">
       <c r="A448" s="15">
         <v>43912</v>
       </c>
@@ -19520,7 +19520,7 @@
         <v>26088</v>
       </c>
     </row>
-    <row r="449" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:13" s="2" customFormat="1">
       <c r="A449" s="15">
         <v>43913</v>
       </c>
@@ -19561,7 +19561,7 @@
         <v>29372</v>
       </c>
     </row>
-    <row r="450" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:13" s="2" customFormat="1">
       <c r="A450" s="15">
         <v>43914</v>
       </c>
@@ -19602,7 +19602,7 @@
         <v>29470</v>
       </c>
     </row>
-    <row r="451" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:13" s="2" customFormat="1">
       <c r="A451" s="15">
         <v>43915</v>
       </c>
@@ -19643,7 +19643,7 @@
         <v>30038</v>
       </c>
     </row>
-    <row r="452" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:13" s="2" customFormat="1">
       <c r="A452" s="15">
         <v>43916</v>
       </c>
@@ -19684,7 +19684,7 @@
         <v>30842</v>
       </c>
     </row>
-    <row r="453" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:13" s="2" customFormat="1">
       <c r="A453" s="15">
         <v>43917</v>
       </c>
@@ -19725,7 +19725,7 @@
         <v>31260</v>
       </c>
     </row>
-    <row r="454" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:13" s="2" customFormat="1">
       <c r="A454" s="15">
         <v>43918</v>
       </c>
@@ -19766,7 +19766,7 @@
         <v>25893</v>
       </c>
     </row>
-    <row r="455" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:13" s="2" customFormat="1">
       <c r="A455" s="15">
         <v>43919</v>
       </c>
@@ -19807,7 +19807,7 @@
         <v>25152</v>
       </c>
     </row>
-    <row r="456" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:13" s="2" customFormat="1">
       <c r="A456" s="15">
         <v>43920</v>
       </c>
@@ -19848,7 +19848,7 @@
         <v>28716</v>
       </c>
     </row>
-    <row r="457" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:13" s="2" customFormat="1">
       <c r="A457" s="15">
         <v>43921</v>
       </c>
@@ -19889,7 +19889,7 @@
         <v>29162</v>
       </c>
     </row>
-    <row r="458" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:13" s="2" customFormat="1">
       <c r="A458" s="15">
         <v>43922</v>
       </c>
@@ -19930,7 +19930,7 @@
         <v>28278</v>
       </c>
     </row>
-    <row r="459" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:13" s="2" customFormat="1">
       <c r="A459" s="15">
         <v>43923</v>
       </c>
@@ -19971,7 +19971,7 @@
         <v>25443</v>
       </c>
     </row>
-    <row r="460" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:13" s="2" customFormat="1">
       <c r="A460" s="15">
         <v>43924</v>
       </c>
@@ -20012,7 +20012,7 @@
         <v>25120</v>
       </c>
     </row>
-    <row r="461" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:13" s="2" customFormat="1">
       <c r="A461" s="15">
         <v>43925</v>
       </c>
@@ -20053,7 +20053,7 @@
         <v>24238</v>
       </c>
     </row>
-    <row r="462" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:13" s="2" customFormat="1">
       <c r="A462" s="15">
         <v>43926</v>
       </c>
@@ -20094,7 +20094,7 @@
         <v>24347</v>
       </c>
     </row>
-    <row r="463" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:13" s="2" customFormat="1">
       <c r="A463" s="15">
         <v>43927</v>
       </c>
@@ -20135,7 +20135,7 @@
         <v>28246</v>
       </c>
     </row>
-    <row r="464" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:13" s="2" customFormat="1">
       <c r="A464" s="15">
         <v>43928</v>
       </c>
@@ -20176,7 +20176,7 @@
         <v>28108</v>
       </c>
     </row>
-    <row r="465" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:13" s="2" customFormat="1">
       <c r="A465" s="15">
         <v>43929</v>
       </c>
@@ -20217,7 +20217,7 @@
         <v>28246</v>
       </c>
     </row>
-    <row r="466" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:13" s="2" customFormat="1">
       <c r="A466" s="15">
         <v>43930</v>
       </c>
@@ -20258,7 +20258,7 @@
         <v>28285</v>
       </c>
     </row>
-    <row r="467" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:13" s="2" customFormat="1">
       <c r="A467" s="15">
         <v>43931</v>
       </c>
@@ -20299,7 +20299,7 @@
         <v>28470</v>
       </c>
     </row>
-    <row r="468" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:13" s="2" customFormat="1">
       <c r="A468" s="15">
         <v>43932</v>
       </c>
@@ -20340,7 +20340,7 @@
         <v>25752</v>
       </c>
     </row>
-    <row r="469" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:13" s="2" customFormat="1">
       <c r="A469" s="15">
         <v>43933</v>
       </c>
@@ -20381,7 +20381,7 @@
         <v>24604</v>
       </c>
     </row>
-    <row r="470" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:13" s="2" customFormat="1">
       <c r="A470" s="15">
         <v>43934</v>
       </c>
@@ -20422,7 +20422,7 @@
         <v>27614</v>
       </c>
     </row>
-    <row r="471" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:13" s="2" customFormat="1">
       <c r="A471" s="15">
         <v>43935</v>
       </c>
@@ -20463,7 +20463,7 @@
         <v>27884</v>
       </c>
     </row>
-    <row r="472" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:13" s="2" customFormat="1">
       <c r="A472" s="15">
         <v>43936</v>
       </c>
@@ -20504,7 +20504,7 @@
         <v>28182</v>
       </c>
     </row>
-    <row r="473" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:13" s="2" customFormat="1">
       <c r="A473" s="15">
         <v>43937</v>
       </c>
@@ -20545,7 +20545,7 @@
         <v>28528</v>
       </c>
     </row>
-    <row r="474" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:13" s="2" customFormat="1">
       <c r="A474" s="15">
         <v>43938</v>
       </c>
@@ -20586,7 +20586,7 @@
         <v>28990</v>
       </c>
     </row>
-    <row r="475" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:13" s="2" customFormat="1">
       <c r="A475" s="15">
         <v>43939</v>
       </c>
@@ -20627,7 +20627,7 @@
         <v>26657</v>
       </c>
     </row>
-    <row r="476" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:13" s="2" customFormat="1">
       <c r="A476" s="15">
         <v>43940</v>
       </c>
@@ -20668,7 +20668,7 @@
         <v>26518</v>
       </c>
     </row>
-    <row r="477" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:13" s="2" customFormat="1">
       <c r="A477" s="15">
         <v>43941</v>
       </c>
@@ -20709,7 +20709,7 @@
         <v>29986</v>
       </c>
     </row>
-    <row r="478" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:13" s="2" customFormat="1">
       <c r="A478" s="15">
         <v>43942</v>
       </c>
@@ -20750,7 +20750,7 @@
         <v>29986</v>
       </c>
     </row>
-    <row r="479" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:13" s="2" customFormat="1">
       <c r="A479" s="15">
         <v>43943</v>
       </c>
@@ -20791,7 +20791,7 @@
         <v>28595</v>
       </c>
     </row>
-    <row r="480" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:13" s="2" customFormat="1">
       <c r="A480" s="15">
         <v>43944</v>
       </c>
@@ -20832,7 +20832,7 @@
         <v>28050</v>
       </c>
     </row>
-    <row r="481" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:13" s="2" customFormat="1">
       <c r="A481" s="15">
         <v>43945</v>
       </c>
@@ -20873,7 +20873,7 @@
         <v>27678</v>
       </c>
     </row>
-    <row r="482" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:13" s="2" customFormat="1">
       <c r="A482" s="15">
         <v>43946</v>
       </c>
@@ -20914,7 +20914,7 @@
         <v>25659</v>
       </c>
     </row>
-    <row r="483" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:13" s="2" customFormat="1">
       <c r="A483" s="15">
         <v>43947</v>
       </c>
@@ -20955,7 +20955,7 @@
         <v>25110</v>
       </c>
     </row>
-    <row r="484" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:13" s="2" customFormat="1">
       <c r="A484" s="15">
         <v>43948</v>
       </c>
@@ -20996,7 +20996,7 @@
         <v>28706</v>
       </c>
     </row>
-    <row r="485" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:13" s="2" customFormat="1">
       <c r="A485" s="15">
         <v>43949</v>
       </c>
@@ -21037,7 +21037,7 @@
         <v>28955</v>
       </c>
     </row>
-    <row r="486" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:13" s="2" customFormat="1">
       <c r="A486" s="15">
         <v>43950</v>
       </c>
@@ -21078,7 +21078,7 @@
         <v>29532</v>
       </c>
     </row>
-    <row r="487" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:13" s="2" customFormat="1">
       <c r="A487" s="15">
         <v>43951</v>
       </c>
@@ -21119,7 +21119,7 @@
         <v>29613</v>
       </c>
     </row>
-    <row r="488" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:13" s="2" customFormat="1">
       <c r="A488" s="15">
         <v>43952</v>
       </c>
@@ -21160,7 +21160,7 @@
         <v>26786</v>
       </c>
     </row>
-    <row r="489" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:13" s="2" customFormat="1">
       <c r="A489" s="15">
         <v>43953</v>
       </c>
@@ -21201,7 +21201,7 @@
         <v>26473</v>
       </c>
     </row>
-    <row r="490" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:13" s="2" customFormat="1">
       <c r="A490" s="15">
         <v>43954</v>
       </c>
@@ -21242,7 +21242,7 @@
         <v>26815</v>
       </c>
     </row>
-    <row r="491" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:13" s="2" customFormat="1">
       <c r="A491" s="15">
         <v>43955</v>
       </c>
@@ -21283,7 +21283,7 @@
         <v>32340</v>
       </c>
     </row>
-    <row r="492" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:13" s="2" customFormat="1">
       <c r="A492" s="15">
         <v>43956</v>
       </c>
@@ -21324,7 +21324,7 @@
         <v>33321</v>
       </c>
     </row>
-    <row r="493" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:13" s="2" customFormat="1">
       <c r="A493" s="15">
         <v>43957</v>
       </c>
@@ -21365,7 +21365,7 @@
         <v>32964</v>
       </c>
     </row>
-    <row r="494" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:13" s="2" customFormat="1">
       <c r="A494" s="15">
         <v>43958</v>
       </c>
@@ -21406,7 +21406,7 @@
         <v>32510</v>
       </c>
     </row>
-    <row r="495" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:13" s="2" customFormat="1">
       <c r="A495" s="15">
         <v>43959</v>
       </c>
@@ -21447,7 +21447,7 @@
         <v>33791</v>
       </c>
     </row>
-    <row r="496" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:13" s="2" customFormat="1">
       <c r="A496" s="15">
         <v>43960</v>
       </c>
@@ -21488,7 +21488,7 @@
         <v>29700</v>
       </c>
     </row>
-    <row r="497" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:13" s="2" customFormat="1">
       <c r="A497" s="15">
         <v>43961</v>
       </c>
@@ -21529,7 +21529,7 @@
         <v>29424</v>
       </c>
     </row>
-    <row r="498" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:13" s="2" customFormat="1">
       <c r="A498" s="15">
         <v>43962</v>
       </c>
@@ -21570,7 +21570,7 @@
         <v>33203</v>
       </c>
     </row>
-    <row r="499" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:13" s="2" customFormat="1">
       <c r="A499" s="15">
         <v>43963</v>
       </c>
@@ -21611,7 +21611,7 @@
         <v>31973</v>
       </c>
     </row>
-    <row r="500" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:13" s="2" customFormat="1">
       <c r="A500" s="15">
         <v>43964</v>
       </c>
@@ -21652,7 +21652,7 @@
         <v>32264</v>
       </c>
     </row>
-    <row r="501" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:13" s="2" customFormat="1">
       <c r="A501" s="15">
         <v>43965</v>
       </c>
@@ -21693,7 +21693,7 @@
         <v>33442</v>
       </c>
     </row>
-    <row r="502" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:13" s="2" customFormat="1">
       <c r="A502" s="15">
         <v>43966</v>
       </c>
@@ -21734,7 +21734,7 @@
         <v>33787</v>
       </c>
     </row>
-    <row r="503" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:13" s="2" customFormat="1">
       <c r="A503" s="15">
         <v>43967</v>
       </c>
@@ -21775,7 +21775,7 @@
         <v>30028</v>
       </c>
     </row>
-    <row r="504" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:13" s="2" customFormat="1">
       <c r="A504" s="15">
         <v>43968</v>
       </c>
@@ -21816,7 +21816,7 @@
         <v>28694</v>
       </c>
     </row>
-    <row r="505" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:13" s="2" customFormat="1">
       <c r="A505" s="15">
         <v>43969</v>
       </c>
@@ -21857,7 +21857,7 @@
         <v>32803</v>
       </c>
     </row>
-    <row r="506" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:13" s="2" customFormat="1">
       <c r="A506" s="15">
         <v>43970</v>
       </c>
@@ -21898,7 +21898,7 @@
         <v>31336</v>
       </c>
     </row>
-    <row r="507" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:13" s="2" customFormat="1">
       <c r="A507" s="15">
         <v>43971</v>
       </c>
@@ -21939,7 +21939,7 @@
         <v>31507</v>
       </c>
     </row>
-    <row r="508" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:13" s="2" customFormat="1">
       <c r="A508" s="15">
         <v>43972</v>
       </c>
@@ -21980,7 +21980,7 @@
         <v>31571</v>
       </c>
     </row>
-    <row r="509" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:13" s="2" customFormat="1">
       <c r="A509" s="15">
         <v>43973</v>
       </c>
@@ -22021,7 +22021,7 @@
         <v>30892</v>
       </c>
     </row>
-    <row r="510" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:13" s="2" customFormat="1">
       <c r="A510" s="15">
         <v>43974</v>
       </c>
@@ -22062,7 +22062,7 @@
         <v>26898</v>
       </c>
     </row>
-    <row r="511" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:13" s="2" customFormat="1">
       <c r="A511" s="15">
         <v>43975</v>
       </c>
@@ -22103,7 +22103,7 @@
         <v>26905</v>
       </c>
     </row>
-    <row r="512" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:13" s="2" customFormat="1">
       <c r="A512" s="15">
         <v>43976</v>
       </c>
@@ -22144,7 +22144,7 @@
         <v>32438</v>
       </c>
     </row>
-    <row r="513" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:13" s="2" customFormat="1">
       <c r="A513" s="15">
         <v>43977</v>
       </c>
@@ -22185,7 +22185,7 @@
         <v>32896</v>
       </c>
     </row>
-    <row r="514" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:13" s="2" customFormat="1">
       <c r="A514" s="15">
         <v>43978</v>
       </c>
@@ -22226,7 +22226,7 @@
         <v>31444</v>
       </c>
     </row>
-    <row r="515" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:13" s="2" customFormat="1">
       <c r="A515" s="15">
         <v>43979</v>
       </c>
@@ -22267,7 +22267,7 @@
         <v>31519</v>
       </c>
     </row>
-    <row r="516" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:13" s="2" customFormat="1">
       <c r="A516" s="15">
         <v>43980</v>
       </c>
@@ -22308,7 +22308,7 @@
         <v>32544</v>
       </c>
     </row>
-    <row r="517" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:13" s="2" customFormat="1">
       <c r="A517" s="15">
         <v>43981</v>
       </c>
@@ -22349,7 +22349,7 @@
         <v>28513</v>
       </c>
     </row>
-    <row r="518" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:13" s="2" customFormat="1">
       <c r="A518" s="15">
         <v>43982</v>
       </c>
@@ -22390,7 +22390,7 @@
         <v>28776</v>
       </c>
     </row>
-    <row r="519" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:13" s="2" customFormat="1">
       <c r="A519" s="15">
         <v>43983</v>
       </c>
@@ -22431,7 +22431,7 @@
         <v>33660</v>
       </c>
     </row>
-    <row r="520" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:13" s="2" customFormat="1">
       <c r="A520" s="15">
         <v>43984</v>
       </c>
@@ -22472,7 +22472,7 @@
         <v>34381</v>
       </c>
     </row>
-    <row r="521" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:13" s="2" customFormat="1">
       <c r="A521" s="15">
         <v>43985</v>
       </c>
@@ -22513,7 +22513,7 @@
         <v>34490</v>
       </c>
     </row>
-    <row r="522" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:13" s="2" customFormat="1">
       <c r="A522" s="15">
         <v>43986</v>
       </c>
@@ -22554,7 +22554,7 @@
         <v>34935</v>
       </c>
     </row>
-    <row r="523" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:13" s="2" customFormat="1">
       <c r="A523" s="15">
         <v>43987</v>
       </c>
@@ -22595,7 +22595,7 @@
         <v>34861</v>
       </c>
     </row>
-    <row r="524" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:13" s="2" customFormat="1">
       <c r="A524" s="15">
         <v>43988</v>
       </c>
@@ -22636,7 +22636,7 @@
         <v>30752</v>
       </c>
     </row>
-    <row r="525" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:13" s="2" customFormat="1">
       <c r="A525" s="15">
         <v>43989</v>
       </c>
@@ -22677,7 +22677,7 @@
         <v>28121</v>
       </c>
     </row>
-    <row r="526" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:13" s="2" customFormat="1">
       <c r="A526" s="15">
         <v>43990</v>
       </c>
@@ -22718,7 +22718,7 @@
         <v>32361</v>
       </c>
     </row>
-    <row r="527" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:13" s="2" customFormat="1">
       <c r="A527" s="15">
         <v>43991</v>
       </c>
@@ -22759,7 +22759,7 @@
         <v>32360</v>
       </c>
     </row>
-    <row r="528" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:13" s="2" customFormat="1">
       <c r="A528" s="15">
         <v>43992</v>
       </c>
@@ -22800,7 +22800,7 @@
         <v>33770</v>
       </c>
     </row>
-    <row r="529" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:13" s="2" customFormat="1">
       <c r="A529" s="15">
         <v>43993</v>
       </c>
@@ -22841,7 +22841,7 @@
         <v>34220</v>
       </c>
     </row>
-    <row r="530" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:13" s="2" customFormat="1">
       <c r="A530" s="15">
         <v>43994</v>
       </c>
@@ -22882,7 +22882,7 @@
         <v>35010</v>
       </c>
     </row>
-    <row r="531" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:13" s="2" customFormat="1">
       <c r="A531" s="15">
         <v>43995</v>
       </c>
@@ -22923,7 +22923,7 @@
         <v>31552</v>
       </c>
     </row>
-    <row r="532" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:13" s="2" customFormat="1">
       <c r="A532" s="15">
         <v>43996</v>
       </c>
@@ -22964,7 +22964,7 @@
         <v>29821</v>
       </c>
     </row>
-    <row r="533" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:13" s="2" customFormat="1">
       <c r="A533" s="15">
         <v>43997</v>
       </c>
@@ -23005,7 +23005,7 @@
         <v>35096</v>
       </c>
     </row>
-    <row r="534" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:13" s="2" customFormat="1">
       <c r="A534" s="15">
         <v>43998</v>
       </c>
@@ -23046,7 +23046,7 @@
         <v>35674</v>
       </c>
     </row>
-    <row r="535" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:13" s="2" customFormat="1">
       <c r="A535" s="15">
         <v>43999</v>
       </c>
@@ -23087,7 +23087,7 @@
         <v>36160</v>
       </c>
     </row>
-    <row r="536" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:13" s="2" customFormat="1">
       <c r="A536" s="15">
         <v>44000</v>
       </c>
@@ -23128,7 +23128,7 @@
         <v>35964</v>
       </c>
     </row>
-    <row r="537" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:13" s="2" customFormat="1">
       <c r="A537" s="15">
         <v>44001</v>
       </c>
@@ -23169,7 +23169,7 @@
         <v>36340</v>
       </c>
     </row>
-    <row r="538" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:13" s="2" customFormat="1">
       <c r="A538" s="15">
         <v>44002</v>
       </c>
@@ -23210,7 +23210,7 @@
         <v>35313</v>
       </c>
     </row>
-    <row r="539" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:13" s="2" customFormat="1">
       <c r="A539" s="15">
         <v>44003</v>
       </c>
@@ -23251,7 +23251,7 @@
         <v>31624</v>
       </c>
     </row>
-    <row r="540" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:13" s="2" customFormat="1">
       <c r="A540" s="15">
         <v>44004</v>
       </c>
@@ -23292,7 +23292,7 @@
         <v>36627</v>
       </c>
     </row>
-    <row r="541" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:13" s="2" customFormat="1">
       <c r="A541" s="15">
         <v>44005</v>
       </c>
@@ -23333,7 +23333,7 @@
         <v>36847</v>
       </c>
     </row>
-    <row r="542" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:13" s="2" customFormat="1">
       <c r="A542" s="15">
         <v>44006</v>
       </c>
@@ -23374,7 +23374,7 @@
         <v>37170</v>
       </c>
     </row>
-    <row r="543" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:13" s="2" customFormat="1">
       <c r="A543" s="15">
         <v>44007</v>
       </c>
@@ -23415,7 +23415,7 @@
         <v>31852</v>
       </c>
     </row>
-    <row r="544" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:13" s="2" customFormat="1">
       <c r="A544" s="15">
         <v>44008</v>
       </c>
@@ -23456,7 +23456,7 @@
         <v>30352</v>
       </c>
     </row>
-    <row r="545" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:13" s="2" customFormat="1">
       <c r="A545" s="15">
         <v>44009</v>
       </c>
@@ -23497,7 +23497,7 @@
         <v>30466</v>
       </c>
     </row>
-    <row r="546" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:13" s="2" customFormat="1">
       <c r="A546" s="15">
         <v>44010</v>
       </c>
@@ -23538,7 +23538,7 @@
         <v>31107</v>
       </c>
     </row>
-    <row r="547" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:13" s="2" customFormat="1">
       <c r="A547" s="15">
         <v>44011</v>
       </c>
@@ -23579,7 +23579,7 @@
         <v>36351</v>
       </c>
     </row>
-    <row r="548" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:13" s="2" customFormat="1">
       <c r="A548" s="15">
         <v>44012</v>
       </c>
@@ -23620,7 +23620,7 @@
         <v>36682</v>
       </c>
     </row>
-    <row r="549" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:13" s="2" customFormat="1">
       <c r="A549" s="15">
         <v>44013</v>
       </c>
@@ -23661,7 +23661,7 @@
         <v>36331</v>
       </c>
     </row>
-    <row r="550" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:13" s="2" customFormat="1">
       <c r="A550" s="15">
         <v>44014</v>
       </c>
@@ -23702,7 +23702,7 @@
         <v>35847</v>
       </c>
     </row>
-    <row r="551" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:13" s="2" customFormat="1">
       <c r="A551" s="15">
         <v>44015</v>
       </c>
@@ -23743,7 +23743,7 @@
         <v>35798</v>
       </c>
     </row>
-    <row r="552" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:13" s="2" customFormat="1">
       <c r="A552" s="15">
         <v>44016</v>
       </c>
@@ -23784,7 +23784,7 @@
         <v>31924</v>
       </c>
     </row>
-    <row r="553" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:13" s="2" customFormat="1">
       <c r="A553" s="15">
         <v>44017</v>
       </c>
@@ -23825,7 +23825,7 @@
         <v>31219</v>
       </c>
     </row>
-    <row r="554" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:13" s="2" customFormat="1">
       <c r="A554" s="15">
         <v>44018</v>
       </c>
@@ -23866,7 +23866,7 @@
         <v>35888</v>
       </c>
     </row>
-    <row r="555" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:13" s="2" customFormat="1">
       <c r="A555" s="15">
         <v>44019</v>
       </c>
@@ -23907,7 +23907,7 @@
         <v>36326</v>
       </c>
     </row>
-    <row r="556" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:13" s="2" customFormat="1">
       <c r="A556" s="15">
         <v>44020</v>
       </c>
@@ -23948,7 +23948,7 @@
         <v>37106</v>
       </c>
     </row>
-    <row r="557" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:13" s="2" customFormat="1">
       <c r="A557" s="15">
         <v>44021</v>
       </c>
@@ -23989,7 +23989,7 @@
         <v>36686</v>
       </c>
     </row>
-    <row r="558" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:13" s="2" customFormat="1">
       <c r="A558" s="15">
         <v>44022</v>
       </c>
@@ -24030,7 +24030,7 @@
         <v>36830</v>
       </c>
     </row>
-    <row r="559" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:13" s="2" customFormat="1">
       <c r="A559" s="15">
         <v>44023</v>
       </c>
@@ -24071,7 +24071,7 @@
         <v>32935</v>
       </c>
     </row>
-    <row r="560" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:13" s="2" customFormat="1">
       <c r="A560" s="15">
         <v>44024</v>
       </c>
@@ -24112,7 +24112,7 @@
         <v>32223</v>
       </c>
     </row>
-    <row r="561" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:13" s="2" customFormat="1">
       <c r="A561" s="15">
         <v>44025</v>
       </c>
@@ -24153,7 +24153,7 @@
         <v>37528</v>
       </c>
     </row>
-    <row r="562" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:13" s="2" customFormat="1">
       <c r="A562" s="15">
         <v>44026</v>
       </c>
@@ -24194,7 +24194,7 @@
         <v>37790</v>
       </c>
     </row>
-    <row r="563" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:13" s="2" customFormat="1">
       <c r="A563" s="15">
         <v>44027</v>
       </c>
@@ -24235,7 +24235,7 @@
         <v>36755</v>
       </c>
     </row>
-    <row r="564" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:13" s="2" customFormat="1">
       <c r="A564" s="15">
         <v>44028</v>
       </c>
@@ -24276,7 +24276,7 @@
         <v>35903</v>
       </c>
     </row>
-    <row r="565" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:13" s="2" customFormat="1">
       <c r="A565" s="15">
         <v>44029</v>
       </c>
@@ -24317,7 +24317,7 @@
         <v>36882</v>
       </c>
     </row>
-    <row r="566" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:13" s="2" customFormat="1">
       <c r="A566" s="15">
         <v>44030</v>
       </c>
@@ -24358,7 +24358,7 @@
         <v>33193</v>
       </c>
     </row>
-    <row r="567" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:13" s="2" customFormat="1">
       <c r="A567" s="15">
         <v>44031</v>
       </c>
@@ -24399,7 +24399,7 @@
         <v>31831</v>
       </c>
     </row>
-    <row r="568" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:13" s="2" customFormat="1">
       <c r="A568" s="15">
         <v>44032</v>
       </c>
@@ -24440,7 +24440,7 @@
         <v>37521</v>
       </c>
     </row>
-    <row r="569" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:13" s="2" customFormat="1">
       <c r="A569" s="15">
         <v>44033</v>
       </c>
@@ -24481,7 +24481,7 @@
         <v>36825</v>
       </c>
     </row>
-    <row r="570" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:13" s="2" customFormat="1">
       <c r="A570" s="15">
         <v>44034</v>
       </c>
@@ -24522,7 +24522,7 @@
         <v>37367</v>
       </c>
     </row>
-    <row r="571" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:13" s="2" customFormat="1">
       <c r="A571" s="15">
         <v>44035</v>
       </c>
@@ -24563,7 +24563,7 @@
         <v>38020</v>
       </c>
     </row>
-    <row r="572" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:13" s="2" customFormat="1">
       <c r="A572" s="15">
         <v>44036</v>
       </c>
@@ -24604,7 +24604,7 @@
         <v>37557</v>
       </c>
     </row>
-    <row r="573" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:13" s="2" customFormat="1">
       <c r="A573" s="15">
         <v>44037</v>
       </c>
@@ -24645,7 +24645,7 @@
         <v>32838</v>
       </c>
     </row>
-    <row r="574" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:13" s="2" customFormat="1">
       <c r="A574" s="15">
         <v>44038</v>
       </c>
@@ -24686,7 +24686,7 @@
         <v>30548</v>
       </c>
     </row>
-    <row r="575" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:13" s="2" customFormat="1">
       <c r="A575" s="15">
         <v>44039</v>
       </c>
@@ -24727,7 +24727,7 @@
         <v>36760</v>
       </c>
     </row>
-    <row r="576" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:13" s="2" customFormat="1">
       <c r="A576" s="15">
         <v>44040</v>
       </c>
@@ -24768,7 +24768,7 @@
         <v>36333</v>
       </c>
     </row>
-    <row r="577" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:13" s="2" customFormat="1">
       <c r="A577" s="15">
         <v>44041</v>
       </c>
@@ -24809,7 +24809,7 @@
         <v>36353</v>
       </c>
     </row>
-    <row r="578" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:13" s="2" customFormat="1">
       <c r="A578" s="15">
         <v>44042</v>
       </c>
@@ -24850,7 +24850,7 @@
         <v>35592</v>
       </c>
     </row>
-    <row r="579" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:13" s="2" customFormat="1">
       <c r="A579" s="15">
         <v>44043</v>
       </c>
@@ -24891,7 +24891,7 @@
         <v>36300</v>
       </c>
     </row>
-    <row r="580" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:13" s="2" customFormat="1">
       <c r="A580" s="15">
         <v>44044</v>
       </c>
@@ -24932,7 +24932,7 @@
         <v>32682</v>
       </c>
     </row>
-    <row r="581" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:13" s="2" customFormat="1">
       <c r="A581" s="15">
         <v>44045</v>
       </c>
@@ -24973,7 +24973,7 @@
         <v>30754</v>
       </c>
     </row>
-    <row r="582" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:13" s="2" customFormat="1">
       <c r="A582" s="15">
         <v>44046</v>
       </c>
@@ -25014,7 +25014,7 @@
         <v>33718</v>
       </c>
     </row>
-    <row r="583" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:13" s="2" customFormat="1">
       <c r="A583" s="15">
         <v>44047</v>
       </c>
@@ -25055,7 +25055,7 @@
         <v>34036</v>
       </c>
     </row>
-    <row r="584" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:13" s="2" customFormat="1">
       <c r="A584" s="15">
         <v>44048</v>
       </c>
@@ -25096,7 +25096,7 @@
         <v>35374</v>
       </c>
     </row>
-    <row r="585" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:13" s="2" customFormat="1">
       <c r="A585" s="15">
         <v>44049</v>
       </c>
@@ -25137,7 +25137,7 @@
         <v>36593</v>
       </c>
     </row>
-    <row r="586" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:13" s="2" customFormat="1">
       <c r="A586" s="15">
         <v>44050</v>
       </c>
@@ -25178,7 +25178,7 @@
         <v>36682</v>
       </c>
     </row>
-    <row r="587" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:13" s="2" customFormat="1">
       <c r="A587" s="15">
         <v>44051</v>
       </c>
@@ -25219,7 +25219,7 @@
         <v>32361</v>
       </c>
     </row>
-    <row r="588" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:13" s="2" customFormat="1">
       <c r="A588" s="15">
         <v>44052</v>
       </c>
@@ -25260,7 +25260,7 @@
         <v>31166</v>
       </c>
     </row>
-    <row r="589" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:13" s="2" customFormat="1">
       <c r="A589" s="15">
         <v>44053</v>
       </c>
@@ -25301,7 +25301,7 @@
         <v>36411</v>
       </c>
     </row>
-    <row r="590" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:13" s="2" customFormat="1">
       <c r="A590" s="15">
         <v>44054</v>
       </c>
@@ -25342,7 +25342,7 @@
         <v>35167</v>
       </c>
     </row>
-    <row r="591" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:13" s="2" customFormat="1">
       <c r="A591" s="15">
         <v>44055</v>
       </c>
@@ -25383,7 +25383,7 @@
         <v>36537</v>
       </c>
     </row>
-    <row r="592" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:13" s="2" customFormat="1">
       <c r="A592" s="15">
         <v>44056</v>
       </c>
@@ -25424,7 +25424,7 @@
         <v>36301</v>
       </c>
     </row>
-    <row r="593" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:13" s="2" customFormat="1">
       <c r="A593" s="15">
         <v>44057</v>
       </c>
@@ -25465,7 +25465,7 @@
         <v>35941</v>
       </c>
     </row>
-    <row r="594" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:13" s="2" customFormat="1">
       <c r="A594" s="15">
         <v>44058</v>
       </c>
@@ -25506,7 +25506,7 @@
         <v>31204</v>
       </c>
     </row>
-    <row r="595" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:13" s="2" customFormat="1">
       <c r="A595" s="15">
         <v>44059</v>
       </c>
@@ -25547,7 +25547,7 @@
         <v>29721</v>
       </c>
     </row>
-    <row r="596" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:13" s="2" customFormat="1">
       <c r="A596" s="15">
         <v>44060</v>
       </c>
@@ -25588,7 +25588,7 @@
         <v>35538</v>
       </c>
     </row>
-    <row r="597" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:13" s="2" customFormat="1">
       <c r="A597" s="15">
         <v>44061</v>
       </c>
@@ -25629,7 +25629,7 @@
         <v>36279</v>
       </c>
     </row>
-    <row r="598" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:13" s="2" customFormat="1">
       <c r="A598" s="15">
         <v>44062</v>
       </c>
@@ -25670,7 +25670,7 @@
         <v>36996</v>
       </c>
     </row>
-    <row r="599" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:13" s="2" customFormat="1">
       <c r="A599" s="15">
         <v>44063</v>
       </c>
@@ -25711,7 +25711,7 @@
         <v>36818</v>
       </c>
     </row>
-    <row r="600" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:13" s="2" customFormat="1">
       <c r="A600" s="15">
         <v>44064</v>
       </c>
@@ -25752,7 +25752,7 @@
         <v>36823</v>
       </c>
     </row>
-    <row r="601" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:13" s="2" customFormat="1">
       <c r="A601" s="15">
         <v>44065</v>
       </c>
@@ -25793,7 +25793,7 @@
         <v>30985</v>
       </c>
     </row>
-    <row r="602" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:13" s="2" customFormat="1">
       <c r="A602" s="15">
         <v>44066</v>
       </c>
@@ -25834,7 +25834,7 @@
         <v>30245</v>
       </c>
     </row>
-    <row r="603" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:13" s="2" customFormat="1">
       <c r="A603" s="15">
         <v>44067</v>
       </c>
@@ -25875,7 +25875,7 @@
         <v>36483</v>
       </c>
     </row>
-    <row r="604" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:13" s="2" customFormat="1">
       <c r="A604" s="15">
         <v>44068</v>
       </c>
@@ -25916,7 +25916,7 @@
         <v>37073</v>
       </c>
     </row>
-    <row r="605" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:13" s="2" customFormat="1">
       <c r="A605" s="15">
         <v>44069</v>
       </c>
@@ -25957,7 +25957,7 @@
         <v>35827</v>
       </c>
     </row>
-    <row r="606" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:13" s="2" customFormat="1">
       <c r="A606" s="15">
         <v>44070</v>
       </c>
@@ -25998,7 +25998,7 @@
         <v>35107</v>
       </c>
     </row>
-    <row r="607" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:13" s="2" customFormat="1">
       <c r="A607" s="15">
         <v>44071</v>
       </c>
@@ -26039,7 +26039,7 @@
         <v>35122</v>
       </c>
     </row>
-    <row r="608" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:13" s="2" customFormat="1">
       <c r="A608" s="15">
         <v>44072</v>
       </c>
@@ -26080,7 +26080,7 @@
         <v>31138</v>
       </c>
     </row>
-    <row r="609" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:13" s="2" customFormat="1">
       <c r="A609" s="15">
         <v>44073</v>
       </c>
@@ -26121,7 +26121,7 @@
         <v>30677</v>
       </c>
     </row>
-    <row r="610" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:13" s="2" customFormat="1">
       <c r="A610" s="15">
         <v>44074</v>
       </c>
@@ -26162,7 +26162,7 @@
         <v>35197</v>
       </c>
     </row>
-    <row r="611" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:13" s="2" customFormat="1">
       <c r="A611" s="15">
         <v>44075</v>
       </c>
@@ -26203,7 +26203,7 @@
         <v>35420</v>
       </c>
     </row>
-    <row r="612" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:13" s="2" customFormat="1">
       <c r="A612" s="15">
         <v>44076</v>
       </c>
@@ -26244,7 +26244,7 @@
         <v>36492</v>
       </c>
     </row>
-    <row r="613" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:13" s="2" customFormat="1">
       <c r="A613" s="15">
         <v>44077</v>
       </c>
@@ -26285,7 +26285,7 @@
         <v>35474</v>
       </c>
     </row>
-    <row r="614" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:13" s="2" customFormat="1">
       <c r="A614" s="15">
         <v>44078</v>
       </c>
@@ -26326,7 +26326,7 @@
         <v>35980</v>
       </c>
     </row>
-    <row r="615" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:13" s="2" customFormat="1">
       <c r="A615" s="15">
         <v>44079</v>
       </c>
@@ -26367,7 +26367,7 @@
         <v>30758</v>
       </c>
     </row>
-    <row r="616" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:13" s="2" customFormat="1">
       <c r="A616" s="15">
         <v>44080</v>
       </c>
@@ -26408,7 +26408,7 @@
         <v>27921</v>
       </c>
     </row>
-    <row r="617" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:13" s="2" customFormat="1">
       <c r="A617" s="15">
         <v>44081</v>
       </c>
@@ -26449,7 +26449,7 @@
         <v>33937</v>
       </c>
     </row>
-    <row r="618" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:13" s="2" customFormat="1">
       <c r="A618" s="15">
         <v>44082</v>
       </c>
@@ -26490,7 +26490,7 @@
         <v>35134</v>
       </c>
     </row>
-    <row r="619" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:13" s="2" customFormat="1">
       <c r="A619" s="15">
         <v>44083</v>
       </c>
@@ -26531,7 +26531,7 @@
         <v>35370</v>
       </c>
     </row>
-    <row r="620" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:13" s="2" customFormat="1">
       <c r="A620" s="15">
         <v>44084</v>
       </c>
@@ -26572,7 +26572,7 @@
         <v>35438</v>
       </c>
     </row>
-    <row r="621" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:13" s="2" customFormat="1">
       <c r="A621" s="15">
         <v>44085</v>
       </c>
@@ -26613,7 +26613,7 @@
         <v>35598</v>
       </c>
     </row>
-    <row r="622" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:13" s="2" customFormat="1">
       <c r="A622" s="15">
         <v>44086</v>
       </c>
@@ -26654,7 +26654,7 @@
         <v>31311</v>
       </c>
     </row>
-    <row r="623" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:13" s="2" customFormat="1">
       <c r="A623" s="15">
         <v>44087</v>
       </c>
@@ -26695,7 +26695,7 @@
         <v>30030</v>
       </c>
     </row>
-    <row r="624" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:13" s="2" customFormat="1">
       <c r="A624" s="15">
         <v>44088</v>
       </c>
@@ -26736,7 +26736,7 @@
         <v>35640</v>
       </c>
     </row>
-    <row r="625" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:13" s="2" customFormat="1">
       <c r="A625" s="15">
         <v>44089</v>
       </c>
@@ -26777,7 +26777,7 @@
         <v>36312</v>
       </c>
     </row>
-    <row r="626" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:13" s="2" customFormat="1">
       <c r="A626" s="15">
         <v>44090</v>
       </c>
@@ -26818,7 +26818,7 @@
         <v>36521</v>
       </c>
     </row>
-    <row r="627" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:13" s="2" customFormat="1">
       <c r="A627" s="15">
         <v>44091</v>
       </c>
@@ -26859,7 +26859,7 @@
         <v>36846</v>
       </c>
     </row>
-    <row r="628" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:13" s="2" customFormat="1">
       <c r="A628" s="15">
         <v>44092</v>
       </c>
@@ -26900,7 +26900,7 @@
         <v>36893</v>
       </c>
     </row>
-    <row r="629" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:13" s="2" customFormat="1">
       <c r="A629" s="15">
         <v>44093</v>
       </c>
@@ -26941,7 +26941,7 @@
         <v>32486</v>
       </c>
     </row>
-    <row r="630" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:13" s="2" customFormat="1">
       <c r="A630" s="15">
         <v>44094</v>
       </c>
@@ -26982,7 +26982,7 @@
         <v>29517</v>
       </c>
     </row>
-    <row r="631" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:13" s="2" customFormat="1">
       <c r="A631" s="15">
         <v>44095</v>
       </c>
@@ -27023,7 +27023,7 @@
         <v>34397</v>
       </c>
     </row>
-    <row r="632" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:13" s="2" customFormat="1">
       <c r="A632" s="15">
         <v>44096</v>
       </c>
@@ -27064,7 +27064,7 @@
         <v>34237</v>
       </c>
     </row>
-    <row r="633" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:13" s="2" customFormat="1">
       <c r="A633" s="15">
         <v>44097</v>
       </c>
@@ -27105,7 +27105,7 @@
         <v>34689</v>
       </c>
     </row>
-    <row r="634" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:13" s="2" customFormat="1">
       <c r="A634" s="15">
         <v>44098</v>
       </c>
@@ -27146,7 +27146,7 @@
         <v>33525</v>
       </c>
     </row>
-    <row r="635" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:13" s="2" customFormat="1">
       <c r="A635" s="15">
         <v>44099</v>
       </c>
@@ -27187,7 +27187,7 @@
         <v>32012</v>
       </c>
     </row>
-    <row r="636" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:13" s="2" customFormat="1">
       <c r="A636" s="15">
         <v>44100</v>
       </c>
@@ -27228,7 +27228,7 @@
         <v>31095</v>
       </c>
     </row>
-    <row r="637" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:13" s="2" customFormat="1">
       <c r="A637" s="15">
         <v>44101</v>
       </c>
@@ -27269,7 +27269,7 @@
         <v>26808</v>
       </c>
     </row>
-    <row r="638" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:13" s="2" customFormat="1">
       <c r="A638" s="15">
         <v>44102</v>
       </c>
@@ -27310,7 +27310,7 @@
         <v>31113</v>
       </c>
     </row>
-    <row r="639" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:13" s="2" customFormat="1">
       <c r="A639" s="15">
         <v>44103</v>
       </c>
@@ -27351,7 +27351,7 @@
         <v>31746</v>
       </c>
     </row>
-    <row r="640" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:13" s="2" customFormat="1">
       <c r="A640" s="15">
         <v>44104</v>
       </c>
@@ -27392,7 +27392,7 @@
         <v>30723</v>
       </c>
     </row>
-    <row r="641" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:13" s="2" customFormat="1">
       <c r="A641" s="15">
         <v>44105</v>
       </c>
@@ -27433,7 +27433,7 @@
         <v>26398</v>
       </c>
     </row>
-    <row r="642" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:13" s="2" customFormat="1">
       <c r="A642" s="15">
         <v>44106</v>
       </c>
@@ -27474,7 +27474,7 @@
         <v>27075</v>
       </c>
     </row>
-    <row r="643" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:13" s="2" customFormat="1">
       <c r="A643" s="15">
         <v>44107</v>
       </c>
@@ -27515,7 +27515,7 @@
         <v>27548</v>
       </c>
     </row>
-    <row r="644" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:13" s="2" customFormat="1">
       <c r="A644" s="15">
         <v>44108</v>
       </c>
@@ -27556,7 +27556,7 @@
         <v>28281</v>
       </c>
     </row>
-    <row r="645" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:13" s="2" customFormat="1">
       <c r="A645" s="15">
         <v>44109</v>
       </c>
@@ -27597,7 +27597,7 @@
         <v>32508</v>
       </c>
     </row>
-    <row r="646" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:13" s="2" customFormat="1">
       <c r="A646" s="15">
         <v>44110</v>
       </c>
@@ -27638,7 +27638,7 @@
         <v>31900</v>
       </c>
     </row>
-    <row r="647" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:13" s="2" customFormat="1">
       <c r="A647" s="15">
         <v>44111</v>
       </c>
@@ -27679,7 +27679,7 @@
         <v>31307</v>
       </c>
     </row>
-    <row r="648" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:13" s="2" customFormat="1">
       <c r="A648" s="15">
         <v>44112</v>
       </c>
@@ -27720,7 +27720,7 @@
         <v>30813</v>
       </c>
     </row>
-    <row r="649" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:13" s="2" customFormat="1">
       <c r="A649" s="15">
         <v>44113</v>
       </c>
@@ -27761,7 +27761,7 @@
         <v>27483</v>
       </c>
     </row>
-    <row r="650" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:13" s="2" customFormat="1">
       <c r="A650" s="15">
         <v>44114</v>
       </c>
@@ -27802,7 +27802,7 @@
         <v>27387</v>
       </c>
     </row>
-    <row r="651" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:13" s="2" customFormat="1">
       <c r="A651" s="15">
         <v>44115</v>
       </c>
@@ -27843,7 +27843,7 @@
         <v>27431</v>
       </c>
     </row>
-    <row r="652" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:13" s="2" customFormat="1">
       <c r="A652" s="15">
         <v>44116</v>
       </c>
@@ -27884,7 +27884,7 @@
         <v>33063</v>
       </c>
     </row>
-    <row r="653" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:13" s="2" customFormat="1">
       <c r="A653" s="15">
         <v>44117</v>
       </c>
@@ -27925,7 +27925,7 @@
         <v>33389</v>
       </c>
     </row>
-    <row r="654" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:13" s="2" customFormat="1">
       <c r="A654" s="15">
         <v>44118</v>
       </c>
@@ -27966,7 +27966,7 @@
         <v>32798</v>
       </c>
     </row>
-    <row r="655" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:13" s="2" customFormat="1">
       <c r="A655" s="15">
         <v>44119</v>
       </c>
@@ -28007,7 +28007,7 @@
         <v>32682</v>
       </c>
     </row>
-    <row r="656" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:13" s="2" customFormat="1">
       <c r="A656" s="15">
         <v>44120</v>
       </c>
@@ -28048,7 +28048,7 @@
         <v>32878</v>
       </c>
     </row>
-    <row r="657" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:13" s="2" customFormat="1">
       <c r="A657" s="15">
         <v>44121</v>
       </c>
@@ -28089,7 +28089,7 @@
         <v>28021</v>
       </c>
     </row>
-    <row r="658" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:13" s="2" customFormat="1">
       <c r="A658" s="15">
         <v>44122</v>
       </c>
@@ -28130,7 +28130,7 @@
         <v>26570</v>
       </c>
     </row>
-    <row r="659" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:13" s="2" customFormat="1">
       <c r="A659" s="15">
         <v>44123</v>
       </c>
@@ -28171,7 +28171,7 @@
         <v>31046</v>
       </c>
     </row>
-    <row r="660" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:13" s="2" customFormat="1">
       <c r="A660" s="15">
         <v>44124</v>
       </c>
@@ -28212,7 +28212,7 @@
         <v>31632</v>
       </c>
     </row>
-    <row r="661" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:13" s="2" customFormat="1">
       <c r="A661" s="15">
         <v>44125</v>
       </c>
@@ -28253,7 +28253,7 @@
         <v>32367</v>
       </c>
     </row>
-    <row r="662" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:13" s="2" customFormat="1">
       <c r="A662" s="15">
         <v>44126</v>
       </c>
@@ -28294,7 +28294,7 @@
         <v>31202</v>
       </c>
     </row>
-    <row r="663" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:13" s="2" customFormat="1">
       <c r="A663" s="15">
         <v>44127</v>
       </c>
@@ -28335,7 +28335,7 @@
         <v>29698</v>
       </c>
     </row>
-    <row r="664" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:13" s="2" customFormat="1">
       <c r="A664" s="15">
         <v>44128</v>
       </c>
@@ -28376,7 +28376,7 @@
         <v>26791</v>
       </c>
     </row>
-    <row r="665" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:13" s="2" customFormat="1">
       <c r="A665" s="15">
         <v>44129</v>
       </c>
@@ -28417,7 +28417,7 @@
         <v>26126</v>
       </c>
     </row>
-    <row r="666" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:13" s="2" customFormat="1">
       <c r="A666" s="15">
         <v>44130</v>
       </c>
@@ -28458,7 +28458,7 @@
         <v>31092</v>
       </c>
     </row>
-    <row r="667" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:13" s="2" customFormat="1">
       <c r="A667" s="15">
         <v>44131</v>
       </c>
@@ -28499,7 +28499,7 @@
         <v>31669</v>
       </c>
     </row>
-    <row r="668" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:13" s="2" customFormat="1">
       <c r="A668" s="15">
         <v>44132</v>
       </c>
@@ -28540,7 +28540,7 @@
         <v>31959</v>
       </c>
     </row>
-    <row r="669" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:13" s="2" customFormat="1">
       <c r="A669" s="15">
         <v>44133</v>
       </c>
@@ -28581,7 +28581,7 @@
         <v>31271</v>
       </c>
     </row>
-    <row r="670" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:13" s="2" customFormat="1">
       <c r="A670" s="15">
         <v>44134</v>
       </c>
@@ -28622,7 +28622,7 @@
         <v>30264</v>
       </c>
     </row>
-    <row r="671" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:13" s="2" customFormat="1">
       <c r="A671" s="15">
         <v>44135</v>
       </c>
@@ -28663,7 +28663,7 @@
         <v>26763</v>
       </c>
     </row>
-    <row r="672" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:13" s="2" customFormat="1">
       <c r="A672" s="15">
         <v>44136</v>
       </c>
@@ -28704,7 +28704,7 @@
         <v>26127</v>
       </c>
     </row>
-    <row r="673" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:13" s="2" customFormat="1">
       <c r="A673" s="15">
         <v>44137</v>
       </c>
@@ -28745,7 +28745,7 @@
         <v>30430</v>
       </c>
     </row>
-    <row r="674" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:13" s="2" customFormat="1">
       <c r="A674" s="15">
         <v>44138</v>
       </c>
@@ -28786,7 +28786,7 @@
         <v>29974</v>
       </c>
     </row>
-    <row r="675" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:13" s="2" customFormat="1">
       <c r="A675" s="15">
         <v>44139</v>
       </c>
@@ -28827,7 +28827,7 @@
         <v>29788</v>
       </c>
     </row>
-    <row r="676" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:13" s="2" customFormat="1">
       <c r="A676" s="15">
         <v>44140</v>
       </c>
@@ -28868,7 +28868,7 @@
         <v>30344</v>
       </c>
     </row>
-    <row r="677" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:13" s="2" customFormat="1">
       <c r="A677" s="15">
         <v>44141</v>
       </c>
@@ -28909,7 +28909,7 @@
         <v>31792</v>
       </c>
     </row>
-    <row r="678" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:13" s="2" customFormat="1">
       <c r="A678" s="15">
         <v>44142</v>
       </c>
@@ -28950,7 +28950,7 @@
         <v>28206</v>
       </c>
     </row>
-    <row r="679" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:13" s="2" customFormat="1">
       <c r="A679" s="15">
         <v>44143</v>
       </c>
@@ -28991,7 +28991,7 @@
         <v>25619</v>
       </c>
     </row>
-    <row r="680" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:13" s="2" customFormat="1">
       <c r="A680" s="15">
         <v>44144</v>
       </c>
@@ -29032,7 +29032,7 @@
         <v>29368</v>
       </c>
     </row>
-    <row r="681" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:13" s="2" customFormat="1">
       <c r="A681" s="15">
         <v>44145</v>
       </c>
@@ -29073,7 +29073,7 @@
         <v>29812</v>
       </c>
     </row>
-    <row r="682" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:13" s="2" customFormat="1">
       <c r="A682" s="15">
         <v>44146</v>
       </c>
@@ -29114,7 +29114,7 @@
         <v>29612</v>
       </c>
     </row>
-    <row r="683" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:13" s="2" customFormat="1">
       <c r="A683" s="15">
         <v>44147</v>
       </c>
@@ -29155,7 +29155,7 @@
         <v>30403</v>
       </c>
     </row>
-    <row r="684" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:13" s="2" customFormat="1">
       <c r="A684" s="15">
         <v>44148</v>
       </c>
@@ -29196,7 +29196,7 @@
         <v>30186</v>
       </c>
     </row>
-    <row r="685" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:13" s="2" customFormat="1">
       <c r="A685" s="15">
         <v>44149</v>
       </c>
@@ -29237,7 +29237,7 @@
         <v>27146</v>
       </c>
     </row>
-    <row r="686" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:13" s="2" customFormat="1">
       <c r="A686" s="15">
         <v>44150</v>
       </c>
@@ -29278,7 +29278,7 @@
         <v>26102</v>
       </c>
     </row>
-    <row r="687" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:13" s="2" customFormat="1">
       <c r="A687" s="15">
         <v>44151</v>
       </c>
@@ -29319,7 +29319,7 @@
         <v>30964</v>
       </c>
     </row>
-    <row r="688" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:13" s="2" customFormat="1">
       <c r="A688" s="15">
         <v>44152</v>
       </c>
@@ -29360,7 +29360,7 @@
         <v>31405</v>
       </c>
     </row>
-    <row r="689" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:13" s="2" customFormat="1">
       <c r="A689" s="15">
         <v>44153</v>
       </c>
@@ -29401,7 +29401,7 @@
         <v>31816</v>
       </c>
     </row>
-    <row r="690" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:13" s="2" customFormat="1">
       <c r="A690" s="15">
         <v>44154</v>
       </c>
@@ -29442,7 +29442,7 @@
         <v>32069</v>
       </c>
     </row>
-    <row r="691" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:13" s="2" customFormat="1">
       <c r="A691" s="15">
         <v>44155</v>
       </c>
@@ -29483,7 +29483,7 @@
         <v>32023</v>
       </c>
     </row>
-    <row r="692" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:13" s="2" customFormat="1">
       <c r="A692" s="15">
         <v>44156</v>
       </c>
@@ -29524,7 +29524,7 @@
         <v>28675</v>
       </c>
     </row>
-    <row r="693" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:13" s="2" customFormat="1">
       <c r="A693" s="15">
         <v>44157</v>
       </c>
@@ -29565,7 +29565,7 @@
         <v>26885</v>
       </c>
     </row>
-    <row r="694" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:13" s="2" customFormat="1">
       <c r="A694" s="15">
         <v>44158</v>
       </c>
@@ -29606,7 +29606,7 @@
         <v>30832</v>
       </c>
     </row>
-    <row r="695" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:13" s="2" customFormat="1">
       <c r="A695" s="15">
         <v>44159</v>
       </c>
@@ -29647,7 +29647,7 @@
         <v>30950</v>
       </c>
     </row>
-    <row r="696" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:13" s="2" customFormat="1">
       <c r="A696" s="15">
         <v>44160</v>
       </c>
@@ -29688,7 +29688,7 @@
         <v>31491</v>
       </c>
     </row>
-    <row r="697" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:13" s="2" customFormat="1">
       <c r="A697" s="15">
         <v>44161</v>
       </c>
@@ -29729,7 +29729,7 @@
         <v>31429</v>
       </c>
     </row>
-    <row r="698" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:13" s="2" customFormat="1">
       <c r="A698" s="15">
         <v>44162</v>
       </c>
@@ -29770,7 +29770,7 @@
         <v>30174</v>
       </c>
     </row>
-    <row r="699" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:13" s="2" customFormat="1">
       <c r="A699" s="15">
         <v>44163</v>
       </c>
@@ -29811,7 +29811,7 @@
         <v>26837</v>
       </c>
     </row>
-    <row r="700" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:13" s="2" customFormat="1">
       <c r="A700" s="15">
         <v>44164</v>
       </c>
@@ -29852,7 +29852,7 @@
         <v>25242</v>
       </c>
     </row>
-    <row r="701" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:13" s="2" customFormat="1">
       <c r="A701" s="15">
         <v>44165</v>
       </c>
@@ -29893,7 +29893,7 @@
         <v>29117</v>
       </c>
     </row>
-    <row r="702" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:13" s="2" customFormat="1">
       <c r="A702" s="15">
         <v>44166</v>
       </c>
@@ -29934,7 +29934,7 @@
         <v>29577</v>
       </c>
     </row>
-    <row r="703" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:13" s="2" customFormat="1">
       <c r="A703" s="15">
         <v>44167</v>
       </c>
@@ -29975,7 +29975,7 @@
         <v>29532</v>
       </c>
     </row>
-    <row r="704" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:13" s="2" customFormat="1">
       <c r="A704" s="15">
         <v>44168</v>
       </c>
@@ -30016,7 +30016,7 @@
         <v>29310</v>
       </c>
     </row>
-    <row r="705" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:13" s="2" customFormat="1">
       <c r="A705" s="15">
         <v>44169</v>
       </c>
@@ -30057,7 +30057,7 @@
         <v>29382</v>
       </c>
     </row>
-    <row r="706" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:13" s="2" customFormat="1">
       <c r="A706" s="15">
         <v>44170</v>
       </c>
@@ -30098,7 +30098,7 @@
         <v>26644</v>
       </c>
     </row>
-    <row r="707" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:13" s="2" customFormat="1">
       <c r="A707" s="15">
         <v>44171</v>
       </c>
@@ -30139,7 +30139,7 @@
         <v>25606</v>
       </c>
     </row>
-    <row r="708" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:13" s="2" customFormat="1">
       <c r="A708" s="15">
         <v>44172</v>
       </c>
@@ -30180,7 +30180,7 @@
         <v>29726</v>
       </c>
     </row>
-    <row r="709" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:13" s="2" customFormat="1">
       <c r="A709" s="15">
         <v>44173</v>
       </c>
@@ -30221,7 +30221,7 @@
         <v>29864</v>
       </c>
     </row>
-    <row r="710" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:13" s="2" customFormat="1">
       <c r="A710" s="15">
         <v>44174</v>
       </c>
@@ -30262,7 +30262,7 @@
         <v>30135</v>
       </c>
     </row>
-    <row r="711" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:13" s="2" customFormat="1">
       <c r="A711" s="15">
         <v>44175</v>
       </c>
@@ -30303,7 +30303,7 @@
         <v>30197</v>
       </c>
     </row>
-    <row r="712" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:13" s="2" customFormat="1">
       <c r="A712" s="15">
         <v>44176</v>
       </c>
@@ -30344,7 +30344,7 @@
         <v>29921</v>
       </c>
     </row>
-    <row r="713" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:13" s="2" customFormat="1">
       <c r="A713" s="15">
         <v>44177</v>
       </c>
@@ -30385,7 +30385,7 @@
         <v>26664</v>
       </c>
     </row>
-    <row r="714" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:13" s="2" customFormat="1">
       <c r="A714" s="15">
         <v>44178</v>
       </c>
@@ -30426,7 +30426,7 @@
         <v>25459</v>
       </c>
     </row>
-    <row r="715" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:13" s="2" customFormat="1">
       <c r="A715" s="15">
         <v>44179</v>
       </c>
@@ -30467,7 +30467,7 @@
         <v>29617</v>
       </c>
     </row>
-    <row r="716" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:13" s="2" customFormat="1">
       <c r="A716" s="15">
         <v>44180</v>
       </c>
@@ -30508,7 +30508,7 @@
         <v>29702</v>
       </c>
     </row>
-    <row r="717" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:13" s="2" customFormat="1">
       <c r="A717" s="15">
         <v>44181</v>
       </c>
@@ -30549,7 +30549,7 @@
         <v>29798</v>
       </c>
     </row>
-    <row r="718" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:13" s="2" customFormat="1">
       <c r="A718" s="15">
         <v>44182</v>
       </c>
@@ -30590,7 +30590,7 @@
         <v>29878</v>
       </c>
     </row>
-    <row r="719" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:13" s="2" customFormat="1">
       <c r="A719" s="15">
         <v>44183</v>
       </c>
@@ -30631,7 +30631,7 @@
         <v>29802</v>
       </c>
     </row>
-    <row r="720" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:13" s="2" customFormat="1">
       <c r="A720" s="15">
         <v>44184</v>
       </c>
@@ -30672,7 +30672,7 @@
         <v>26743</v>
       </c>
     </row>
-    <row r="721" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:13" s="2" customFormat="1">
       <c r="A721" s="15">
         <v>44185</v>
       </c>
@@ -30713,7 +30713,7 @@
         <v>25658</v>
       </c>
     </row>
-    <row r="722" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:13" s="2" customFormat="1">
       <c r="A722" s="15">
         <v>44186</v>
       </c>
@@ -30754,7 +30754,7 @@
         <v>29650</v>
       </c>
     </row>
-    <row r="723" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:13" s="2" customFormat="1">
       <c r="A723" s="15">
         <v>44187</v>
       </c>
@@ -30795,7 +30795,7 @@
         <v>29908</v>
       </c>
     </row>
-    <row r="724" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:13" s="2" customFormat="1">
       <c r="A724" s="15">
         <v>44188</v>
       </c>
@@ -30836,7 +30836,7 @@
         <v>30312</v>
       </c>
     </row>
-    <row r="725" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:13" s="2" customFormat="1">
       <c r="A725" s="15">
         <v>44189</v>
       </c>
@@ -30877,7 +30877,7 @@
         <v>29857</v>
       </c>
     </row>
-    <row r="726" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:13" s="2" customFormat="1">
       <c r="A726" s="15">
         <v>44190</v>
       </c>
@@ -30918,7 +30918,7 @@
         <v>29299</v>
       </c>
     </row>
-    <row r="727" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:13" s="2" customFormat="1">
       <c r="A727" s="15">
         <v>44191</v>
       </c>
@@ -30959,7 +30959,7 @@
         <v>26732</v>
       </c>
     </row>
-    <row r="728" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:13" s="2" customFormat="1">
       <c r="A728" s="15">
         <v>44192</v>
       </c>
@@ -31000,7 +31000,7 @@
         <v>25977</v>
       </c>
     </row>
-    <row r="729" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:13" s="2" customFormat="1">
       <c r="A729" s="15">
         <v>44193</v>
       </c>
@@ -31041,7 +31041,7 @@
         <v>29491</v>
       </c>
     </row>
-    <row r="730" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:13" s="2" customFormat="1">
       <c r="A730" s="15">
         <v>44194</v>
       </c>
@@ -31082,7 +31082,7 @@
         <v>30020</v>
       </c>
     </row>
-    <row r="731" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:13" s="2" customFormat="1">
       <c r="A731" s="15">
         <v>44195</v>
       </c>
@@ -31123,7 +31123,7 @@
         <v>29093</v>
       </c>
     </row>
-    <row r="732" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:13" s="2" customFormat="1">
       <c r="A732" s="15">
         <v>44196</v>
       </c>
@@ -31164,7 +31164,7 @@
         <v>28444</v>
       </c>
     </row>
-    <row r="733" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:13" s="2" customFormat="1">
       <c r="A733" s="15">
         <v>44197</v>
       </c>
@@ -31205,7 +31205,7 @@
         <v>25720</v>
       </c>
     </row>
-    <row r="734" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:13" s="2" customFormat="1">
       <c r="A734" s="15">
         <v>44198</v>
       </c>
@@ -31246,7 +31246,7 @@
         <v>25485</v>
       </c>
     </row>
-    <row r="735" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:13" s="2" customFormat="1">
       <c r="A735" s="15">
         <v>44199</v>
       </c>
@@ -31287,7 +31287,7 @@
         <v>25476</v>
       </c>
     </row>
-    <row r="736" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:13" s="2" customFormat="1">
       <c r="A736" s="15">
         <v>44200</v>
       </c>
@@ -31328,7 +31328,7 @@
         <v>29734</v>
       </c>
     </row>
-    <row r="737" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:13" s="2" customFormat="1">
       <c r="A737" s="15">
         <v>44201</v>
       </c>
@@ -31369,7 +31369,7 @@
         <v>30050</v>
       </c>
     </row>
-    <row r="738" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:13" s="2" customFormat="1">
       <c r="A738" s="15">
         <v>44202</v>
       </c>
@@ -31410,7 +31410,7 @@
         <v>30327</v>
       </c>
     </row>
-    <row r="739" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:13" s="2" customFormat="1">
       <c r="A739" s="15">
         <v>44203</v>
       </c>
@@ -31451,7 +31451,7 @@
         <v>30500</v>
       </c>
     </row>
-    <row r="740" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:13" s="2" customFormat="1">
       <c r="A740" s="15">
         <v>44204</v>
       </c>
@@ -31492,7 +31492,7 @@
         <v>30412</v>
       </c>
     </row>
-    <row r="741" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:13" s="2" customFormat="1">
       <c r="A741" s="15">
         <v>44205</v>
       </c>
@@ -31533,7 +31533,7 @@
         <v>28068</v>
       </c>
     </row>
-    <row r="742" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:13" s="2" customFormat="1">
       <c r="A742" s="15">
         <v>44206</v>
       </c>
@@ -31574,7 +31574,7 @@
         <v>27255</v>
       </c>
     </row>
-    <row r="743" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:13" s="2" customFormat="1">
       <c r="A743" s="15">
         <v>44207</v>
       </c>
@@ -31615,7 +31615,7 @@
         <v>30679</v>
       </c>
     </row>
-    <row r="744" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:13" s="2" customFormat="1">
       <c r="A744" s="15">
         <v>44208</v>
       </c>
@@ -31656,7 +31656,7 @@
         <v>30633</v>
       </c>
     </row>
-    <row r="745" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:13" s="2" customFormat="1">
       <c r="A745" s="15">
         <v>44209</v>
       </c>
@@ -31697,7 +31697,7 @@
         <v>29994</v>
       </c>
     </row>
-    <row r="746" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:13" s="2" customFormat="1">
       <c r="A746" s="15">
         <v>44210</v>
       </c>
@@ -31738,7 +31738,7 @@
         <v>30021</v>
       </c>
     </row>
-    <row r="747" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:13" s="2" customFormat="1">
       <c r="A747" s="15">
         <v>44211</v>
       </c>
@@ -31779,7 +31779,7 @@
         <v>29555</v>
       </c>
     </row>
-    <row r="748" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:13" s="2" customFormat="1">
       <c r="A748" s="15">
         <v>44212</v>
       </c>
@@ -31820,7 +31820,7 @@
         <v>27121</v>
       </c>
     </row>
-    <row r="749" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:13" s="2" customFormat="1">
       <c r="A749" s="15">
         <v>44213</v>
       </c>
@@ -31861,7 +31861,7 @@
         <v>26712</v>
       </c>
     </row>
-    <row r="750" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:13" s="2" customFormat="1">
       <c r="A750" s="15">
         <v>44214</v>
       </c>
@@ -31902,7 +31902,7 @@
         <v>29938</v>
       </c>
     </row>
-    <row r="751" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:13" s="2" customFormat="1">
       <c r="A751" s="15">
         <v>44215</v>
       </c>
@@ -31943,7 +31943,7 @@
         <v>29990</v>
       </c>
     </row>
-    <row r="752" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:13" s="2" customFormat="1">
       <c r="A752" s="15">
         <v>44216</v>
       </c>
@@ -31984,7 +31984,7 @@
         <v>29984</v>
       </c>
     </row>
-    <row r="753" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:13" s="2" customFormat="1">
       <c r="A753" s="15">
         <v>44217</v>
       </c>
@@ -32025,7 +32025,7 @@
         <v>30285</v>
       </c>
     </row>
-    <row r="754" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:13" s="2" customFormat="1">
       <c r="A754" s="15">
         <v>44218</v>
       </c>
@@ -32066,7 +32066,7 @@
         <v>30095</v>
       </c>
     </row>
-    <row r="755" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:13" s="2" customFormat="1">
       <c r="A755" s="15">
         <v>44219</v>
       </c>
@@ -32107,7 +32107,7 @@
         <v>27218</v>
       </c>
     </row>
-    <row r="756" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:13" s="2" customFormat="1">
       <c r="A756" s="15">
         <v>44220</v>
       </c>
@@ -32148,7 +32148,7 @@
         <v>25717</v>
       </c>
     </row>
-    <row r="757" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:13" s="2" customFormat="1">
       <c r="A757" s="15">
         <v>44221</v>
       </c>
@@ -32189,7 +32189,7 @@
         <v>29794</v>
       </c>
     </row>
-    <row r="758" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:13" s="2" customFormat="1">
       <c r="A758" s="15">
         <v>44222</v>
       </c>
@@ -32230,7 +32230,7 @@
         <v>29933</v>
       </c>
     </row>
-    <row r="759" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:13" s="2" customFormat="1">
       <c r="A759" s="15">
         <v>44223</v>
       </c>
@@ -32271,7 +32271,7 @@
         <v>29588</v>
       </c>
     </row>
-    <row r="760" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:13" s="2" customFormat="1">
       <c r="A760" s="15">
         <v>44224</v>
       </c>
@@ -32312,7 +32312,7 @@
         <v>29557</v>
       </c>
     </row>
-    <row r="761" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:13" s="2" customFormat="1">
       <c r="A761" s="15">
         <v>44225</v>
       </c>
@@ -32353,7 +32353,7 @@
         <v>29269</v>
       </c>
     </row>
-    <row r="762" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:13" s="2" customFormat="1">
       <c r="A762" s="15">
         <v>44226</v>
       </c>
@@ -32394,7 +32394,7 @@
         <v>26662</v>
       </c>
     </row>
-    <row r="763" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:13" s="2" customFormat="1">
       <c r="A763" s="15">
         <v>44227</v>
       </c>
@@ -32435,7 +32435,7 @@
         <v>25458</v>
       </c>
     </row>
-    <row r="764" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:13" s="2" customFormat="1">
       <c r="A764" s="15">
         <v>44228</v>
       </c>
@@ -32472,7 +32472,7 @@
       <c r="L764" s="9"/>
       <c r="M764" s="9"/>
     </row>
-    <row r="765" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:13" s="2" customFormat="1">
       <c r="A765" s="15">
         <v>44229</v>
       </c>
@@ -32509,7 +32509,7 @@
       <c r="L765" s="9"/>
       <c r="M765" s="9"/>
     </row>
-    <row r="766" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:13" s="2" customFormat="1">
       <c r="A766" s="15">
         <v>44230</v>
       </c>
@@ -32546,7 +32546,7 @@
       <c r="L766" s="9"/>
       <c r="M766" s="9"/>
     </row>
-    <row r="767" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:13" s="2" customFormat="1">
       <c r="A767" s="15">
         <v>44231</v>
       </c>
@@ -32583,7 +32583,7 @@
       <c r="L767" s="9"/>
       <c r="M767" s="9"/>
     </row>
-    <row r="768" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:13" s="2" customFormat="1">
       <c r="A768" s="15">
         <v>44232</v>
       </c>
@@ -32620,7 +32620,7 @@
       <c r="L768" s="9"/>
       <c r="M768" s="9"/>
     </row>
-    <row r="769" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:13" s="2" customFormat="1">
       <c r="A769" s="15">
         <v>44233</v>
       </c>
@@ -32657,7 +32657,7 @@
       <c r="L769" s="9"/>
       <c r="M769" s="9"/>
     </row>
-    <row r="770" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:13" s="2" customFormat="1">
       <c r="A770" s="15">
         <v>44234</v>
       </c>
@@ -32694,7 +32694,7 @@
       <c r="L770" s="9"/>
       <c r="M770" s="9"/>
     </row>
-    <row r="771" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:13" s="2" customFormat="1">
       <c r="A771" s="15">
         <v>44235</v>
       </c>
@@ -32731,7 +32731,7 @@
       <c r="L771" s="9"/>
       <c r="M771" s="9"/>
     </row>
-    <row r="772" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:13" s="2" customFormat="1">
       <c r="A772" s="15">
         <v>44236</v>
       </c>
@@ -32768,7 +32768,7 @@
       <c r="L772" s="9"/>
       <c r="M772" s="9"/>
     </row>
-    <row r="773" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:13" s="2" customFormat="1">
       <c r="A773" s="15">
         <v>44237</v>
       </c>
@@ -32805,7 +32805,7 @@
       <c r="L773" s="9"/>
       <c r="M773" s="9"/>
     </row>
-    <row r="774" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:13" s="2" customFormat="1">
       <c r="A774" s="15">
         <v>44238</v>
       </c>
@@ -32842,7 +32842,7 @@
       <c r="L774" s="9"/>
       <c r="M774" s="9"/>
     </row>
-    <row r="775" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:13" s="7" customFormat="1">
       <c r="A775" s="15">
         <v>44239</v>
       </c>
@@ -32879,7 +32879,7 @@
       <c r="L775" s="9"/>
       <c r="M775" s="9"/>
     </row>
-    <row r="776" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:13" s="2" customFormat="1">
       <c r="A776" s="15">
         <v>44240</v>
       </c>
@@ -32916,7 +32916,7 @@
       <c r="L776" s="9"/>
       <c r="M776" s="9"/>
     </row>
-    <row r="777" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:13" s="2" customFormat="1">
       <c r="A777" s="15">
         <v>44241</v>
       </c>
@@ -32953,7 +32953,7 @@
       <c r="L777" s="9"/>
       <c r="M777" s="9"/>
     </row>
-    <row r="778" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:13" s="2" customFormat="1">
       <c r="A778" s="15">
         <v>44242</v>
       </c>
@@ -32990,7 +32990,7 @@
       <c r="L778" s="9"/>
       <c r="M778" s="9"/>
     </row>
-    <row r="779" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:13" s="2" customFormat="1">
       <c r="A779" s="15">
         <v>44243</v>
       </c>
@@ -33027,7 +33027,7 @@
       <c r="L779" s="9"/>
       <c r="M779" s="9"/>
     </row>
-    <row r="780" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:13" s="2" customFormat="1">
       <c r="A780" s="15">
         <v>44244</v>
       </c>
@@ -33064,7 +33064,7 @@
       <c r="L780" s="9"/>
       <c r="M780" s="9"/>
     </row>
-    <row r="781" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:13" s="2" customFormat="1">
       <c r="A781" s="15">
         <v>44245</v>
       </c>
@@ -33101,7 +33101,7 @@
       <c r="L781" s="9"/>
       <c r="M781" s="9"/>
     </row>
-    <row r="782" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:13" s="2" customFormat="1">
       <c r="A782" s="15">
         <v>44246</v>
       </c>
@@ -33138,7 +33138,7 @@
       <c r="L782" s="9"/>
       <c r="M782" s="9"/>
     </row>
-    <row r="783" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:13" s="2" customFormat="1">
       <c r="A783" s="15">
         <v>44247</v>
       </c>
@@ -33175,7 +33175,7 @@
       <c r="L783" s="9"/>
       <c r="M783" s="9"/>
     </row>
-    <row r="784" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:13" s="2" customFormat="1">
       <c r="A784" s="15">
         <v>44248</v>
       </c>
@@ -33212,7 +33212,7 @@
       <c r="L784" s="9"/>
       <c r="M784" s="9"/>
     </row>
-    <row r="785" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:13" s="2" customFormat="1">
       <c r="A785" s="15">
         <v>44249</v>
       </c>
@@ -33249,7 +33249,7 @@
       <c r="L785" s="9"/>
       <c r="M785" s="9"/>
     </row>
-    <row r="786" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:13" s="2" customFormat="1">
       <c r="A786" s="15">
         <v>44250</v>
       </c>
@@ -33286,7 +33286,7 @@
       <c r="L786" s="9"/>
       <c r="M786" s="9"/>
     </row>
-    <row r="787" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:13" s="2" customFormat="1">
       <c r="A787" s="15">
         <v>44251</v>
       </c>
@@ -33323,7 +33323,7 @@
       <c r="L787" s="9"/>
       <c r="M787" s="9"/>
     </row>
-    <row r="788" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:13" s="2" customFormat="1">
       <c r="A788" s="15">
         <v>44252</v>
       </c>
@@ -33360,7 +33360,7 @@
       <c r="L788" s="9"/>
       <c r="M788" s="9"/>
     </row>
-    <row r="789" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:13" s="2" customFormat="1">
       <c r="A789" s="15">
         <v>44253</v>
       </c>
@@ -33397,7 +33397,7 @@
       <c r="L789" s="9"/>
       <c r="M789" s="9"/>
     </row>
-    <row r="790" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:13" s="2" customFormat="1">
       <c r="A790" s="15">
         <v>44254</v>
       </c>
@@ -33434,7 +33434,7 @@
       <c r="L790" s="9"/>
       <c r="M790" s="9"/>
     </row>
-    <row r="791" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:13" s="2" customFormat="1">
       <c r="A791" s="15">
         <v>44255</v>
       </c>
@@ -33471,7 +33471,7 @@
       <c r="L791" s="9"/>
       <c r="M791" s="9"/>
     </row>
-    <row r="792" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:13" s="3" customFormat="1">
       <c r="A792" s="15">
         <v>44256</v>
       </c>
@@ -33508,7 +33508,7 @@
       <c r="L792" s="9"/>
       <c r="M792" s="9"/>
     </row>
-    <row r="793" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:13" s="3" customFormat="1">
       <c r="A793" s="15">
         <v>44257</v>
       </c>
@@ -33545,7 +33545,7 @@
       <c r="L793" s="9"/>
       <c r="M793" s="9"/>
     </row>
-    <row r="794" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:13" s="3" customFormat="1">
       <c r="A794" s="15">
         <v>44258</v>
       </c>
@@ -33582,7 +33582,7 @@
       <c r="L794" s="9"/>
       <c r="M794" s="9"/>
     </row>
-    <row r="795" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:13" s="3" customFormat="1">
       <c r="A795" s="15">
         <v>44259</v>
       </c>
@@ -33619,7 +33619,7 @@
       <c r="L795" s="9"/>
       <c r="M795" s="9"/>
     </row>
-    <row r="796" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:13" s="3" customFormat="1">
       <c r="A796" s="15">
         <v>44260</v>
       </c>
@@ -33656,7 +33656,7 @@
       <c r="L796" s="9"/>
       <c r="M796" s="9"/>
     </row>
-    <row r="797" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:13" s="3" customFormat="1">
       <c r="A797" s="15">
         <v>44261</v>
       </c>
@@ -33693,7 +33693,7 @@
       <c r="L797" s="9"/>
       <c r="M797" s="9"/>
     </row>
-    <row r="798" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:13" s="3" customFormat="1">
       <c r="A798" s="15">
         <v>44262</v>
       </c>
@@ -33730,7 +33730,7 @@
       <c r="L798" s="9"/>
       <c r="M798" s="9"/>
     </row>
-    <row r="799" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:13" s="3" customFormat="1">
       <c r="A799" s="15">
         <v>44263</v>
       </c>
@@ -33767,7 +33767,7 @@
       <c r="L799" s="9"/>
       <c r="M799" s="9"/>
     </row>
-    <row r="800" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:13" s="3" customFormat="1">
       <c r="A800" s="15">
         <v>44264</v>
       </c>
@@ -33804,7 +33804,7 @@
       <c r="L800" s="9"/>
       <c r="M800" s="9"/>
     </row>
-    <row r="801" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:13" s="5" customFormat="1">
       <c r="A801" s="15">
         <v>44265</v>
       </c>
@@ -33841,7 +33841,7 @@
       <c r="L801" s="9"/>
       <c r="M801" s="9"/>
     </row>
-    <row r="802" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:13" s="5" customFormat="1">
       <c r="A802" s="15">
         <v>44266</v>
       </c>
@@ -33878,7 +33878,7 @@
       <c r="L802" s="9"/>
       <c r="M802" s="9"/>
     </row>
-    <row r="803" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:13" s="5" customFormat="1">
       <c r="A803" s="15">
         <v>44267</v>
       </c>
@@ -33915,7 +33915,7 @@
       <c r="L803" s="9"/>
       <c r="M803" s="9"/>
     </row>
-    <row r="804" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:13" s="5" customFormat="1">
       <c r="A804" s="15">
         <v>44268</v>
       </c>
@@ -33952,7 +33952,7 @@
       <c r="L804" s="9"/>
       <c r="M804" s="9"/>
     </row>
-    <row r="805" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:13" s="5" customFormat="1">
       <c r="A805" s="15">
         <v>44269</v>
       </c>
@@ -33989,7 +33989,7 @@
       <c r="L805" s="9"/>
       <c r="M805" s="9"/>
     </row>
-    <row r="806" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:13" s="5" customFormat="1">
       <c r="A806" s="15">
         <v>44270</v>
       </c>
@@ -34026,13 +34026,11 @@
       <c r="L806" s="9"/>
       <c r="M806" s="9"/>
     </row>
-    <row r="807" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:13" s="5" customFormat="1">
       <c r="A807" s="15">
         <v>44271</v>
       </c>
-      <c r="B807" s="17">
-        <v>0</v>
-      </c>
+      <c r="B807" s="17"/>
       <c r="C807" s="11">
         <v>804</v>
       </c>
@@ -34065,13 +34063,11 @@
       <c r="L807" s="9"/>
       <c r="M807" s="9"/>
     </row>
-    <row r="808" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:13" s="5" customFormat="1">
       <c r="A808" s="15">
         <v>44272</v>
       </c>
-      <c r="B808" s="17">
-        <v>1</v>
-      </c>
+      <c r="B808" s="17"/>
       <c r="C808" s="11">
         <v>805</v>
       </c>
@@ -34087,20 +34083,28 @@
       <c r="G808" s="9">
         <v>3</v>
       </c>
-      <c r="H808" s="9"/>
-      <c r="I808" s="9"/>
-      <c r="J808" s="9"/>
-      <c r="K808" s="9"/>
+      <c r="H808">
+        <v>3183</v>
+      </c>
+      <c r="I808">
+        <v>10.36</v>
+      </c>
+      <c r="J808" s="9">
+        <f t="shared" ref="J808:J812" si="26">K808+H808</f>
+        <v>33906.938223938225</v>
+      </c>
+      <c r="K808" s="9">
+        <f t="shared" ref="K808:K812" si="27">(H808*100)/I808</f>
+        <v>30723.938223938225</v>
+      </c>
       <c r="L808" s="9"/>
       <c r="M808" s="9"/>
     </row>
-    <row r="809" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:13" s="5" customFormat="1">
       <c r="A809" s="15">
         <v>44273</v>
       </c>
-      <c r="B809" s="17">
-        <v>2</v>
-      </c>
+      <c r="B809" s="17"/>
       <c r="C809" s="11">
         <v>806</v>
       </c>
@@ -34116,20 +34120,28 @@
       <c r="G809" s="9">
         <v>4</v>
       </c>
-      <c r="H809" s="9"/>
-      <c r="I809" s="9"/>
-      <c r="J809" s="9"/>
-      <c r="K809" s="9"/>
+      <c r="H809">
+        <v>3214</v>
+      </c>
+      <c r="I809">
+        <v>10.46</v>
+      </c>
+      <c r="J809" s="9">
+        <f t="shared" si="26"/>
+        <v>33940.577437858505</v>
+      </c>
+      <c r="K809" s="9">
+        <f t="shared" si="27"/>
+        <v>30726.577437858505</v>
+      </c>
       <c r="L809" s="9"/>
       <c r="M809" s="9"/>
     </row>
-    <row r="810" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:13" s="5" customFormat="1">
       <c r="A810" s="15">
         <v>44274</v>
       </c>
-      <c r="B810" s="17">
-        <v>3</v>
-      </c>
+      <c r="B810" s="17"/>
       <c r="C810" s="11">
         <v>807</v>
       </c>
@@ -34145,20 +34157,28 @@
       <c r="G810" s="9">
         <v>5</v>
       </c>
-      <c r="H810" s="9"/>
-      <c r="I810" s="9"/>
-      <c r="J810" s="9"/>
-      <c r="K810" s="9"/>
+      <c r="H810">
+        <v>3137</v>
+      </c>
+      <c r="I810">
+        <v>10.16</v>
+      </c>
+      <c r="J810" s="9">
+        <f t="shared" si="26"/>
+        <v>34012.984251968504</v>
+      </c>
+      <c r="K810" s="9">
+        <f t="shared" si="27"/>
+        <v>30875.984251968504</v>
+      </c>
       <c r="L810" s="9"/>
       <c r="M810" s="9"/>
     </row>
-    <row r="811" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:13" s="5" customFormat="1">
       <c r="A811" s="15">
         <v>44275</v>
       </c>
-      <c r="B811" s="17">
-        <v>4</v>
-      </c>
+      <c r="B811" s="17"/>
       <c r="C811" s="11">
         <v>808</v>
       </c>
@@ -34174,20 +34194,28 @@
       <c r="G811" s="9">
         <v>6</v>
       </c>
-      <c r="H811" s="9"/>
-      <c r="I811" s="9"/>
-      <c r="J811" s="9"/>
-      <c r="K811" s="9"/>
+      <c r="H811">
+        <v>2839</v>
+      </c>
+      <c r="I811">
+        <v>10.23</v>
+      </c>
+      <c r="J811" s="9">
+        <f t="shared" si="26"/>
+        <v>30590.710654936462</v>
+      </c>
+      <c r="K811" s="9">
+        <f t="shared" si="27"/>
+        <v>27751.710654936462</v>
+      </c>
       <c r="L811" s="9"/>
       <c r="M811" s="9"/>
     </row>
-    <row r="812" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:13" s="5" customFormat="1">
       <c r="A812" s="15">
         <v>44276</v>
       </c>
-      <c r="B812" s="17">
-        <v>5</v>
-      </c>
+      <c r="B812" s="17"/>
       <c r="C812" s="11">
         <v>809</v>
       </c>
@@ -34203,19 +34231,29 @@
       <c r="G812" s="9">
         <v>7</v>
       </c>
-      <c r="H812" s="9"/>
-      <c r="I812" s="9"/>
-      <c r="J812" s="9"/>
-      <c r="K812" s="9"/>
+      <c r="H812">
+        <v>3186</v>
+      </c>
+      <c r="I812">
+        <v>12.4</v>
+      </c>
+      <c r="J812" s="9">
+        <f t="shared" si="26"/>
+        <v>28879.548387096773</v>
+      </c>
+      <c r="K812" s="9">
+        <f t="shared" si="27"/>
+        <v>25693.548387096773</v>
+      </c>
       <c r="L812" s="9"/>
       <c r="M812" s="9"/>
     </row>
-    <row r="813" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:13" s="5" customFormat="1">
       <c r="A813" s="15">
         <v>44277</v>
       </c>
       <c r="B813" s="17">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C813" s="11">
         <v>810</v>
@@ -34239,12 +34277,12 @@
       <c r="L813" s="9"/>
       <c r="M813" s="9"/>
     </row>
-    <row r="814" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:13" s="6" customFormat="1">
       <c r="A814" s="15">
         <v>44278</v>
       </c>
       <c r="B814" s="17">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C814" s="11">
         <v>811</v>
@@ -34268,12 +34306,12 @@
       <c r="L814" s="9"/>
       <c r="M814" s="9"/>
     </row>
-    <row r="815" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:13" s="6" customFormat="1">
       <c r="A815" s="15">
         <v>44279</v>
       </c>
       <c r="B815" s="17">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C815" s="11">
         <v>812</v>
@@ -34297,12 +34335,12 @@
       <c r="L815" s="9"/>
       <c r="M815" s="9"/>
     </row>
-    <row r="816" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:13" s="6" customFormat="1">
       <c r="A816" s="15">
         <v>44280</v>
       </c>
       <c r="B816" s="17">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C816" s="11">
         <v>813</v>
@@ -34326,12 +34364,12 @@
       <c r="L816" s="9"/>
       <c r="M816" s="9"/>
     </row>
-    <row r="817" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:13" s="6" customFormat="1">
       <c r="A817" s="15">
         <v>44281</v>
       </c>
       <c r="B817" s="17">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C817" s="11">
         <v>814</v>
@@ -34355,12 +34393,12 @@
       <c r="L817" s="9"/>
       <c r="M817" s="9"/>
     </row>
-    <row r="818" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:13" s="6" customFormat="1">
       <c r="A818" s="15">
         <v>44282</v>
       </c>
       <c r="B818" s="17">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C818" s="11">
         <v>815</v>
@@ -34384,12 +34422,12 @@
       <c r="L818" s="9"/>
       <c r="M818" s="9"/>
     </row>
-    <row r="819" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:13" s="6" customFormat="1">
       <c r="A819" s="15">
         <v>44283</v>
       </c>
       <c r="B819" s="17">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C819" s="11">
         <v>816</v>
@@ -34413,12 +34451,12 @@
       <c r="L819" s="9"/>
       <c r="M819" s="9"/>
     </row>
-    <row r="820" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:13" s="6" customFormat="1">
       <c r="A820" s="15">
         <v>44284</v>
       </c>
       <c r="B820" s="17">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C820" s="11">
         <v>817</v>
@@ -34442,7 +34480,8 @@
       <c r="L820" s="9"/>
       <c r="M820" s="9"/>
     </row>
-    <row r="821" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:13">
+      <c r="B821" s="17"/>
       <c r="E821" s="4"/>
     </row>
   </sheetData>
@@ -34460,12 +34499,12 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="16384" width="8.875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" s="16" t="s">
         <v>11</v>
       </c>
@@ -34473,7 +34512,7 @@
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" s="16" t="s">
         <v>12</v>
       </c>
@@ -34483,7 +34522,7 @@
       </c>
       <c r="D2" s="16"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" s="16">
         <v>0</v>
       </c>
@@ -34497,7 +34536,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" s="16" t="s">
         <v>14</v>
       </c>
@@ -34505,7 +34544,7 @@
       <c r="C4" s="16"/>
       <c r="D4" s="16"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" s="16" t="s">
         <v>12</v>
       </c>
@@ -34515,7 +34554,7 @@
       </c>
       <c r="D5" s="16"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6" s="16">
         <v>760</v>
       </c>
@@ -34530,7 +34569,7 @@
       </c>
       <c r="L6" s="8"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7" s="16" t="s">
         <v>15</v>
       </c>
@@ -34538,7 +34577,7 @@
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="A8" s="16" t="s">
         <v>12</v>
       </c>
@@ -34548,7 +34587,7 @@
       </c>
       <c r="D8" s="16"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9" s="16">
         <v>774</v>
       </c>
